--- a/dataset/lg/venkateswara.xlsx
+++ b/dataset/lg/venkateswara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీసతి నీల జాంబవతి శ్రీయమునాసతి సత్యభామ ధా
 త్రీసతి రుక్మిణీరమణి దేవియిలాసతి వీర లందఱు\న్‌
@@ -477,32 +474,29 @@
 మూసినముత్యమై యురము ముంగిటఁ జెంగట వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('స', '|'), ('తి', '|'), ('నీ', 'U'), ('ల', '|'), ('జాం', 'U'), ('బ', '|'), ('వ', '|'), ('తి', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ము', '|'), ('నా', 'U'), ('స', '|'), ('తి', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మ', '|'), ('ధా', 'U'), ('త్రీ', 'U'), ('స', '|'), ('తి', '|'), ('రు', 'U'), ('క్మి', '|'), ('ణీ', 'U'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('దే', 'U'), ('వి', '|'), ('యి', '|'), ('లా', 'U'), ('స', '|'), ('తి', '|'), ('వీ', 'U'), ('ర', '|'), ('లం', 'U'), ('ద', '|'), ('ఱున్', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('సే', 'U'), ('వ', '|'), ('చే', 'U'), ('సె', '|'), ('ద', '|'), ('ను', '|'), ('జే', 'U'), ('కొ', '|'), ('ను', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('మూ', 'U'), ('సి', '|'), ('న', '|'), ('ము', 'U'), ('త్య', '|'), ('మై', 'U'), ('యు', '|'), ('ర', '|'), ('ము', '|'), ('ముం', 'U'), ('గి', '|'), ('ట', '|'), ('జెం', 'U'), ('గ', '|'), ('ట', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>కన్నులుగల్గి కొమ్మ నిను గప్పముఁ జేకొన లేఁతనవ్వు నీ
 కెన్నఁడు మోవి నిచ్చినదో యేగతి మెచ్చితో యెట్టులుండెనో
@@ -510,32 +504,29 @@
 మన్నన నెట్టు లిచ్చితివో మాటలఁ జిక్కవు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('న్ను', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('ని', '|'), ('ను', '|'), ('గ', 'U'), ('ప్ప', '|'), ('ము', '|'), ('జే', 'U'), ('కొ', '|'), ('న', '|'), ('లే', 'U'), ('త', '|'), ('న', 'U'), ('వ్వు', '|'), ('నీ', 'U'), ('కె', 'U'), ('న్న', '|'), ('డు', '|'), ('మో', 'U'), ('వి', '|'), ('ని', 'U'), ('చ్చి', '|'), ('న', '|'), ('దో', 'U'), ('యే', 'U'), ('గ', '|'), ('తి', '|'), ('మె', 'U'), ('చ్చి', '|'), ('తో', 'U'), ('యె', 'U'), ('ట్టు', '|'), ('లుం', 'U'), ('డె', '|'), ('నో', 'U'), ('య', 'U'), ('న్ని', '|'), ('ట', '|'), ('నే', 'U'), ('నె', '|'), ('జా', 'U'), ('ణ', '|'), ('న', '|'), ('ని', '|'), ('యుం', 'U'), ('దు', '|'), ('వు', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కే', 'U'), ('మ', 'U'), ('న్న', '|'), ('న', '|'), ('నె', 'U'), ('ట్టు', '|'), ('లి', 'U'), ('చ్చి', '|'), ('తి', '|'), ('వో', 'U'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('జి', 'U'), ('క్క', '|'), ('వు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>కిలకిల నవ్వు నవ్వి తిలకించితి మంచి సుధారసంబు నీ
 పలుకులతేనెలన్‌ విభునిఁ బట్టముఁ గట్టితి నీదుకౌఁగిట\న్‌
@@ -543,32 +534,29 @@
 కెలవు లటంచు నెచ్చెలులు కీర్తన సేతురు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('కి', '|'), ('ల', '|'), ('కి', '|'), ('ల', '|'), ('న', 'U'), ('వ్వు', '|'), ('న', 'U'), ('వ్వి', '|'), ('తి', '|'), ('ల', '|'), ('కిం', 'U'), ('చి', '|'), ('తి', '|'), ('మం', 'U'), ('చి', '|'), ('సు', '|'), ('ధా', 'U'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('నీ', 'U'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('ల', '|'), ('తే', 'U'), ('నె', '|'), ('లన్', 'U'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('బ', 'U'), ('ట్ట', '|'), ('ము', '|'), ('గ', 'U'), ('ట్టి', '|'), ('తి', '|'), ('నీ', 'U'), ('దు', '|'), ('కౌ', 'U'), ('గి', '|'), ('టన్', 'U'), ('వ', '|'), ('ల', '|'), ('ద', '|'), ('ని', '|'), ('చె', 'U'), ('ప్పి', '|'), ('నన్', 'U'), ('వి', '|'), ('న', '|'), ('వు', '|'), ('వ', 'U'), ('ద్దు', '|'), ('సు', '|'), ('మీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('కె', '|'), ('ల', '|'), ('వు', '|'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('నె', 'U'), ('చ్చె', '|'), ('లు', '|'), ('లు', '|'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('సే', 'U'), ('తు', '|'), ('రు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>నీవును దాను గూడెఁ దరుణీమణి శ్రీయలమేలుమంగ నా
 నావిధవైభవంబుల ననారతముం జెలువొందు నేఁడు నీ
@@ -576,32 +564,29 @@
 దేవర చిత్తమెవ్వరికిఁ దేర్పఁగ శక్యమె వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('వు', '|'), ('ను', '|'), ('దా', 'U'), ('ను', '|'), ('గూ', 'U'), ('డె', '|'), ('ద', '|'), ('రు', '|'), ('ణీ', 'U'), ('మ', '|'), ('ణి', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నా', 'U'), ('నా', 'U'), ('వి', '|'), ('ధ', '|'), ('వై', 'U'), ('భ', '|'), ('వం', 'U'), ('బు', '|'), ('ల', '|'), ('న', '|'), ('నా', 'U'), ('ర', '|'), ('త', '|'), ('ముం', 'U'), ('జె', '|'), ('లు', '|'), ('వొం', 'U'), ('దు', '|'), ('నే', 'U'), ('డు', '|'), ('నీ', 'U'), ('వా', 'U'), ('వ', '|'), ('లి', '|'), ('మో', 'U'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('త', '|'), ('న', '|'), ('య', 'U'), ('ప్ప', '|'), ('టి', '|'), ('నుం', 'U'), ('డి', '|'), ('యు', '|'), ('బ', 'U'), ('ల్క', '|'), ('వి', 'U'), ('ట్టు', '|'), ('లా', 'U'), ('దే', 'U'), ('వ', '|'), ('ర', '|'), ('చి', 'U'), ('త్త', '|'), ('మె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', '|'), ('దే', 'U'), ('ర్ప', '|'), ('గ', '|'), ('శ', 'U'), ('క్య', '|'), ('మె', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>ఓలలితాంగి! యోకలికి! యోయెలజవ్వని! యోవధూటి! యో
 గోల! మెఱుంగుఁజూపుకనుఁగోనల నోయలమేలుమంగ మ
@@ -609,32 +594,29 @@
 పాలికిఁ జేరి మ్రొక్కుదురు పద్మభవాదులు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('ఓ', 'U'), ('ల', '|'), ('లి', '|'), ('తాం', 'U'), ('గి', '|'), ('యో', 'U'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('యో', 'U'), ('యె', '|'), ('ల', '|'), ('జ', 'U'), ('వ్వ', '|'), ('ని', '|'), ('యో', 'U'), ('వ', '|'), ('ధూ', 'U'), ('టి', '|'), ('యో', 'U'), ('గో', 'U'), ('ల', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('జూ', 'U'), ('పు', '|'), ('క', '|'), ('ను', '|'), ('గో', 'U'), ('న', '|'), ('ల', '|'), ('నో', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('మ', 'U'), ('మ్మే', 'U'), ('లి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('నీ', 'U'), ('వి', '|'), ('భు', '|'), ('న', '|'), ('కిం', 'U'), ('చు', '|'), ('క', '|'), ('మా', 'U'), ('దె', '|'), ('స', '|'), ('జూ', 'U'), ('పు', '|'), ('మం', 'U'), ('చు', '|'), ('నీ', 'U'), ('పా', 'U'), ('లి', '|'), ('కి', '|'), ('జే', 'U'), ('రి', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('దు', '|'), ('రు', '|'), ('ప', 'U'), ('ద్మ', '|'), ('భ', '|'), ('వా', 'U'), ('దు', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>చికురభరంబుచే (నదిమి) శ్రీలలితాంగివి నీవు నాగుణా
 ధికునియురంబుపై రతులఁ దేలుచు శ్రీయలమేలుమంగ నీ
@@ -642,32 +624,29 @@
 వెకలి వటండ్రు నెచ్చెలులు వేడ్కల నీసతి వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('చి', '|'), ('కు', '|'), ('ర', '|'), ('భ', '|'), ('రం', 'U'), ('బు', '|'), ('చే', 'U'), ('న', '|'), ('ది', '|'), ('మి', 'U'), ('శ్రీ', 'U'), ('ల', '|'), ('లి', '|'), ('తాం', 'U'), ('గి', '|'), ('వి', '|'), ('నీ', 'U'), ('వు', '|'), ('నా', 'U'), ('గు', '|'), ('ణా', 'U'), ('ధి', '|'), ('కు', '|'), ('ని', '|'), ('యు', '|'), ('రం', 'U'), ('బు', '|'), ('పై', 'U'), ('ర', '|'), ('తు', '|'), ('ల', '|'), ('దే', 'U'), ('లు', '|'), ('చు', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('లి', '|'), ('కు', '|'), ('చ', '|'), ('కు', '|'), ('చ', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('న', '|'), ('లే', 'U'), ('త', '|'), ('వ', '|'), ('య', 'U'), ('స్సు', '|'), ('న', '|'), ('నిం', 'U'), ('త', '|'), ('నే', 'U'), ('తు', '|'), ('రా', 'U'), ('వె', '|'), ('క', '|'), ('లి', '|'), ('వ', '|'), ('టం', 'U'), ('డ్రు', '|'), ('నె', 'U'), ('చ్చె', '|'), ('లు', '|'), ('లు', '|'), ('వే', 'U'), ('డ్క', '|'), ('ల', '|'), ('నీ', 'U'), ('స', '|'), ('తి', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>ఒకమఱి నీవు కన్గొనల నొయ్యనఁ జూచిన నీవిభుండు లోఁ
 గకవికఁ దర్చుఁ జేరునట కౌఁగిటి కోయలమేలుమంగ నీ
@@ -675,32 +654,29 @@
 బికశుకపంక్తి నీకుఁ దలఁపించును నీసతి వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('క', '|'), ('మ', '|'), ('ఱి', '|'), ('నీ', 'U'), ('వు', '|'), ('క', 'U'), ('న్గొ', '|'), ('న', '|'), ('ల', '|'), ('నొ', 'U'), ('య్య', '|'), ('న', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('నీ', 'U'), ('వి', '|'), ('భుం', 'U'), ('డు', '|'), ('లో', 'U'), ('గ', '|'), ('క', '|'), ('వి', '|'), ('క', '|'), ('ద', 'U'), ('ర్చు', '|'), ('జే', 'U'), ('రు', '|'), ('న', '|'), ('ట', '|'), ('కౌ', 'U'), ('గి', '|'), ('టి', '|'), ('కో', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('వి', '|'), ('క', '|'), ('చ', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('మం', 'U'), ('చు', '|'), ('న', '|'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('మ', '|'), ('రం', 'U'), ('ద', '|'), ('పు', '|'), ('దే', 'U'), ('నె', '|'), ('ప', 'U'), ('ల్కు', '|'), ('లన్', 'U'), ('బి', '|'), ('క', '|'), ('శు', '|'), ('క', '|'), ('పం', 'U'), ('క్తి', '|'), ('నీ', 'U'), ('కు', '|'), ('ద', '|'), ('ల', '|'), ('పిం', 'U'), ('చు', '|'), ('ను', '|'), ('నీ', 'U'), ('స', '|'), ('తి', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>కూరిమి సానవట్టిన చకోరపుఁ గన్నుఁగొన\న్‌ దళుక్కునన్‌
 జేరువ మించులై మెఱయఁ జిమ్ములబొమ్మలఁ బంపు నవ్వు దై
@@ -708,32 +684,29 @@
 సారపు నేర్పుఁ జక్కగొనెఁ జక్కని మోమున వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('కూ', 'U'), ('రి', '|'), ('మి', '|'), ('సా', 'U'), ('న', '|'), ('వ', 'U'), ('ట్టి', '|'), ('న', '|'), ('చ', '|'), ('కో', 'U'), ('ర', '|'), ('పు', '|'), ('గ', 'U'), ('న్ను', '|'), ('గొ', '|'), ('నన్', 'U'), ('ద', '|'), ('ళు', 'U'), ('క్కు', '|'), ('నన్', 'U'), ('జే', 'U'), ('రు', '|'), ('వ', '|'), ('మిం', 'U'), ('చు', '|'), ('లై', 'U'), ('మె', '|'), ('ఱ', '|'), ('య', '|'), ('జి', 'U'), ('మ్ము', '|'), ('ల', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('ల', '|'), ('బం', 'U'), ('పు', '|'), ('న', 'U'), ('వ్వు', '|'), ('దై', 'U'), ('వా', 'U'), ('ర', '|'), ('గ', '|'), ('గాం', 'U'), ('చి', '|'), ('నీ', 'U'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('వ', 'U'), ('న్నె', '|'), ('ల', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('సా', 'U'), ('ర', '|'), ('పు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('జ', 'U'), ('క్క', '|'), ('గొ', '|'), ('నె', '|'), ('జ', 'U'), ('క్క', '|'), ('ని', '|'), ('మో', 'U'), ('ము', '|'), ('న', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>ఆయలసంబు లానడపు లాకనుఁగ్రేవల ముద్దుచూపు లా
 యాయెలనవ్వు మాటల ప్రియంబులు నీ కలమేలుమంగ నీ
@@ -741,32 +714,29 @@
 బ్రాయపు నీసతిం జెలులు పల్కిరి పల్మఱు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('య', '|'), ('ల', '|'), ('సం', 'U'), ('బు', '|'), ('లా', 'U'), ('న', '|'), ('డ', '|'), ('పు', '|'), ('లా', 'U'), ('క', '|'), ('ను', 'U'), ('గ్రే', 'U'), ('వ', '|'), ('ల', '|'), ('ము', 'U'), ('ద్దు', '|'), ('చూ', 'U'), ('పు', '|'), ('లా', 'U'), ('యా', 'U'), ('యె', '|'), ('ల', '|'), ('న', 'U'), ('వ్వు', '|'), ('మా', 'U'), ('ట', '|'), ('ల', 'U'), ('ప్రి', '|'), ('యం', 'U'), ('బు', '|'), ('లు', '|'), ('నీ', 'U'), ('క', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('మా', 'U'), ('య', '|'), ('లొ', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('వ', 'U'), ('ల్ల', '|'), ('భు', '|'), ('ని', '|'), ('మ', 'U'), ('క్కు', '|'), ('వ', '|'), ('చే', 'U'), ('త', '|'), ('లొ', '|'), ('చె', 'U'), ('ప్పు', '|'), ('మం', 'U'), ('చు', '|'), ('లే', 'U'), ('బ్రా', 'U'), ('య', '|'), ('పు', '|'), ('నీ', 'U'), ('స', '|'), ('తిం', 'U'), ('జె', '|'), ('లు', '|'), ('లు', '|'), ('ప', 'U'), ('ల్కి', '|'), ('రి', '|'), ('ప', 'U'), ('ల్మ', '|'), ('ఱు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>కిన్నెర మీటి పులకించి తలంచి మనోజలీలఁ దా
 నున్న తెఱంగు నెచ్చెలుల కొయ్యనఁ జెప్పఁగబూనుఁ జెప్పరా
@@ -774,32 +744,29 @@
 వన్నెలసేఁత లెట్టివో సువాళము లెట్టివో వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('కి', 'U'), ('న్నె', '|'), ('ర', '|'), ('మీ', 'U'), ('టి', '|'), ('పు', '|'), ('ల', '|'), ('కిం', 'U'), ('చి', '|'), ('త', '|'), ('లం', 'U'), ('చి', '|'), ('మ', '|'), ('నో', 'U'), ('జ', '|'), ('లీ', 'U'), ('ల', '|'), ('దా', 'U'), ('ను', 'U'), ('న్న', '|'), ('తె', '|'), ('ఱం', 'U'), ('గు', '|'), ('నె', 'U'), ('చ్చె', '|'), ('లు', '|'), ('ల', '|'), ('కొ', 'U'), ('య్య', '|'), ('న', '|'), ('జె', 'U'), ('ప్ప', '|'), ('గ', '|'), ('బూ', 'U'), ('ను', '|'), ('జె', 'U'), ('ప్ప', '|'), ('రా', 'U'), ('క', 'U'), ('న్ను', '|'), ('వ', '|'), ('సి', 'U'), ('గ్గు', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('రు', '|'), ('న', 'U'), ('ల్ల', '|'), ('న', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('వ', 'U'), ('న్నె', '|'), ('ల', '|'), ('సే', 'U'), ('త', '|'), ('లె', 'U'), ('ట్టి', '|'), ('వో', 'U'), ('సు', '|'), ('వా', 'U'), ('ళ', '|'), ('ము', '|'), ('లె', 'U'), ('ట్టి', '|'), ('వో', 'U'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>సరసిజసంభవాది దివిజప్రకరంబులసంపదల్‌ సువి
 స్తరములు గాఁగఁ గన్గొనలఁ జల్లెడు శ్రీయలమేలుమంగ నీ
@@ -807,32 +774,29 @@
 పరమపద ప్రభుత్వము నపారమహత్త్వము వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('సి', '|'), ('జ', '|'), ('సం', 'U'), ('భ', '|'), ('వా', 'U'), ('ది', '|'), ('ది', '|'), ('వి', '|'), ('జ', 'U'), ('ప్ర', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('సం', 'U'), ('ప', '|'), ('దల్', 'U'), ('సు', '|'), ('వి', 'U'), ('స్త', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('గా', 'U'), ('గ', '|'), ('గ', 'U'), ('న్గొ', '|'), ('న', '|'), ('ల', '|'), ('జ', 'U'), ('ల్లె', '|'), ('డు', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('త', '|'), ('రు', '|'), ('ణీ', 'U'), ('యు', '|'), ('రం', 'U'), ('బు', '|'), ('నం', 'U'), ('జె', '|'), ('ల', '|'), ('గ', '|'), ('ద', 'U'), ('న్మ', '|'), ('య', '|'), ('మం', 'U'), ('దె', '|'), ('డు', '|'), ('నీ', 'U'), ('కు', 'U'), ('బ్రా', 'U'), ('తి', '|'), ('యే', 'U'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('ప', '|'), ('ద', 'U'), ('ప్ర', '|'), ('భు', 'U'), ('త్వ', '|'), ('ము', '|'), ('న', '|'), ('పా', 'U'), ('ర', '|'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>తరుణీ! మహానిధానమ! సుధామయకూపసమస్త వైభవా
 భరణమ! దేవదేవుని కృపామతి! యోయలమేలుమంగ! నీ
@@ -840,32 +804,29 @@
 సురల్‌ నిరతి నుతించి మ్రొక్కుదురు నీ ప్రియకాంతను వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('రు', '|'), ('ణీ', 'U'), ('మ', '|'), ('హా', 'U'), ('ని', '|'), ('ధా', 'U'), ('న', '|'), ('మ', '|'), ('సు', '|'), ('ధా', 'U'), ('మ', '|'), ('య', '|'), ('కూ', 'U'), ('ప', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('వై', 'U'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('మ', '|'), ('దే', 'U'), ('వ', '|'), ('దే', 'U'), ('వు', '|'), ('ని', '|'), ('కృ', '|'), ('పా', 'U'), ('మ', '|'), ('తి', '|'), ('యో', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('య', '|'), ('చా', 'U'), ('లు', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('ల', '|'), ('గా', 'U'), ('వ', '|'), ('గ', '|'), ('నం', 'U'), ('చు', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్రు', '|'), ('లున్', 'U'), ('సు', '|'), ('రల్', 'U'), ('ని', '|'), ('ర', '|'), ('తి', '|'), ('ను', '|'), ('తిం', 'U'), ('చి', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('దు', '|'), ('రు', '|'), ('నీ', 'U'), ('ప్రి', '|'), ('య', '|'), ('కాం', 'U'), ('త', '|'), ('ను', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>చెదరిన చిన్ని లేఁగురులు చెక్కున జాఱఁగ ముద్దుమోముతో
 వదలినకొప్పుతోడ నిడువాలిక కన్నులు నిగ్గు దేఱఁగా
@@ -873,32 +834,29 @@
 యెదుట మనోజసంపదల నేగతి నుండెనొ వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('ద', '|'), ('రి', '|'), ('న', '|'), ('చి', 'U'), ('న్ని', '|'), ('లే', 'U'), ('గు', '|'), ('రు', '|'), ('లు', '|'), ('చె', 'U'), ('క్కు', '|'), ('న', '|'), ('జా', 'U'), ('ఱ', '|'), ('గ', '|'), ('ము', 'U'), ('ద్దు', '|'), ('మో', 'U'), ('ము', '|'), ('తో', 'U'), ('వ', '|'), ('ద', '|'), ('లి', '|'), ('న', '|'), ('కొ', 'U'), ('ప్పు', '|'), ('తో', 'U'), ('డ', '|'), ('ని', '|'), ('డు', '|'), ('వా', 'U'), ('లి', '|'), ('క', '|'), ('క', 'U'), ('న్ను', '|'), ('లు', '|'), ('ని', 'U'), ('గ్గు', '|'), ('దే', 'U'), ('ఱ', '|'), ('గా', 'U'), ('ను', '|'), ('దు', '|'), ('టు', '|'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('గూ', 'U'), ('డి', '|'), ('మ', '|'), ('హి', '|'), ('మో', 'U'), ('న్న', '|'), ('తి', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('యె', '|'), ('దు', '|'), ('ట', '|'), ('మ', '|'), ('నో', 'U'), ('జ', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('ల', '|'), ('నే', 'U'), ('గ', '|'), ('తి', '|'), ('నుం', 'U'), ('డె', '|'), ('నొ', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>తొలకరించు తొయ్యలి వధూమణి చక్కనితల్లి మానినీ
 తిలకమ దేవదేవుని సతీమణి యోయలమేలుమంగ నీ
@@ -906,32 +864,29 @@
 పలుకఁగ నిన్నుఁ జూచి నగుఁ బైకొని నీసతి వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('తొ', '|'), ('ల', '|'), ('క', '|'), ('రిం', 'U'), ('చు', '|'), ('తొ', 'U'), ('య్య', '|'), ('లి', '|'), ('వ', '|'), ('ధూ', 'U'), ('మ', '|'), ('ణి', '|'), ('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('త', 'U'), ('ల్లి', '|'), ('మా', 'U'), ('ని', '|'), ('నీ', 'U'), ('తి', '|'), ('ల', '|'), ('క', '|'), ('మ', '|'), ('దే', 'U'), ('వ', '|'), ('దే', 'U'), ('వు', '|'), ('ని', '|'), ('స', '|'), ('తీ', 'U'), ('మ', '|'), ('ణి', '|'), ('యో', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('సొ', '|'), ('ల', '|'), ('పు', '|'), ('ల', '|'), ('చూ', 'U'), ('పు', '|'), ('లే', 'U'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('చూ', 'U'), ('పు', '|'), ('ల', '|'), ('విం', 'U'), ('దు', '|'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('నె', 'U'), ('చ్చె', '|'), ('లుల్', 'U'), ('ప', '|'), ('లు', '|'), ('క', '|'), ('గ', '|'), ('ని', 'U'), ('న్ను', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('గు', '|'), ('బై', 'U'), ('కొ', '|'), ('ని', '|'), ('నీ', 'U'), ('స', '|'), ('తి', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>తలఁచుఁ గరంగు మైమఱచుఁ దన్మయ మందును జిత్తజాగ్ని ని
 న్నలయుచు దూరు నుస్సురను నర్మిలితో నలమేలుమంగ నీ
@@ -939,32 +894,29 @@
 కలిగినప్రేమ మింతయుఁ బ్రకాశము తోఁచెడు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ల', '|'), ('చు', '|'), ('గ', '|'), ('రం', 'U'), ('గు', '|'), ('మై', 'U'), ('మ', '|'), ('ఱ', '|'), ('చు', '|'), ('ద', 'U'), ('న్మ', '|'), ('య', '|'), ('మం', 'U'), ('దు', '|'), ('ను', '|'), ('జి', 'U'), ('త్త', '|'), ('జా', 'U'), ('గ్ని', '|'), ('ని', 'U'), ('న్న', '|'), ('ల', '|'), ('యు', '|'), ('చు', '|'), ('దూ', 'U'), ('రు', '|'), ('ను', 'U'), ('స్సు', '|'), ('ర', '|'), ('ను', '|'), ('న', '|'), ('ర్మి', '|'), ('లి', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('వ', '|'), ('లి', '|'), ('గి', '|'), ('న', '|'), ('నం', 'U'), ('త', '|'), ('నే', 'U'), ('క', '|'), ('డు', 'U'), ('బ్రి', '|'), ('యం', 'U'), ('బి', '|'), ('క', '|'), ('నే', 'U'), ('మ', '|'), ('ని', '|'), ('చె', 'U'), ('ప్ప', '|'), ('నే', 'U'), ('డు', '|'), ('వో', 'U'), ('క', '|'), ('లి', '|'), ('గి', '|'), ('న', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('మిం', 'U'), ('త', '|'), ('యు', 'U'), ('బ్ర', '|'), ('కా', 'U'), ('శ', '|'), ('ము', '|'), ('తో', 'U'), ('చె', '|'), ('డు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>నించిన పంచదారలును నేతుఁలు దేనెలు గమ్మ గాఁగఁ దా
 లించినకూరలున్‌ బరిమళించగ నయ్యలమేలుమంగ వ
@@ -972,32 +924,29 @@
 మించిన వేయుచేతులును మేలములాడుచు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('నిం', 'U'), ('చి', '|'), ('న', '|'), ('పం', 'U'), ('చ', '|'), ('దా', 'U'), ('ర', '|'), ('లు', '|'), ('ను', '|'), ('నే', 'U'), ('తు', '|'), ('లు', '|'), ('దే', 'U'), ('నె', '|'), ('లు', '|'), ('గ', 'U'), ('మ్మ', '|'), ('గా', 'U'), ('గ', '|'), ('దా', 'U'), ('లిం', 'U'), ('చి', '|'), ('న', '|'), ('కూ', 'U'), ('ర', '|'), ('లున్', 'U'), ('బ', '|'), ('రి', '|'), ('మ', '|'), ('ళిం', 'U'), ('చ', '|'), ('గ', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('వ', 'U'), ('డ్డిం', 'U'), ('చి', '|'), ('న', '|'), ('ని', '|'), ('ర్మ', '|'), ('లా', 'U'), ('న్న', '|'), ('ము', '|'), ('లు', '|'), ('డెం', 'U'), ('ద', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('గ', '|'), ('నా', 'U'), ('ర', '|'), ('గిం', 'U'), ('తు', '|'), ('నీ', 'U'), ('మిం', 'U'), ('చి', '|'), ('న', '|'), ('వే', 'U'), ('యు', '|'), ('చే', 'U'), ('తు', '|'), ('లు', '|'), ('ను', '|'), ('మే', 'U'), ('ల', '|'), ('ము', '|'), ('లా', 'U'), ('డు', '|'), ('చు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>అతఁడె నీవు, నీ వనఁగ నాతఁడు, నీ పలుకే తలంపఁగా
 నాతనిపల్కు నీ హృదయ మాతఁడె పో యలమేలుమంగ నీ
@@ -1005,32 +954,29 @@
 వ్రాతము సన్నుతించు ననివారణ నీసతి వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('త', '|'), ('డె', '|'), ('నీ', 'U'), ('వు', '|'), ('నీ', 'U'), ('వ', '|'), ('న', '|'), ('గ', '|'), ('నా', 'U'), ('త', '|'), ('డు', '|'), ('నీ', 'U'), ('ప', '|'), ('లు', '|'), ('కే', 'U'), ('త', '|'), ('లం', 'U'), ('ప', '|'), ('గా', 'U'), ('నా', 'U'), ('త', '|'), ('ని', '|'), ('ప', 'U'), ('ల్కు', '|'), ('నీ', 'U'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('మా', 'U'), ('త', '|'), ('డె', '|'), ('పో', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('చే', 'U'), ('తి', '|'), ('దె', '|'), ('స', 'U'), ('ర్వ', '|'), ('జం', 'U'), ('తు', '|'), ('వు', '|'), ('ల', '|'), ('జీ', 'U'), ('వ', '|'), ('న', '|'), ('మం', 'U'), ('త', '|'), ('యు', '|'), ('నం', 'U'), ('చు', '|'), ('స', 'U'), ('న్ము', '|'), ('ని', 'U'), ('వ్రా', 'U'), ('త', '|'), ('ము', '|'), ('స', 'U'), ('న్ను', '|'), ('తిం', 'U'), ('చు', '|'), ('న', '|'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('ణ', '|'), ('నీ', 'U'), ('స', '|'), ('తి', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>లోలవిలోలనేత్రకుఁ దళుక్కున ఱెప్పలు వంచి యెత్తినన్‌
 మేలిమిఁ జెక్కుటద్దముల మేలములై యలమేలుమంగకున్‌
@@ -1038,32 +984,29 @@
 న్మీలనిమీలనంబులకె మెత్తువు నీవును వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('లో', 'U'), ('ల', '|'), ('వి', '|'), ('లో', 'U'), ('ల', '|'), ('నే', 'U'), ('త్ర', '|'), ('కు', '|'), ('ద', '|'), ('ళు', 'U'), ('క్కు', '|'), ('న', '|'), ('ఱె', 'U'), ('ప్ప', '|'), ('లు', '|'), ('వం', 'U'), ('చి', '|'), ('యె', 'U'), ('త్తి', '|'), ('నన్', 'U'), ('మే', 'U'), ('లి', '|'), ('మి', '|'), ('జె', 'U'), ('క్కు', '|'), ('ట', 'U'), ('ద్ద', '|'), ('ము', '|'), ('ల', '|'), ('మే', 'U'), ('ల', '|'), ('ము', '|'), ('లై', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('నీ', 'U'), ('ల', '|'), ('ప', '|'), ('యో', 'U'), ('ద', '|'), ('పుం', 'U'), ('దు', '|'), ('ఱు', '|'), ('ము', '|'), ('ని', 'U'), ('గ్గు', '|'), ('త', '|'), ('టి', 'U'), ('ల్ల', '|'), ('త', '|'), ('లే', 'U'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('ను', 'U'), ('న్మీ', 'U'), ('ల', '|'), ('ని', '|'), ('మీ', 'U'), ('ల', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('కె', '|'), ('మె', 'U'), ('త్తు', '|'), ('వు', '|'), ('నీ', 'U'), ('వు', '|'), ('ను', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>పక్ష్మలనేత్ర! యోచిలుకుపల్కులకల్కి! సరోజవల్లి! యో
 లక్ష్మి! లతాంగి! యోబహుకళావతి! యోయలమేలుమంగ! నీ
@@ -1071,32 +1014,29 @@
 లక్ష్మివికాసత\న్‌ సతిఁ జెలంగఁగఁజేతువు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('ప', 'U'), ('క్ష్మ', '|'), ('ల', '|'), ('నే', 'U'), ('త్ర', '|'), ('యో', 'U'), ('చి', '|'), ('లు', '|'), ('కు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('ల', '|'), ('క', 'U'), ('ల్కి', '|'), ('స', '|'), ('రో', 'U'), ('జ', '|'), ('వ', 'U'), ('ల్లి', '|'), ('యో', 'U'), ('ల', 'U'), ('క్ష్మి', '|'), ('ల', '|'), ('తాం', 'U'), ('గి', '|'), ('యో', 'U'), ('బ', '|'), ('హు', '|'), ('క', '|'), ('ళా', 'U'), ('వ', '|'), ('తి', '|'), ('యో', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('సూ', 'U'), ('క్ష్మ', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('లీ', 'U'), ('ల', '|'), ('ల', '|'), ('కు', '|'), ('జొ', 'U'), ('క్కి', '|'), ('తి', '|'), ('నం', 'U'), ('చు', '|'), ('న', '|'), ('ఖేం', 'U'), ('దు', '|'), ('వ', 'U'), ('ల్లి', '|'), ('కా', 'U'), ('ల', 'U'), ('క్ష్మి', '|'), ('వి', '|'), ('కా', 'U'), ('స', '|'), ('తన్', 'U'), ('స', '|'), ('తి', '|'), ('జె', '|'), ('లం', 'U'), ('గ', '|'), ('గ', '|'), ('జే', 'U'), ('తు', '|'), ('వు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>లలితపుఁగంకణాంగదకలధ్వని ఘల్లని మ్రోయ నుంగరం
 బులు మణినీల కాంతుల ప్రభుత్వముతో నలమేలుమంగ గు
@@ -1104,32 +1044,29 @@
 దెలు మొలనూలు ఘంటలుఁ బ్రతిధ్వను లీనఁగ వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('ల', '|'), ('లి', '|'), ('త', '|'), ('పు', '|'), ('గం', 'U'), ('క', '|'), ('ణాం', 'U'), ('గ', '|'), ('ద', '|'), ('క', '|'), ('ల', 'U'), ('ధ్వ', '|'), ('ని', '|'), ('ఘ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('మ్రో', 'U'), ('య', '|'), ('నుం', 'U'), ('గ', '|'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('మ', '|'), ('ణి', '|'), ('నీ', 'U'), ('ల', '|'), ('కాం', 'U'), ('తు', '|'), ('ల', 'U'), ('ప్ర', '|'), ('భు', 'U'), ('త్వ', '|'), ('ము', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('పె', '|'), ('ను', 'U'), ('వ్రే', 'U'), ('గు', '|'), ('తో', 'U'), ('దు', '|'), ('ఱు', '|'), ('ము', '|'), ('భా', 'U'), ('ర', '|'), ('ము', '|'), ('తో', 'U'), ('ని', '|'), ('ను', '|'), ('జే', 'U'), ('ర', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నం', 'U'), ('దె', '|'), ('లు', '|'), ('మొ', '|'), ('ల', '|'), ('నూ', 'U'), ('లు', '|'), ('ఘం', 'U'), ('ట', '|'), ('లు', 'U'), ('బ్ర', '|'), ('తి', 'U'), ('ధ్వ', '|'), ('ను', '|'), ('లీ', 'U'), ('న', '|'), ('గ', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>కుంకుమకస్తురీ ప్రభ బుగుల్కొనఁ జెక్కుల జాఱ దివ్యతా
 టంకమణిప్రభాప్రతివిడంబముతో నలమేలుమంగ భ్రూ
@@ -1137,32 +1074,29 @@
 నంకన మించు మిమ్ముఁ బులకాంకురకోటులు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('కుం', 'U'), ('కు', '|'), ('మ', '|'), ('క', 'U'), ('స్తు', '|'), ('రీ', 'U'), ('ప్ర', '|'), ('భ', '|'), ('బు', '|'), ('గు', 'U'), ('ల్కొ', '|'), ('న', '|'), ('జె', 'U'), ('క్కు', '|'), ('ల', '|'), ('జా', 'U'), ('ఱ', '|'), ('ది', 'U'), ('వ్య', '|'), ('తా', 'U'), ('టం', 'U'), ('క', '|'), ('మ', '|'), ('ణి', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('ప్ర', '|'), ('తి', '|'), ('వి', '|'), ('డం', 'U'), ('బ', '|'), ('ము', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', 'U'), ('భ్రూ', 'U'), ('జం', 'U'), ('కె', '|'), ('ల', '|'), ('నం', 'U'), ('ద', '|'), ('లిం', 'U'), ('ప', '|'), ('గ', '|'), ('నె', '|'), ('జ', 'U'), ('ల్ల', '|'), ('నె', '|'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('నీ', 'U'), ('కు', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('నం', 'U'), ('క', '|'), ('న', '|'), ('మిం', 'U'), ('చు', '|'), ('మి', 'U'), ('మ్ము', '|'), ('బు', '|'), ('ల', '|'), ('కాం', 'U'), ('కు', '|'), ('ర', '|'), ('కో', 'U'), ('టు', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>కస్తురి పచ్చకప్పురముఁ గమ్మనిపుప్పొడి ధూళ్లు హత్తి శ్రీ
 హస్తమునందుఁ దట్టిపునుఁగందుచు శ్రీయలమేలుమంగ భా
@@ -1170,32 +1104,29 @@
 కౌస్తుభరత్న సౌధమునఁ గౌఁగిటిపాన్పున వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('స్తు', '|'), ('రి', '|'), ('ప', 'U'), ('చ్చ', '|'), ('క', 'U'), ('ప్పు', '|'), ('ర', '|'), ('ము', '|'), ('గ', 'U'), ('మ్మ', '|'), ('ని', '|'), ('పు', 'U'), ('ప్పొ', '|'), ('డి', '|'), ('ధూ', 'U'), ('ళ్లు', '|'), ('హ', 'U'), ('త్తి', 'U'), ('శ్రీ', 'U'), ('హ', 'U'), ('స్త', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('ద', 'U'), ('ట్టి', '|'), ('పు', '|'), ('ను', '|'), ('గం', 'U'), ('దు', '|'), ('చు', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('భా', 'U'), ('ర', 'U'), ('స్త', '|'), ('న', '|'), ('వై', 'U'), ('భ', '|'), ('వం', 'U'), ('బు', '|'), ('ల', '|'), ('గ', '|'), ('రం', 'U'), ('గు', '|'), ('చు', '|'), ('ని', 'U'), ('న్ను', '|'), ('గ', '|'), ('ఱం', 'U'), ('గ', '|'), ('మె', 'U'), ('త్తు', '|'), ('నీ', 'U'), ('కౌ', 'U'), ('స్తు', '|'), ('భ', '|'), ('ర', 'U'), ('త్న', '|'), ('సౌ', 'U'), ('ధ', '|'), ('ము', '|'), ('న', '|'), ('గౌ', 'U'), ('గి', '|'), ('టి', '|'), ('పా', 'U'), ('న్పు', '|'), ('న', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>అందవు కోసి యిమ్ము విరు లంచును జే రలమేలుమంగ ని
 న్నందగఁగోరఁ జెక్కులటు నొక్కిన నాకును నందవంచు న
@@ -1203,32 +1134,29 @@
 ష్యందమరందఘర్మరససంగతు లబ్బెను వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('ద', '|'), ('వు', '|'), ('కో', 'U'), ('సి', '|'), ('యి', 'U'), ('మ్ము', '|'), ('వి', '|'), ('రు', '|'), ('లం', 'U'), ('చు', '|'), ('ను', '|'), ('జే', 'U'), ('ర', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('ని', 'U'), ('న్నం', 'U'), ('ద', '|'), ('గ', '|'), ('గో', 'U'), ('ర', '|'), ('జె', 'U'), ('క్కు', '|'), ('ల', '|'), ('టు', '|'), ('నొ', 'U'), ('క్కి', '|'), ('న', '|'), ('నా', 'U'), ('కు', '|'), ('ను', '|'), ('నం', 'U'), ('ద', '|'), ('వం', 'U'), ('చు', '|'), ('న', 'U'), ('య్యిం', 'U'), ('దు', '|'), ('ము', '|'), ('ఖిం', 'U'), ('బ్రి', '|'), ('యం', 'U'), ('బ', '|'), ('ల', '|'), ('ర', '|'), ('నె', 'U'), ('త్తు', '|'), ('చు', '|'), ('బు', 'U'), ('వ్వు', '|'), ('లు', '|'), ('కో', 'U'), ('య', '|'), ('జే', 'U'), ('య', '|'), ('ని', 'U'), ('ష్యం', 'U'), ('ద', '|'), ('మ', '|'), ('రం', 'U'), ('ద', '|'), ('ఘ', '|'), ('ర్మ', '|'), ('ర', '|'), ('స', '|'), ('సం', 'U'), ('గ', '|'), ('తు', '|'), ('ల', 'U'), ('బ్బె', '|'), ('ను', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>ఒక్కొకనాఁటి రాత్రి సకలోన్నతుఁడైన ఖగేంద్ర మూర్తిపై
 నెక్కి వినోదలీలఁ జరియించుచు నయ్యలమేలుమంగ మో
@@ -1236,32 +1164,29 @@
 బెక్కువగాఁ జెలంగువిధ మే మని చెప్పుదు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('ఒ', 'U'), ('క్కొ', '|'), ('క', '|'), ('నా', 'U'), ('టి', '|'), ('రా', 'U'), ('త్రి', '|'), ('స', '|'), ('క', '|'), ('లో', 'U'), ('న్న', '|'), ('తు', '|'), ('డై', 'U'), ('న', '|'), ('ఖ', '|'), ('గేం', 'U'), ('ద్ర', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('పై', 'U'), ('నె', 'U'), ('క్కి', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('లీ', 'U'), ('ల', '|'), ('జ', '|'), ('రి', '|'), ('యిం', 'U'), ('చు', '|'), ('చు', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('మో', 'U'), ('మ', 'U'), ('క్కు', '|'), ('న', '|'), ('జే', 'U'), ('ర్చు', '|'), ('చున్', 'U'), ('బ', '|'), ('హు', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('లన్', 'U'), ('వ', '|'), ('న', '|'), ('వీ', 'U'), ('థు', '|'), ('లం', 'U'), ('బ్రి', '|'), ('యం', 'U'), ('బె', 'U'), ('క్కు', '|'), ('వ', '|'), ('గా', 'U'), ('జె', '|'), ('లం', 'U'), ('గు', '|'), ('వి', '|'), ('ధ', '|'), ('మే', 'U'), ('మ', '|'), ('ని', '|'), ('చె', 'U'), ('ప్పు', '|'), ('దు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>దుగ్ధపయోధికన్య జలధుల్‌ జగముల్‌ దనకుక్షినున్న సు
 స్నిగ్ధకృశోదరాంగి తులసిం బ్రియురాలలమేలుమంగ యీ
@@ -1269,32 +1194,29 @@
 దిగ్ధరణీధరంబుల నుతింతురు నవ్వుచు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('దు', 'U'), ('గ్ధ', '|'), ('ప', '|'), ('యో', 'U'), ('ధి', '|'), ('క', 'U'), ('న్య', '|'), ('జ', '|'), ('ల', '|'), ('ధుల్', 'U'), ('జ', '|'), ('గ', '|'), ('ముల్', 'U'), ('ద', '|'), ('న', '|'), ('కు', 'U'), ('క్షి', '|'), ('ను', 'U'), ('న్న', '|'), ('సు', 'U'), ('స్ని', 'U'), ('గ్ధ', '|'), ('కృ', '|'), ('శో', 'U'), ('ద', '|'), ('రాం', 'U'), ('గి', '|'), ('తు', '|'), ('ల', '|'), ('సిం', 'U'), ('బ్రి', '|'), ('యు', '|'), ('రా', 'U'), ('ల', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('యీ', 'U'), ('ను', '|'), ('చు', '|'), ('ని', 'U'), ('న్ను', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్ర', '|'), ('క', 'U'), ('న్య', '|'), ('కల్', 'U'), ('ది', 'U'), ('గ్ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('ధ', '|'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('ను', '|'), ('తిం', 'U'), ('తు', '|'), ('రు', '|'), ('న', 'U'), ('వ్వు', '|'), ('చు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
         <is>
           <t>పాయని జాజిపువ్వులనె పట్టుక బాయు ... ... ...
 ... ... ... రాహుతుఁడవైనపు డాయల మేలుమంగ ని
@@ -1302,32 +1224,29 @@
 బ్బీయెలపువ్వు పయ్యెదనె ప్రేమపునవ్వున వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('య', '|'), ('ని', '|'), ('జా', 'U'), ('జి', '|'), ('పు', 'U'), ('వ్వు', '|'), ('ల', '|'), ('నె', '|'), ('ప', 'U'), ('ట్టు', '|'), ('క', '|'), ('బా', 'U'), ('యు', '|'), ('రా', 'U'), ('హు', '|'), ('తు', '|'), ('డ', '|'), ('వై', 'U'), ('న', '|'), ('పు', '|'), ('డా', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('ని', 'U'), ('శ్శ్రే', 'U'), ('య', '|'), ('స', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('నీ', 'U'), ('శ', '|'), ('ర', '|'), ('ము', '|'), ('చెం', 'U'), ('గ', '|'), ('ట', '|'), ('నొ', 'U'), ('ప్పె', '|'), ('దు', '|'), ('రు', 'U'), ('ష్క', '|'), ('దే', 'U'), ('శ', '|'), ('బి', 'U'), ('బ్బీ', 'U'), ('యె', '|'), ('ల', '|'), ('పు', 'U'), ('వ్వు', '|'), ('ప', 'U'), ('య్యె', '|'), ('ద', '|'), ('నె', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('పు', '|'), ('న', 'U'), ('వ్వు', '|'), ('న', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>ఓచెలి! యోలతాప్రతిమ! యోమృగలోచ! యోచకోరిరో!
 యోచదురాల! యోచిలుక! యో ... ... ... యలమేలుమంగ నీ
@@ -1335,32 +1254,29 @@
 ఖేచరసిద్ధకామినులు కీర్తనసేతురు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('ఓ', 'U'), ('చె', '|'), ('లి', '|'), ('యో', 'U'), ('ల', '|'), ('తా', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మ', '|'), ('యో', 'U'), ('మృ', '|'), ('గ', '|'), ('లో', 'U'), ('చ', '|'), ('యో', 'U'), ('చ', '|'), ('కో', 'U'), ('రి', '|'), ('రో', 'U'), ('యో', 'U'), ('చ', '|'), ('దు', '|'), ('రా', 'U'), ('ల', '|'), ('యో', 'U'), ('చి', '|'), ('లు', '|'), ('క', '|'), ('యో', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('చూ', 'U'), ('పు', '|'), ('లే', 'U'), ('వి', '|'), ('భు', '|'), ('డు', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('చూ', 'U'), ('పు', '|'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('నీ', 'U'), ('స', '|'), ('తిన్', 'U'), ('ఖే', 'U'), ('చ', '|'), ('ర', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('కా', 'U'), ('మి', '|'), ('ను', '|'), ('లు', '|'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('సే', 'U'), ('తు', '|'), ('రు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>మంగళ మమ్మకున్‌ సకల మంగళ మంబుజ నేత్రకున్‌ జయా
 మంగళ మిందిరాసతికి మంగళ మీయలమేలుమంగకున్‌
@@ -1368,32 +1284,29 @@
 వ్యాంగన లెల్ల నీసతికి నారతు లిత్తురు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('మ', 'U'), ('మ్మ', '|'), ('కున్', 'U'), ('స', '|'), ('క', '|'), ('ల', '|'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('మం', 'U'), ('బు', '|'), ('జ', '|'), ('నే', 'U'), ('త్ర', '|'), ('కున్', 'U'), ('జ', '|'), ('యా', 'U'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('మిం', 'U'), ('ది', '|'), ('రా', 'U'), ('స', '|'), ('తి', '|'), ('కి', '|'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('మీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('మం', 'U'), ('దు', '|'), ('నే', 'U'), ('మ', '|'), ('ఱి', '|'), ('యు', '|'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('మం', 'U'), ('దు', '|'), ('ను', '|'), ('దే', 'U'), ('వ', '|'), ('లో', 'U'), ('క', '|'), ('ది', 'U'), ('వ్యాం', 'U'), ('గ', '|'), ('న', '|'), ('లె', 'U'), ('ల్ల', '|'), ('నీ', 'U'), ('స', '|'), ('తి', '|'), ('కి', '|'), ('నా', 'U'), ('ర', '|'), ('తు', '|'), ('లి', 'U'), ('త్తు', '|'), ('రు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>వెలదిఁ మహాపరాధములు వేయును జేసితిఁ గావుమన్న నీ
 పులకలు మేనిఘాతలును బూఁతలు జూ చలమేలుమంగ నీ
@@ -1401,32 +1314,29 @@
 బలుచనినవ్వుతో విసరుఁ బై చెమ టారఁగ వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ల', '|'), ('ది', '|'), ('మ', '|'), ('హా', 'U'), ('ప', '|'), ('రా', 'U'), ('ధ', '|'), ('ము', '|'), ('లు', '|'), ('వే', 'U'), ('యు', '|'), ('ను', '|'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('గా', 'U'), ('వు', '|'), ('మ', 'U'), ('న్న', '|'), ('నీ', 'U'), ('పు', '|'), ('ల', '|'), ('క', '|'), ('లు', '|'), ('మే', 'U'), ('ని', '|'), ('ఘా', 'U'), ('త', '|'), ('లు', '|'), ('ను', '|'), ('బూ', 'U'), ('త', '|'), ('లు', '|'), ('జూ', 'U'), ('చ', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('య', '|'), ('ల', '|'), ('క', '|'), ('లు', '|'), ('దీ', 'U'), ('ర్చి', '|'), ('చె', 'U'), ('క్కు', '|'), ('చె', '|'), ('మ', '|'), ('ట', 'U'), ('ల్ల', '|'), ('న', '|'), ('గో', 'U'), ('ళ్ల', '|'), ('ను', '|'), ('జి', 'U'), ('మ్మి', '|'), ('ప', 'U'), ('య్యె', '|'), ('దన్', 'U'), ('బ', '|'), ('లు', '|'), ('చ', '|'), ('ని', '|'), ('న', 'U'), ('వ్వు', '|'), ('తో', 'U'), ('వి', '|'), ('స', '|'), ('రు', '|'), ('బై', 'U'), ('చె', '|'), ('మ', '|'), ('టా', 'U'), ('ర', '|'), ('గ', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>ఏచతురత్వ మేమహిమ మేమి విలాస మదేమి విభ్రమం
 బీ చెలువంపు సంపదయు నిందుముఖుల్‌ జగదేకమోహినుల్‌
@@ -1434,32 +1344,29 @@
 లాచికురంపుఁ గ్రుమ్ముడి కెలంకుల నిగ్గులు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('చ', '|'), ('తు', '|'), ('ర', 'U'), ('త్వ', '|'), ('మే', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('మే', 'U'), ('మి', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('మ', '|'), ('దే', 'U'), ('మి', '|'), ('వి', 'U'), ('భ్ర', '|'), ('మం', 'U'), ('బీ', 'U'), ('చె', '|'), ('లు', '|'), ('వం', 'U'), ('పు', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('యు', '|'), ('నిం', 'U'), ('దు', '|'), ('ము', '|'), ('ఖుల్', 'U'), ('జ', '|'), ('గ', '|'), ('దే', 'U'), ('క', '|'), ('మో', 'U'), ('హి', '|'), ('నుల్', 'U'), ('చూ', 'U'), ('చి', '|'), ('త', '|'), ('లం', 'U'), ('ట', '|'), ('వే', 'U'), ('డ్క', '|'), ('ప', '|'), ('డి', '|'), ('చూ', 'U'), ('తు', '|'), ('రు', '|'), ('నీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('లీ', 'U'), ('లా', 'U'), ('చి', '|'), ('కు', '|'), ('రం', 'U'), ('పు', 'U'), ('గ్రు', 'U'), ('మ్ము', '|'), ('డి', '|'), ('కె', '|'), ('లం', 'U'), ('కు', '|'), ('ల', '|'), ('ని', 'U'), ('గ్గు', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>పరిమళమో కదంబమొ ప్రభల్‌ విడ నించిననిగ్గొ నిర్మలా
 భరణమొ నిత్యవైభవమొ భాగ్యమొ శ్రీయలమేలుమంగ భూ
@@ -1467,32 +1374,29 @@
 బరమున నుండి నీవనితఁ బ్రస్తుతి సేతురు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('రి', '|'), ('మ', '|'), ('ళ', '|'), ('మో', 'U'), ('క', '|'), ('దం', 'U'), ('బ', '|'), ('మొ', 'U'), ('ప్ర', '|'), ('భల్', 'U'), ('వి', '|'), ('డ', '|'), ('నిం', 'U'), ('చి', '|'), ('న', '|'), ('ని', 'U'), ('గ్గొ', '|'), ('ని', '|'), ('ర్మ', '|'), ('లా', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('మొ', '|'), ('ని', 'U'), ('త్య', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('మొ', '|'), ('భా', 'U'), ('గ్య', '|'), ('మొ', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('భూ', 'U'), ('ధ', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('నా', 'U'), ('ది', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('య', '|'), ('ని', '|'), ('త', 'U'), ('త్త్వ', '|'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('ర', '|'), ('హ', 'U'), ('స్య', '|'), ('వే', 'U'), ('త్త', '|'), ('లం', 'U'), ('బ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('నుం', 'U'), ('డి', '|'), ('నీ', 'U'), ('వ', '|'), ('ని', '|'), ('త', 'U'), ('బ్ర', 'U'), ('స్తు', '|'), ('తి', '|'), ('సే', 'U'), ('తు', '|'), ('రు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>తిరుమగు మంచి కుందనపుఁ దీగపయిన్‌ ఘనచక్రవాకముల్‌
 పరగినరీతిఁ జన్నుఁగవ భావముతో నలమేలుమంగ నీ
@@ -1500,32 +1404,29 @@
 స్ఫురణముతోడి మిం చనుచుఁ జూచి నుతింతురు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('తి', '|'), ('రు', '|'), ('మ', '|'), ('గు', '|'), ('మం', 'U'), ('చి', '|'), ('కుం', 'U'), ('ద', '|'), ('న', '|'), ('పు', '|'), ('దీ', 'U'), ('గ', '|'), ('ప', '|'), ('యిన్', 'U'), ('ఘ', '|'), ('న', '|'), ('చ', 'U'), ('క్ర', '|'), ('వా', 'U'), ('క', '|'), ('ముల్', 'U'), ('ప', '|'), ('ర', '|'), ('గి', '|'), ('న', '|'), ('రీ', 'U'), ('తి', '|'), ('జ', 'U'), ('న్ను', '|'), ('గ', '|'), ('వ', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('యు', '|'), ('ర', '|'), ('ము', '|'), ('ప', '|'), ('యిం', 'U'), ('జె', '|'), ('లం', 'U'), ('గ', '|'), ('గ', '|'), ('ని', '|'), ('యో', 'U'), ('గి', '|'), ('జ', '|'), ('నం', 'U'), ('బు', '|'), ('లు', '|'), ('నీ', 'U'), ('ల', '|'), ('మే', 'U'), ('ఘ', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('తో', 'U'), ('డి', '|'), ('మిం', 'U'), ('చ', '|'), ('ను', '|'), ('చు', '|'), ('జూ', 'U'), ('చి', '|'), ('ను', '|'), ('తిం', 'U'), ('తు', '|'), ('రు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>కొలఁదికిమీఱుఁ గ్రొవ్విరులు కొప్పునఁ జాఱఁగఁ జూపుకన్నుల\న్‌
 గులుకుచు నుండ నెన్నుదుటికుంకుమతో నలమేలుమంగ వె
@@ -1533,32 +1434,29 @@
 గలికి కరంబునం జెనయఁగంటిరిగా తమి వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('కొ', '|'), ('ల', '|'), ('ది', '|'), ('కి', '|'), ('మీ', 'U'), ('ఱు', 'U'), ('గ్రొ', 'U'), ('వ్వి', '|'), ('రు', '|'), ('లు', '|'), ('కొ', 'U'), ('ప్పు', '|'), ('న', '|'), ('జా', 'U'), ('ఱ', '|'), ('గ', '|'), ('జూ', 'U'), ('పు', '|'), ('క', 'U'), ('న్ను', '|'), ('లన్', 'U'), ('గు', '|'), ('లు', '|'), ('కు', '|'), ('చు', '|'), ('నుం', 'U'), ('డ', '|'), ('నె', 'U'), ('న్ను', '|'), ('దు', '|'), ('టి', '|'), ('కుం', 'U'), ('కు', '|'), ('మ', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('ను', '|'), ('ను', '|'), ('దీ', 'U'), ('గ', '|'), ('యై', 'U'), ('క', '|'), ('ళ', '|'), ('లు', '|'), ('నిం', 'U'), ('చి', '|'), ('న', '|'), ('పు', 'U'), ('త్త', '|'), ('డి', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('యై', 'U'), ('ని', '|'), ('నుం', 'U'), ('గ', '|'), ('లి', '|'), ('కి', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('నం', 'U'), ('జె', '|'), ('న', '|'), ('య', '|'), ('గం', 'U'), ('టి', '|'), ('రి', '|'), ('గా', 'U'), ('త', '|'), ('మి', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>పెడమర చూచి చూపు జళిపించిన నెట్లు ధరింతువో ప్రియం
 బడరఁగఁ గౌనుదీగ నులియన్‌ ... ... ... ... ... నన్‌
@@ -1566,32 +1464,29 @@
 వెడవగు మోముఁజూచి నగి వెన్నెల చల్లిన వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('పె', '|'), ('డ', '|'), ('మ', '|'), ('ర', '|'), ('చూ', 'U'), ('చి', '|'), ('చూ', 'U'), ('పు', '|'), ('జ', '|'), ('ళి', '|'), ('పిం', 'U'), ('చి', '|'), ('న', '|'), ('నె', 'U'), ('ట్లు', '|'), ('ధ', '|'), ('రిం', 'U'), ('తు', '|'), ('వో', 'U'), ('ప్రి', '|'), ('యం', 'U'), ('బ', '|'), ('డ', '|'), ('ర', '|'), ('గ', '|'), ('గౌ', 'U'), ('ను', '|'), ('దీ', 'U'), ('గ', '|'), ('ను', '|'), ('లి', '|'), ('యన్', 'U'), ('నన్', 'U'), ('స', '|'), ('డి', '|'), ('వ', '|'), ('డి', '|'), ('యెం', 'U'), ('త', '|'), ('వే', 'U'), ('గు', '|'), ('దు', '|'), ('వొ', '|'), ('చ', 'U'), ('క్క', '|'), ('ని', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('వె', '|'), ('డ', '|'), ('వ', '|'), ('గు', '|'), ('మో', 'U'), ('ము', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('గి', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('చ', 'U'), ('ల్లి', '|'), ('న', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>... ... ... ... ... గుజ్జెన గూళ్ళును బైఁడిపొళ్ళు మా
 యమ్మకు బొమ్మరిళ్లు లలితాంగికి మాయలమేలుమంగకున్‌
@@ -1599,32 +1494,29 @@
 నెమ్మి భజించి మ్రొక్కుదురు నిర్జరకాంతలు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('గు', 'U'), ('జ్జె', '|'), ('న', '|'), ('గూ', 'U'), ('ళ్ళు', '|'), ('ను', '|'), ('బై', 'U'), ('డి', '|'), ('పొ', 'U'), ('ళ్ళు', '|'), ('మా', 'U'), ('య', 'U'), ('మ్మ', '|'), ('కు', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('రి', 'U'), ('ళ్లు', '|'), ('ల', '|'), ('లి', '|'), ('తాం', 'U'), ('గి', '|'), ('కి', '|'), ('మా', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('బొ', 'U'), ('మ్మ', '|'), ('లు', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('పొ', 'U'), ('త్తి', '|'), ('క', '|'), ('లు', '|'), ('బో', 'U'), ('న', '|'), ('పు', '|'), ('దొం', 'U'), ('తు', '|'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('నీ', 'U'), ('స', '|'), ('తిన్', 'U'), ('నె', 'U'), ('మ్మి', '|'), ('భ', '|'), ('జిం', 'U'), ('చి', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('దు', '|'), ('రు', '|'), ('ని', 'U'), ('ర్జ', '|'), ('ర', '|'), ('కాం', 'U'), ('త', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>ఓ కమనీయకంజముఖి! యోవలరాయనితల్లి! యోసుధా
 సైకతచాతురీజఘన చక్రిణి! యోయలమేలుమంగ! నీ
@@ -1632,32 +1524,29 @@
 బైకొని నీలతాప్రతిమ బ్రస్తుతిసేతురు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('ఓ', 'U'), ('క', '|'), ('మ', '|'), ('నీ', 'U'), ('య', '|'), ('కం', 'U'), ('జ', '|'), ('ము', '|'), ('ఖి', '|'), ('యో', 'U'), ('వ', '|'), ('ల', '|'), ('రా', 'U'), ('య', '|'), ('ని', '|'), ('త', 'U'), ('ల్లి', '|'), ('యో', 'U'), ('సు', '|'), ('ధా', 'U'), ('సై', 'U'), ('క', '|'), ('త', '|'), ('చా', 'U'), ('తు', '|'), ('రీ', 'U'), ('జ', '|'), ('ఘ', '|'), ('న', '|'), ('చ', 'U'), ('క్రి', '|'), ('ణి', '|'), ('యో', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('వే', 'U'), ('క', '|'), ('రు', '|'), ('ణిం', 'U'), ('చి', '|'), ('కా', 'U'), ('వు', '|'), ('మ', '|'), ('ని', '|'), ('వే', 'U'), ('డ్క', '|'), ('ల', '|'), ('నిం', 'U'), ('ద్ర', '|'), ('పు', '|'), ('రం', 'U'), ('ధ్రు', '|'), ('లం', 'U'), ('ద', '|'), ('ఱున్', 'U'), ('బై', 'U'), ('కొ', '|'), ('ని', '|'), ('నీ', 'U'), ('ల', '|'), ('తా', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మ', 'U'), ('బ్ర', 'U'), ('స్తు', '|'), ('తి', '|'), ('సే', 'U'), ('తు', '|'), ('రు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>జాగరమేల చేసెదవు చంద్రనిభానన పవ్వళింపు నీ
 భోగపరిశ్రమంబులకు భూషణమై యలమేలుమంగ నీ
@@ -1665,32 +1554,29 @@
 యాగతి బుజ్జగింతురు మహావినయంబున వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('జా', 'U'), ('గ', '|'), ('ర', '|'), ('మే', 'U'), ('ల', '|'), ('చే', 'U'), ('సె', '|'), ('ద', '|'), ('వు', '|'), ('చం', 'U'), ('ద్ర', '|'), ('ని', '|'), ('భా', 'U'), ('న', '|'), ('న', '|'), ('ప', 'U'), ('వ్వ', '|'), ('ళిం', 'U'), ('పు', '|'), ('నీ', 'U'), ('భో', 'U'), ('గ', '|'), ('ప', '|'), ('రి', 'U'), ('శ్ర', '|'), ('మం', 'U'), ('బు', '|'), ('ల', '|'), ('కు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('మై', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('యో', 'U'), ('గ', '|'), ('వి', '|'), ('యో', 'U'), ('గ', '|'), ('లీ', 'U'), ('ల', '|'), ('ల', '|'), ('ని', '|'), ('యో', 'U'), ('గి', '|'), ('క', 'U'), ('న్య', '|'), ('లు', '|'), ('నీ', 'U'), ('వ', '|'), ('ధూ', 'U'), ('టి', '|'), ('నా', 'U'), ('యా', 'U'), ('గ', '|'), ('తి', '|'), ('బు', 'U'), ('జ్జ', '|'), ('గిం', 'U'), ('తు', '|'), ('రు', '|'), ('మ', '|'), ('హా', 'U'), ('వి', '|'), ('న', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>పల్లవపాణి విశ్వగురుభామిని యిట్టి ప్రపంచ మంతకున్‌
 దల్లి సమస్తజీవులనిధానమ శ్రీయలమేలుమంగ నీ
@@ -1698,32 +1584,29 @@
 మెల్లను నీ వధూమణి ననేకవిధంబుల వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('ప', 'U'), ('ల్ల', '|'), ('వ', '|'), ('పా', 'U'), ('ణి', '|'), ('వి', 'U'), ('శ్వ', '|'), ('గు', '|'), ('రు', '|'), ('భా', 'U'), ('మి', '|'), ('ని', '|'), ('యి', 'U'), ('ట్టి', 'U'), ('ప్ర', '|'), ('పం', 'U'), ('చ', '|'), ('మం', 'U'), ('త', '|'), ('కున్', 'U'), ('ద', 'U'), ('ల్లి', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('జీ', 'U'), ('వు', '|'), ('ల', '|'), ('ని', '|'), ('ధా', 'U'), ('న', '|'), ('మ', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('చ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('చూ', 'U'), ('పు', '|'), ('చి', 'U'), ('ల్కి', '|'), ('వె', '|'), ('ద', '|'), ('చ', 'U'), ('ల్ల', '|'), ('గ', '|'), ('బు', 'U'), ('ణ్యు', '|'), ('ల', '|'), ('మై', 'U'), ('తి', '|'), ('మం', 'U'), ('డ్రు', '|'), ('భూ', 'U'), ('మె', 'U'), ('ల్ల', '|'), ('ను', '|'), ('నీ', 'U'), ('వ', '|'), ('ధూ', 'U'), ('మ', '|'), ('ణి', '|'), ('న', '|'), ('నే', 'U'), ('క', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('ల', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>చెఱఁ గిడఁగా నదల్చెదవు చేరినఁ దిట్టెదు కౌఁగిలించినన్‌
 గొఱఁతలె యెన్నఁజూచెదవు కోపము న ద్దలమేలుమంగ నా
@@ -1731,32 +1614,29 @@
 దఱితఱి నింతిఁ గూడుటలుఁ దత్తఱపాటులు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('ఱ', '|'), ('గి', '|'), ('డ', '|'), ('గా', 'U'), ('న', '|'), ('ద', 'U'), ('ల్చె', '|'), ('ద', '|'), ('వు', '|'), ('చే', 'U'), ('రి', '|'), ('న', '|'), ('ది', 'U'), ('ట్టె', '|'), ('దు', '|'), ('కౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('గొ', '|'), ('ఱ', '|'), ('త', '|'), ('లె', '|'), ('యె', 'U'), ('న్న', '|'), ('జూ', 'U'), ('చె', '|'), ('ద', '|'), ('వు', '|'), ('కో', 'U'), ('ప', '|'), ('ము', '|'), ('న', 'U'), ('ద్ద', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నా', 'U'), ('వె', '|'), ('ఱ', '|'), ('పి', '|'), ('క', '|'), ('నై', 'U'), ('న', '|'), ('దీ', 'U'), ('ర్పు', '|'), ('మ', '|'), ('ని', '|'), ('వే', 'U'), ('డ్క', '|'), ('ల', '|'), ('నీ', 'U'), ('వు', '|'), ('మ', '|'), ('నో', 'U'), ('జ', '|'), ('లీ', 'U'), ('ల', '|'), ('లన్', 'U'), ('ద', '|'), ('ఱి', '|'), ('త', '|'), ('ఱి', '|'), ('నిం', 'U'), ('తి', '|'), ('గూ', 'U'), ('డు', '|'), ('ట', '|'), ('లు', '|'), ('ద', 'U'), ('త్త', '|'), ('ఱ', '|'), ('పా', 'U'), ('టు', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>రాపుగ మమ్ము నేయునపరాధశతంబుల సంతముల్‌ సదా
 ... ... ... ... ... ... ... ... ... ... ... ... ... ...
@@ -1764,32 +1644,29 @@
 కాపురమున్‌ నిరంతము గల్కితనంబును వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('పు', '|'), ('గ', '|'), ('మ', 'U'), ('మ్ము', '|'), ('నే', 'U'), ('యు', '|'), ('న', '|'), ('ప', '|'), ('రా', 'U'), ('ధ', '|'), ('శ', '|'), ('తం', 'U'), ('బు', '|'), ('ల', '|'), ('సం', 'U'), ('త', '|'), ('ముల్', 'U'), ('స', '|'), ('దా', 'U'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('మున్', 'U'), ('ని', '|'), ('రం', 'U'), ('త', '|'), ('ము', '|'), ('గ', 'U'), ('ల్కి', '|'), ('త', '|'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>వెలయ వసంతవేళ వనవీథుల సంపగిపువ్వుటిండ్లలో
 నలరుచుఁ బుష్పవృష్టి నలపార్చుచు నీ వలమేలుమంగతో
@@ -1798,32 +1675,29 @@
 పొలయఁగ నాడు తీర్థముల నుబ్బు పయోధులు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ల', '|'), ('య', '|'), ('వ', '|'), ('సం', 'U'), ('త', '|'), ('వే', 'U'), ('ళ', '|'), ('వ', '|'), ('న', '|'), ('వీ', 'U'), ('థు', '|'), ('ల', '|'), ('సం', 'U'), ('ప', '|'), ('గి', '|'), ('పు', 'U'), ('వ్వు', '|'), ('టిం', 'U'), ('డ్ల', '|'), ('లో', 'U'), ('న', '|'), ('ల', '|'), ('రు', '|'), ('చు', '|'), ('బు', 'U'), ('ష్ప', '|'), ('వృ', 'U'), ('ష్టి', '|'), ('న', '|'), ('ల', '|'), ('పా', 'U'), ('ర్చు', '|'), ('చు', '|'), ('నీ', 'U'), ('వ', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('ర', '|'), ('గ', '|'), ('నే', 'U'), ('గి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('య', '|'), ('ల', '|'), ('పా', 'U'), ('ర', '|'), ('గ', '|'), ('గ', 'U'), ('స్తు', '|'), ('రి', '|'), ('నీ', 'U'), ('ట', '|'), ('మ', 'U'), ('జ్జ', '|'), ('నం', 'U'), ('బె', '|'), ('ల', '|'), ('మి', '|'), ('వ', '|'), ('హిం', 'U'), ('చి', '|'), ('గం', 'U'), ('ధ', '|'), ('త', '|'), ('తు', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', 'U'), ('గ్ర', 'U'), ('మ్మ', '|'), ('ఱ', '|'), ('మ', 'U'), ('జ్జ', '|'), ('నం', 'U'), ('బు', '|'), ('పెం', 'U'), ('పొ', '|'), ('ల', '|'), ('య', '|'), ('గ', '|'), ('నా', 'U'), ('డు', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('ల', '|'), ('ను', 'U'), ('బ్బు', '|'), ('ప', '|'), ('యో', 'U'), ('ధు', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>వెలయఁగ వేంకటాచలమువీథులఁ గమ్మనిపుష్పవృష్టి కిం
 పలరఁగ నేఁగి వచ్చి యలపారఁగ నయ్యల మేలుమంగతో
@@ -1831,32 +1705,29 @@
 గలకల నవ్వు మిమ్ముఁ గలకంఠశుకావళి వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ల', '|'), ('య', '|'), ('గ', '|'), ('వేం', 'U'), ('క', '|'), ('టా', 'U'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('వీ', 'U'), ('థు', '|'), ('ల', '|'), ('గ', 'U'), ('మ్మ', '|'), ('ని', '|'), ('పు', 'U'), ('ష్ప', '|'), ('వృ', 'U'), ('ష్టి', '|'), ('కిం', 'U'), ('ప', '|'), ('ల', '|'), ('ర', '|'), ('గ', '|'), ('నే', 'U'), ('గి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('య', '|'), ('ల', '|'), ('పా', 'U'), ('ర', '|'), ('గ', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('ర', '|'), ('గ', '|'), ('గో', 'U'), ('ర', '|'), ('క', 'U'), ('మ్ము', '|'), ('ల', '|'), ('ల', '|'), ('తాం', 'U'), ('గ', '|'), ('న', '|'), ('లి', 'U'), ('మ్ము', '|'), ('ల', '|'), ('సే', 'U'), ('స', '|'), ('జ', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('గ', '|'), ('ల', '|'), ('క', '|'), ('ల', '|'), ('న', 'U'), ('వ్వు', '|'), ('మి', 'U'), ('మ్ము', '|'), ('గ', '|'), ('ల', '|'), ('కం', 'U'), ('ఠ', '|'), ('శు', '|'), ('కా', 'U'), ('వ', '|'), ('ళి', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>ఎక్కడి కేఁగి వచ్చితి రమేశ్వర నీతనుదివ్యగంధ మే
 చక్కనియింతిమేని దని సారెకు నీయలమేలుమంగ నీ
@@ -1864,32 +1735,29 @@
 మక్కువగల్గుకాంతలకు మర్మరహస్యము వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('ఎ', 'U'), ('క్క', '|'), ('డి', '|'), ('కే', 'U'), ('గి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('తి', '|'), ('ర', '|'), ('మే', 'U'), ('శ్వ', '|'), ('ర', '|'), ('నీ', 'U'), ('త', '|'), ('ను', '|'), ('ది', 'U'), ('వ్య', '|'), ('గం', 'U'), ('ధ', '|'), ('మే', 'U'), ('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('యిం', 'U'), ('తి', '|'), ('మే', 'U'), ('ని', '|'), ('ద', '|'), ('ని', '|'), ('సా', 'U'), ('రె', '|'), ('కు', '|'), ('నీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('చె', 'U'), ('క్కు', '|'), ('గ', '|'), ('ళం', 'U'), ('బు', '|'), ('గో', 'U'), ('ళ్ల', '|'), ('వ', '|'), ('డి', '|'), ('జే', 'U'), ('ర్చు', '|'), ('చు', '|'), ('నీ', 'U'), ('య', '|'), ('ల', '|'), ('పా', 'U'), ('ర్చి', '|'), ('వే', 'U'), ('డు', '|'), ('టల్', 'U'), ('మ', 'U'), ('క్కు', '|'), ('వ', '|'), ('గ', 'U'), ('ల్గు', '|'), ('కాం', 'U'), ('త', '|'), ('ల', '|'), ('కు', '|'), ('మ', '|'), ('ర్మ', '|'), ('ర', '|'), ('హ', 'U'), ('స్య', '|'), ('ము', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>... ... ... ... లును బబ్బిలికాయలు పైఁడిమట్టియల్‌
 మోద మెలర్ప నందియలు మ్రోయఁగనయ్యలమేలుమంగ క
@@ -1897,32 +1765,29 @@
 ... ... ... ... ... ... ... ... ... ... ను వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('లు', '|'), ('ను', '|'), ('బ', 'U'), ('బ్బి', '|'), ('లి', '|'), ('కా', 'U'), ('య', '|'), ('లు', '|'), ('పై', 'U'), ('డి', '|'), ('మ', 'U'), ('ట్టి', '|'), ('యల్', 'U'), ('మో', 'U'), ('ద', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('నం', 'U'), ('ది', '|'), ('య', '|'), ('లు', '|'), ('మ్రో', 'U'), ('య', '|'), ('గ', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('క', 'U'), ('త్యా', 'U'), ('ద', '|'), ('ర', '|'), ('లీ', 'U'), ('ల', '|'), ('బా', 'U'), ('డ', '|'), ('బ', '|'), ('లు', '|'), ('వం', 'U'), ('చు', '|'), ('ను', '|'), ('వే', 'U'), ('ద', '|'), ('ము', '|'), ('ను', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>కాంచనరత్న నూత్న కటకంబులు సందులదండలు\న్‌ బ్రభల్‌
 ముంచిన మేఖలావళులు మ్రోయగ నయ్యలమేలుమంగ నే
@@ -1930,32 +1795,29 @@
 వంచినఁ దియ్యవిల్లు కడవంచు మరుండును వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('కాం', 'U'), ('చ', '|'), ('న', '|'), ('ర', 'U'), ('త్న', '|'), ('నూ', 'U'), ('త్న', '|'), ('క', '|'), ('ట', '|'), ('కం', 'U'), ('బు', '|'), ('లు', '|'), ('సం', 'U'), ('దు', '|'), ('ల', '|'), ('దం', 'U'), ('డ', '|'), ('లున్', 'U'), ('బ్ర', '|'), ('భల్', 'U'), ('ముం', 'U'), ('చి', '|'), ('న', '|'), ('మే', 'U'), ('ఖ', '|'), ('లా', 'U'), ('వ', '|'), ('ళు', '|'), ('లు', '|'), ('మ్రో', 'U'), ('య', '|'), ('గ', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నే', 'U'), ('త్రాం', 'U'), ('చ', '|'), ('ల', '|'), ('గ', 'U'), ('ర్వ', '|'), ('వీ', 'U'), ('క్ష', '|'), ('ణ', '|'), ('సు', '|'), ('హా', 'U'), ('స', '|'), ('ము', '|'), ('తో', 'U'), ('ని', '|'), ('ను', '|'), ('గో', 'U'), ('రి', 'U'), ('భ్రూ', 'U'), ('ల', '|'), ('తన్', 'U'), ('వం', 'U'), ('చి', '|'), ('న', '|'), ('ది', 'U'), ('య్య', '|'), ('వి', 'U'), ('ల్లు', '|'), ('క', '|'), ('డ', '|'), ('వం', 'U'), ('చు', '|'), ('మ', '|'), ('రుం', 'U'), ('డు', '|'), ('ను', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>ఒప్పగు తూఁగుటుయ్యెలల నూఁగుచు నీ వలమేలుమంగతో
 నప్పుడు కౌఁగిట న్రతుల నాఁకటిపెల్లున నప్పళించుచున్‌
@@ -1963,32 +1825,29 @@
 దెప్పలఁదేలు సౌఖ్య మిదె దేవరహస్యము వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('ఒ', 'U'), ('ప్ప', '|'), ('గు', '|'), ('తూ', 'U'), ('గు', '|'), ('టు', 'U'), ('య్యె', '|'), ('ల', '|'), ('ల', '|'), ('నూ', 'U'), ('గు', '|'), ('చు', '|'), ('నీ', 'U'), ('వ', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('తో', 'U'), ('న', 'U'), ('ప్పు', '|'), ('డు', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', 'U'), ('న్ర', '|'), ('తు', '|'), ('ల', '|'), ('నా', 'U'), ('క', '|'), ('టి', '|'), ('పె', 'U'), ('ల్లు', '|'), ('న', '|'), ('న', 'U'), ('ప్ప', '|'), ('ళిం', 'U'), ('చు', '|'), ('చున్', 'U'), ('ఱె', 'U'), ('ప్ప', '|'), ('ల', '|'), ('న', 'U'), ('వ్వు', '|'), ('తో', 'U'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('ఱి', 'U'), ('చ్చ', '|'), ('ల', '|'), ('తో', 'U'), ('న', '|'), ('ఱ', '|'), ('గ', 'U'), ('న్ను', '|'), ('లా', 'U'), ('ర్చు', '|'), ('చున్', 'U'), ('దె', 'U'), ('ప్ప', '|'), ('ల', '|'), ('దే', 'U'), ('లు', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('మి', '|'), ('దె', '|'), ('దే', 'U'), ('వ', '|'), ('ర', '|'), ('హ', 'U'), ('స్య', '|'), ('ము', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>గీసినగోళ్లచేఁ బసిఁడి కిన్నరకంపితముల్‌ కదల్చుచున్‌
 రాసెడిగుబ్బచన్నులభరంబున నయ్యలమేలుమంగతో
@@ -1996,32 +1855,29 @@
 యఁగా నాసల నీవు తన్మయము నందుట చిత్రము వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('గీ', 'U'), ('సి', '|'), ('న', '|'), ('గో', 'U'), ('ళ్ల', '|'), ('చే', 'U'), ('బ', '|'), ('సి', '|'), ('డి', '|'), ('కి', 'U'), ('న్న', '|'), ('ర', '|'), ('కం', 'U'), ('పి', '|'), ('త', '|'), ('ముల్', 'U'), ('క', '|'), ('ద', 'U'), ('ల్చు', '|'), ('చున్', 'U'), ('రా', 'U'), ('సె', '|'), ('డి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('చ', 'U'), ('న్ను', '|'), ('ల', '|'), ('భ', '|'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('తో', 'U'), ('మూ', 'U'), ('సి', '|'), ('యు', '|'), ('మూ', 'U'), ('య', '|'), ('క', 'U'), ('క్షు', '|'), ('ల', '|'), ('ర', '|'), ('మో', 'U'), ('డ్చు', '|'), ('చు', '|'), ('ఱె', 'U'), ('ప్ప', '|'), ('ల', '|'), ('దే', 'U'), ('ల', '|'), ('జే', 'U'), ('య', '|'), ('గా', 'U'), ('నా', 'U'), ('స', '|'), ('ల', '|'), ('నీ', 'U'), ('వు', '|'), ('త', 'U'), ('న్మ', '|'), ('య', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('ట', '|'), ('చి', 'U'), ('త్ర', '|'), ('ము', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
         <is>
           <t>దొరలిన మేనిగందపొడిధూళి వసంతము ఘర్మవారిపైఁ
 జఱచినపువ్వుఁదేనెల వసంతము నీ కలమేలుమంగకున్‌
@@ -2029,32 +1885,29 @@
 యొఱపులు నీప్రియంబులు మహోన్నతు లెట్టివో వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('దొ', '|'), ('ర', '|'), ('లి', '|'), ('న', '|'), ('మే', 'U'), ('ని', '|'), ('గం', 'U'), ('ద', '|'), ('పొ', '|'), ('డి', '|'), ('ధూ', 'U'), ('ళి', '|'), ('వ', '|'), ('సం', 'U'), ('త', '|'), ('ము', '|'), ('ఘ', '|'), ('ర్మ', '|'), ('వా', 'U'), ('రి', '|'), ('పై', 'U'), ('జ', '|'), ('ఱ', '|'), ('చి', '|'), ('న', '|'), ('పు', 'U'), ('వ్వు', '|'), ('దే', 'U'), ('నె', '|'), ('ల', '|'), ('వ', '|'), ('సం', 'U'), ('త', '|'), ('ము', '|'), ('నీ', 'U'), ('క', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('నె', '|'), ('ఱ', '|'), ('సి', '|'), ('క', '|'), ('రం', 'U'), ('గు', '|'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('ల', '|'), ('నీ', 'U'), ('ళ్ల', '|'), ('వ', '|'), ('సం', 'U'), ('త', '|'), ('ము', '|'), ('మీ', 'U'), ('కు', '|'), ('మీ', 'U'), ('కు', '|'), ('నీ', 'U'), ('యొ', '|'), ('ఱ', '|'), ('పు', '|'), ('లు', '|'), ('నీ', 'U'), ('ప్రి', '|'), ('యం', 'U'), ('బు', '|'), ('లు', '|'), ('మ', '|'), ('హో', 'U'), ('న్న', '|'), ('తు', '|'), ('లె', 'U'), ('ట్టి', '|'), ('వో', 'U'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>చక్కనితల్లికిన్‌ నవరసంబుల వెల్లికిఁ బుష్పవల్లికిం
 జక్కనిమోవిముత్తియపుజల్లికి శ్రీయలమేలుమంగకున్‌
@@ -2062,32 +1915,29 @@
 క్రిక్కిరిగుబ్బలే పసిఁడికిన్నరకాయలు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('త', 'U'), ('ల్లి', '|'), ('కిన్', 'U'), ('న', '|'), ('వ', '|'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('ల', '|'), ('వె', 'U'), ('ల్లి', '|'), ('కి', '|'), ('బు', 'U'), ('ష్ప', '|'), ('వ', 'U'), ('ల్లి', '|'), ('కిం', 'U'), ('జ', 'U'), ('క్క', '|'), ('ని', '|'), ('మో', 'U'), ('వి', '|'), ('ము', 'U'), ('త్తి', '|'), ('య', '|'), ('పు', '|'), ('జ', 'U'), ('ల్లి', '|'), ('కి', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('జె', 'U'), ('క్కు', '|'), ('లు', '|'), ('మిం', 'U'), ('చు', '|'), ('ట', 'U'), ('ద్ద', '|'), ('ము', '|'), ('లు', '|'), ('చే', 'U'), ('తు', '|'), ('లు', 'U'), ('క్రొ', 'U'), ('త్త', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('దీ', 'U'), ('గ', '|'), ('లా', 'U'), ('క్రి', 'U'), ('క్కి', '|'), ('రి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లే', 'U'), ('ప', '|'), ('సి', '|'), ('డి', '|'), ('కి', 'U'), ('న్న', '|'), ('ర', '|'), ('కా', 'U'), ('య', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>అరిసెలు నూనెబూరియలు నౌఁగులుఁ జక్కెరమండిగల్‌ వడల్‌
 బురుడలు పాలమండిగ లపూపముల య్యలమేలుమంగ నీ
@@ -2095,32 +1945,29 @@
 నిరతి వినిర్మలాన్నములు నేతులసోనలు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('రి', '|'), ('సె', '|'), ('లు', '|'), ('నూ', 'U'), ('నె', '|'), ('బూ', 'U'), ('రి', '|'), ('య', '|'), ('లు', '|'), ('నౌ', 'U'), ('గు', '|'), ('లు', '|'), ('జ', 'U'), ('క్కె', '|'), ('ర', '|'), ('మం', 'U'), ('డి', '|'), ('గల్', 'U'), ('వ', '|'), ('డల్', 'U'), ('బు', '|'), ('రు', '|'), ('డ', '|'), ('లు', '|'), ('పా', 'U'), ('ల', '|'), ('మం', 'U'), ('డి', '|'), ('గ', '|'), ('ల', '|'), ('పూ', 'U'), ('ప', '|'), ('ము', '|'), ('ల', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('రు', '|'), ('దు', '|'), ('గ', '|'), ('విం', 'U'), ('దు', '|'), ('వె', 'U'), ('ట్టు', '|'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('న్న', '|'), ('చ', '|'), ('యం', 'U'), ('బు', '|'), ('లు', '|'), ('సూ', 'U'), ('ప', '|'), ('కో', 'U'), ('టి', '|'), ('యున్', 'U'), ('ని', '|'), ('ర', '|'), ('తి', '|'), ('వి', '|'), ('ని', '|'), ('ర్మ', '|'), ('లా', 'U'), ('న్న', '|'), ('ము', '|'), ('లు', '|'), ('నే', 'U'), ('తు', '|'), ('ల', '|'), ('సో', 'U'), ('న', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>కానిక లిచ్చె నీవిభుఁడు కౌఁగిటఁ బాన్పునఁ గమ్మవల్పుపూఁ
 దేనెల ఘర్మబిందువుల దేహమునం దలమేలుమంగ నీ
@@ -2128,32 +1975,29 @@
 బైనను బాయ దంచుఁ జెలు లందురు నీసతి వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('ని', '|'), ('క', '|'), ('లి', 'U'), ('చ్చె', '|'), ('నీ', 'U'), ('వి', '|'), ('భు', '|'), ('డు', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('బా', 'U'), ('న్పు', '|'), ('న', '|'), ('గ', 'U'), ('మ్మ', '|'), ('వ', 'U'), ('ల్పు', '|'), ('పూ', 'U'), ('దే', 'U'), ('నె', '|'), ('ల', '|'), ('ఘ', '|'), ('ర్మ', '|'), ('బిం', 'U'), ('దు', '|'), ('వు', '|'), ('ల', '|'), ('దే', 'U'), ('హ', '|'), ('ము', '|'), ('నం', 'U'), ('ద', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('వా', 'U'), ('న', '|'), ('గు', '|'), ('మో', 'U'), ('ము', '|'), ('తో', 'U'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('కం', 'U'), ('చు', '|'), ('ద', '|'), ('లి', 'U'), ('ర్చి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('త', 'U'), ('న్మ', '|'), ('యం', 'U'), ('బై', 'U'), ('న', '|'), ('ను', '|'), ('బా', 'U'), ('య', '|'), ('దం', 'U'), ('చు', '|'), ('జె', '|'), ('లు', '|'), ('లం', 'U'), ('దు', '|'), ('రు', '|'), ('నీ', 'U'), ('స', '|'), ('తి', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>పెనఁగకుమమ్మ! చిమ్ము జళిపించిన చూపుల గర్వరేఖ రాఁ
 జెనకకు మమ్మ! లేఁ జెమటచెక్కుల నోయలమేలుమంగ నీ
@@ -2161,32 +2005,29 @@
 ద్దని పొలయల్క దీర్తురు లతాంగులు నీసతి వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('పె', '|'), ('న', '|'), ('గ', '|'), ('కు', '|'), ('మ', 'U'), ('మ్మ', '|'), ('చి', 'U'), ('మ్ము', '|'), ('జ', '|'), ('ళి', '|'), ('పిం', 'U'), ('చి', '|'), ('న', '|'), ('చూ', 'U'), ('పు', '|'), ('ల', '|'), ('గ', 'U'), ('ర్వ', '|'), ('రే', 'U'), ('ఖ', '|'), ('రా', 'U'), ('జె', '|'), ('న', '|'), ('క', '|'), ('కు', '|'), ('మ', 'U'), ('మ్మ', '|'), ('లే', 'U'), ('జె', '|'), ('మ', '|'), ('ట', '|'), ('చె', 'U'), ('క్కు', '|'), ('ల', '|'), ('నో', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('ఘ', '|'), ('ను', '|'), ('డు', '|'), ('క', '|'), ('ళా', 'U'), ('వి', '|'), ('నో', 'U'), ('ది', '|'), ('ర', '|'), ('తి', '|'), ('కాం', 'U'), ('త', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('స', '|'), ('హ', 'U'), ('స్ర', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వ', 'U'), ('ద్ద', '|'), ('ని', '|'), ('పొ', '|'), ('ల', '|'), ('య', 'U'), ('ల్క', '|'), ('దీ', 'U'), ('ర్తు', '|'), ('రు', '|'), ('ల', '|'), ('తాం', 'U'), ('గు', '|'), ('లు', '|'), ('నీ', 'U'), ('స', '|'), ('తి', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>కులుకకుమమ్మ చిమ్మజిలుకుం గొనచూపుల బిత్తరంబుగా
 నులుచకుమమ్మ బొమ్మముడి నూల్కొనఁగోపము లేఁతనవ్వు గా
@@ -2194,32 +2035,29 @@
 చెలువున నంచు నెచ్చెలులు చేర్తురు నీసతి వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('లు', '|'), ('క', '|'), ('కు', '|'), ('మ', 'U'), ('మ్మ', '|'), ('చి', 'U'), ('మ్మ', '|'), ('జి', '|'), ('లు', '|'), ('కుం', 'U'), ('గొ', '|'), ('న', '|'), ('చూ', 'U'), ('పు', '|'), ('ల', '|'), ('బి', 'U'), ('త్త', '|'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('ను', '|'), ('లు', '|'), ('చ', '|'), ('కు', '|'), ('మ', 'U'), ('మ్మ', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('ము', '|'), ('డి', '|'), ('నూ', 'U'), ('ల్కొ', '|'), ('న', '|'), ('గో', 'U'), ('ప', '|'), ('ము', '|'), ('లే', 'U'), ('త', '|'), ('న', 'U'), ('వ్వు', '|'), ('గా', 'U'), ('సొ', '|'), ('ల', '|'), ('య', '|'), ('కు', '|'), ('మ', 'U'), ('మ్మ', '|'), ('క', '|'), ('లి', '|'), ('ను', '|'), ('ను', '|'), ('సో', 'U'), ('గ', '|'), ('ల', '|'), ('నో', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('చె', '|'), ('లు', '|'), ('వు', '|'), ('న', '|'), ('నం', 'U'), ('చు', '|'), ('నె', 'U'), ('చ్చె', '|'), ('లు', '|'), ('లు', '|'), ('చే', 'U'), ('ర్తు', '|'), ('రు', '|'), ('నీ', 'U'), ('స', '|'), ('తి', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>చాఁగు బళా జగత్పతికి జాఁగు బళా జగదేకమాతకున్‌
 చాఁగు బళా రమేశునకుఁ జాఁగు బళా యలమేలుమంగకు\న్‌
@@ -2227,32 +2065,29 @@
 రేఁగఁగ నిత్తు రారతు లనేకవిధంబుల వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('చా', 'U'), ('గు', '|'), ('బ', '|'), ('ళా', 'U'), ('జ', '|'), ('గ', 'U'), ('త్ప', '|'), ('తి', '|'), ('కి', '|'), ('జా', 'U'), ('గు', '|'), ('బ', '|'), ('ళా', 'U'), ('జ', '|'), ('గ', '|'), ('దే', 'U'), ('క', '|'), ('మా', 'U'), ('త', '|'), ('కున్', 'U'), ('చా', 'U'), ('గు', '|'), ('బ', '|'), ('ళా', 'U'), ('ర', '|'), ('మే', 'U'), ('శు', '|'), ('న', '|'), ('కు', '|'), ('జా', 'U'), ('గు', '|'), ('బ', '|'), ('ళా', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('జా', 'U'), ('గు', '|'), ('బ', '|'), ('ళా', 'U'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('గ', '|'), ('డు', '|'), ('జ', 'U'), ('క్క', '|'), ('ని', '|'), ('కాం', 'U'), ('త', '|'), ('ను', '|'), ('వీ', 'U'), ('థి', '|'), ('వీ', 'U'), ('థి', '|'), ('మీ', 'U'), ('రే', 'U'), ('గ', '|'), ('గ', '|'), ('ని', 'U'), ('త్తు', '|'), ('రా', 'U'), ('ర', '|'), ('తు', '|'), ('ల', '|'), ('నే', 'U'), ('క', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('ల', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>చొచ్చితిఁ దల్లి నీమఱుఁగు సొంపుఁగ నీకరుణాకటాక్ష మె
 ట్లిచ్చెదొ నాకు నేఁడు పరమేశ్వరి! యోయలమేలుమంగ నీ
@@ -2260,32 +2095,29 @@
 బచ్చెనమాట లేమిటికిఁ బ్రాఁ తిదె చూడఁగ వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('చొ', 'U'), ('చ్చి', '|'), ('తి', '|'), ('ద', 'U'), ('ల్లి', '|'), ('నీ', 'U'), ('మ', '|'), ('ఱు', '|'), ('గు', '|'), ('సొం', 'U'), ('పు', '|'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('మె', 'U'), ('ట్లి', 'U'), ('చ్చె', '|'), ('దొ', '|'), ('నా', 'U'), ('కు', '|'), ('నే', 'U'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('మే', 'U'), ('శ్వ', '|'), ('రి', '|'), ('యో', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('మ', 'U'), ('చ్చి', '|'), ('క', '|'), ('నం', 'U'), ('చు', '|'), ('నీ', 'U'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('మ', 'U'), ('న్న', '|'), ('న', '|'), ('నే', 'U'), ('ని', '|'), ('ను', '|'), ('గం', 'U'), ('టి', '|'), ('నీ', 'U'), ('కు', '|'), ('నా', 'U'), ('బ', 'U'), ('చ్చె', '|'), ('న', '|'), ('మా', 'U'), ('ట', '|'), ('లే', 'U'), ('మి', '|'), ('టి', '|'), ('కి', 'U'), ('బ్రా', 'U'), ('తి', '|'), ('దె', '|'), ('చూ', 'U'), ('డ', '|'), ('గ', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
         <is>
           <t>ఎచ్చరికమ్ము పాదములు నిందిరసింధురయాన తమ్మిపూ
 నెచ్చెలి క్రొత్తక్రొత్తపలునిగ్గులతో నలమేలుమంగ నీ
@@ -2293,32 +2125,29 @@
 మచ్చిక యింతి నింతులు మమత్త్వము నెంతురు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('ఎ', 'U'), ('చ్చ', '|'), ('రి', '|'), ('క', 'U'), ('మ్ము', '|'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('నిం', 'U'), ('ది', '|'), ('ర', '|'), ('సిం', 'U'), ('ధు', '|'), ('ర', '|'), ('యా', 'U'), ('న', '|'), ('త', 'U'), ('మ్మి', '|'), ('పూ', 'U'), ('నె', 'U'), ('చ్చె', '|'), ('లి', 'U'), ('క్రొ', 'U'), ('త్త', 'U'), ('క్రొ', 'U'), ('త్త', '|'), ('ప', '|'), ('లు', '|'), ('ని', 'U'), ('గ్గు', '|'), ('ల', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('దా', 'U'), ('క', '|'), ('నీ', 'U'), ('వి', '|'), ('భు', '|'), ('డు', '|'), ('వం', 'U'), ('చి', '|'), ('న', '|'), ('మో', 'U'), ('ము', '|'), ('ను', '|'), ('నె', 'U'), ('త్త', '|'), ('డం', 'U'), ('చు', '|'), ('నీ', 'U'), ('మ', 'U'), ('చ్చి', '|'), ('క', '|'), ('యిం', 'U'), ('తి', '|'), ('నిం', 'U'), ('తు', '|'), ('లు', '|'), ('మ', '|'), ('మ', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('నెం', 'U'), ('తు', '|'), ('రు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>కనకపుఁబీఠి నెక్కి రతికాంతశరాకృతి నీవు వీథులం
 జనునెడ నీదు చెంగటఁ బ్రసన్నతతో నలమేలుమంగ కాం
@@ -2326,32 +2155,29 @@
 గనుఁగవ మోడ్చి మోడ్చి రతిఁ గౌఁగిటఁ జేర్తువు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('న', '|'), ('క', '|'), ('పు', '|'), ('బీ', 'U'), ('ఠి', '|'), ('నె', 'U'), ('క్కి', '|'), ('ర', '|'), ('తి', '|'), ('కాం', 'U'), ('త', '|'), ('శ', '|'), ('రా', 'U'), ('కృ', '|'), ('తి', '|'), ('నీ', 'U'), ('వు', '|'), ('వీ', 'U'), ('థు', '|'), ('లం', 'U'), ('జ', '|'), ('ను', '|'), ('నె', '|'), ('డ', '|'), ('నీ', 'U'), ('దు', '|'), ('చెం', 'U'), ('గ', '|'), ('ట', 'U'), ('బ్ర', '|'), ('స', 'U'), ('న్న', '|'), ('త', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కాం', 'U'), ('చ', '|'), ('న', '|'), ('న', '|'), ('వ', '|'), ('కిం', 'U'), ('కి', '|'), ('ణీ', 'U'), ('ర', '|'), ('వ', '|'), ('ము', '|'), ('స', 'U'), ('న్న', '|'), ('పు', '|'), ('దా', 'U'), ('ళ', '|'), ('గ', '|'), ('తిన్', 'U'), ('ర', '|'), ('చిం', 'U'), ('ప', '|'), ('గా', 'U'), ('గ', '|'), ('ను', '|'), ('గ', '|'), ('వ', '|'), ('మో', 'U'), ('డ్చి', '|'), ('మో', 'U'), ('డ్చి', '|'), ('ర', '|'), ('తి', '|'), ('గౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('ర్తు', '|'), ('వు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>ఒఱపగుమీ విహారతతు లుప్పనబట్టెలు బిల్లటీపు ల
 చ్చెరువుగ బల్లకోటులు ప్రసిద్ధిగ నయ్యలమేలుమంగకున్‌
@@ -2359,32 +2185,29 @@
 చిఱునగవుం బ్రమోదములు చెక్కులనొక్కులు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('ఱ', '|'), ('ప', '|'), ('గు', '|'), ('మీ', 'U'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('త', '|'), ('తు', '|'), ('లు', 'U'), ('ప్ప', '|'), ('న', '|'), ('బ', 'U'), ('ట్టె', '|'), ('లు', '|'), ('బి', 'U'), ('ల్ల', '|'), ('టీ', 'U'), ('పు', '|'), ('ల', 'U'), ('చ్చె', '|'), ('రు', '|'), ('వు', '|'), ('గ', '|'), ('బ', 'U'), ('ల్ల', '|'), ('కో', 'U'), ('టు', '|'), ('లు', 'U'), ('ప్ర', '|'), ('సి', 'U'), ('ద్ధి', '|'), ('గ', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('మె', '|'), ('ఱు', '|'), ('పు', '|'), ('లు', '|'), ('ము', 'U'), ('చ్చ', '|'), ('టల్', 'U'), ('ర', '|'), ('తు', '|'), ('ల', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('లు', '|'), ('ద', 'U'), ('క్కు', '|'), ('లు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('మీ', 'U'), ('చి', '|'), ('ఱు', '|'), ('న', '|'), ('గ', '|'), ('వుం', 'U'), ('బ్ర', '|'), ('మో', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('చె', 'U'), ('క్కు', '|'), ('ల', '|'), ('నొ', 'U'), ('క్కు', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>చక్కెర బొమ్మ చెక్కులనె సానలు పట్టిన పువ్వుటమ్ములో
 గ్రుక్కినజవ్వనంబు పెనుగుబ్బలో శ్రీయలమేలుమంగ నీ
@@ -2392,32 +2215,29 @@
 కెక్కువ లంటు కందువల యింపుల సొంపుల వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('చ', 'U'), ('క్కె', '|'), ('ర', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('చె', 'U'), ('క్కు', '|'), ('ల', '|'), ('నె', '|'), ('సా', 'U'), ('న', '|'), ('లు', '|'), ('ప', 'U'), ('ట్టి', '|'), ('న', '|'), ('పు', 'U'), ('వ్వు', '|'), ('ట', 'U'), ('మ్ము', '|'), ('లో', 'U'), ('గ్రు', 'U'), ('క్కి', '|'), ('న', '|'), ('జ', 'U'), ('వ్వ', '|'), ('నం', 'U'), ('బు', '|'), ('పె', '|'), ('ను', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లో', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('వ', 'U'), ('క్కు', '|'), ('న', '|'), ('జే', 'U'), ('ర్చి', '|'), ('ప', 'U'), ('ట్ట', '|'), ('స', '|'), ('క', '|'), ('లా', 'U'), ('ధి', '|'), ('ప', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('నీ', 'U'), ('కు', '|'), ('న', 'U'), ('బ్బె', '|'), ('గా', 'U'), ('కె', 'U'), ('క్కు', '|'), ('వ', '|'), ('లం', 'U'), ('టు', '|'), ('కం', 'U'), ('దు', '|'), ('వ', '|'), ('ల', '|'), ('యిం', 'U'), ('పు', '|'), ('ల', '|'), ('సొం', 'U'), ('పు', '|'), ('ల', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t>పరిమళముం బ్రభావము శుభస్థితి నిత్యవిభూతి విభ్రమ
 స్ఫురణము దివ్యవైభవము భోగము శ్రీయలమేలుమంగ నీ
@@ -2425,32 +2245,29 @@
 వరవనితాశిరోమణి నవారణఁ గొల్తురు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('రి', '|'), ('మ', '|'), ('ళ', '|'), ('ముం', 'U'), ('బ్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('శు', '|'), ('భ', 'U'), ('స్థి', '|'), ('తి', '|'), ('ని', 'U'), ('త్య', '|'), ('వి', '|'), ('భూ', 'U'), ('తి', '|'), ('వి', 'U'), ('భ్ర', '|'), ('మ', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('ది', 'U'), ('వ్య', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('భో', 'U'), ('గ', '|'), ('ము', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('యు', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('నం', 'U'), ('చు', '|'), ('స', 'U'), ('న్ము', '|'), ('ను', '|'), ('లు', '|'), ('యో', 'U'), ('గి', '|'), ('జ', '|'), ('నం', 'U'), ('బు', '|'), ('లు', '|'), ('మె', 'U'), ('చ్చి', '|'), ('మె', 'U'), ('చ్చి', '|'), ('నీ', 'U'), ('వ', '|'), ('ర', '|'), ('వ', '|'), ('ని', '|'), ('తా', 'U'), ('శి', '|'), ('రో', 'U'), ('మ', '|'), ('ణి', '|'), ('న', '|'), ('వా', 'U'), ('ర', '|'), ('ణ', '|'), ('గొ', 'U'), ('ల్తు', '|'), ('రు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>కులికెడు పండుటామనులఁ గోయిలకూఁతల గుండె ఝల్లనన్‌
 జెలువము గల్గు రాకలను జెంగట శ్రీయలమేలుమంగ కో
@@ -2458,32 +2275,29 @@
 వలపులవార్ధిలోన ననివారణఁ దేలుచు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('లి', '|'), ('కె', '|'), ('డు', '|'), ('పం', 'U'), ('డు', '|'), ('టా', 'U'), ('మ', '|'), ('ను', '|'), ('ల', '|'), ('గో', 'U'), ('యి', '|'), ('ల', '|'), ('కూ', 'U'), ('త', '|'), ('ల', '|'), ('గుం', 'U'), ('డె', '|'), ('ఝ', 'U'), ('ల్ల', '|'), ('నన్', 'U'), ('జె', '|'), ('లు', '|'), ('వ', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('రా', 'U'), ('క', '|'), ('ల', '|'), ('ను', '|'), ('జెం', 'U'), ('గ', '|'), ('ట', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కో', 'U'), ('వి', '|'), ('ల', '|'), ('క', '|'), ('ల', '|'), ('నా', 'U'), ('ద', '|'), ('కో', 'U'), ('టు', '|'), ('ల', '|'), ('చ', '|'), ('విం', 'U'), ('బ', '|'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('నె', 'U'), ('ట్టు', '|'), ('లో', 'U'), ('ర్తు', '|'), ('వో', 'U'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('ల', '|'), ('వా', 'U'), ('ర్ధి', '|'), ('లో', 'U'), ('న', '|'), ('న', '|'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('ణ', '|'), ('దే', 'U'), ('లు', '|'), ('చు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>తొలఁకెడుకొప్పులో నెరులొ తుమ్మెదదాటులొ చూపువంపులో
 గులుకులొ మంచివెన్నెలల గుంపులొ శ్రీయలమేలుమంగకున్‌
@@ -2491,32 +2305,29 @@
 పలుచనినవ్వులే విరులపాన్పులు నీకును వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('తొ', '|'), ('ల', '|'), ('కె', '|'), ('డు', '|'), ('కొ', 'U'), ('ప్పు', '|'), ('లో', 'U'), ('నె', '|'), ('రు', '|'), ('లొ', '|'), ('తు', 'U'), ('మ్మె', '|'), ('ద', '|'), ('దా', 'U'), ('టు', '|'), ('లొ', '|'), ('చూ', 'U'), ('పు', '|'), ('వం', 'U'), ('పు', '|'), ('లో', 'U'), ('గు', '|'), ('లు', '|'), ('కు', '|'), ('లొ', '|'), ('మం', 'U'), ('చి', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('ల', '|'), ('గుం', 'U'), ('పు', '|'), ('లొ', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('బ', '|'), ('లు', '|'), ('కు', '|'), ('లు', '|'), ('ప', 'U'), ('చ్చ', '|'), ('క', 'U'), ('ప్పు', '|'), ('ర', '|'), ('పు', '|'), ('బ', 'U'), ('ల్కు', '|'), ('లు', '|'), ('తా', 'U'), ('వు', '|'), ('లె', '|'), ('ది', 'U'), ('వ్య', '|'), ('గం', 'U'), ('ధ', '|'), ('ముల్', 'U'), ('ప', '|'), ('లు', '|'), ('చ', '|'), ('ని', '|'), ('న', 'U'), ('వ్వు', '|'), ('లే', 'U'), ('వి', '|'), ('రు', '|'), ('ల', '|'), ('పా', 'U'), ('న్పు', '|'), ('లు', '|'), ('నీ', 'U'), ('కు', '|'), ('ను', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>అందము చూతు రుప్పవడమై ఘను లాయలమేలుమంగ మో
 మందము గాఁగఁ జూతువు ప్రియంబున మెల్లన నీవటుండఁబో
@@ -2524,32 +2335,29 @@
 యందములోన నందములునై వెలుగొందుచు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('ద', '|'), ('ము', '|'), ('చూ', 'U'), ('తు', '|'), ('రు', 'U'), ('ప్ప', '|'), ('వ', '|'), ('డ', '|'), ('మై', 'U'), ('ఘ', '|'), ('ను', '|'), ('లా', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('మో', 'U'), ('మం', 'U'), ('ద', '|'), ('ము', '|'), ('గా', 'U'), ('గ', '|'), ('జూ', 'U'), ('తు', '|'), ('వు', 'U'), ('ప్రి', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('మె', 'U'), ('ల్ల', '|'), ('న', '|'), ('నీ', 'U'), ('వ', '|'), ('టుం', 'U'), ('డ', '|'), ('బో', 'U'), ('యం', 'U'), ('ద', '|'), ('ఱి', '|'), ('మో', 'U'), ('ము', '|'), ('ట', 'U'), ('ద్ద', '|'), ('ము', '|'), ('లు', '|'), ('న', 'U'), ('వ్వ', '|'), ('ల', '|'), ('న', 'U'), ('వ్వు', '|'), ('ల', '|'), ('గో', 'U'), ('టి', '|'), ('కొం', 'U'), ('డ', '|'), ('లై', 'U'), ('యం', 'U'), ('ద', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('నం', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('నై', 'U'), ('వె', '|'), ('లు', '|'), ('గొం', 'U'), ('దు', '|'), ('చు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>తలఁచిన గుండె జల్లనును దల్లడమందెడు నేమిసేతు నా
 చెలువుఁడు రాఁడటంచు లలసీనవి వో యలమేలుమంగ నీ
@@ -2557,32 +2365,29 @@
 యలుగకు మన్న మాన విఁకనైనను నెన్నఁడు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('గుం', 'U'), ('డె', '|'), ('జ', 'U'), ('ల్ల', '|'), ('ను', '|'), ('ను', '|'), ('ద', 'U'), ('ల్ల', '|'), ('డ', '|'), ('మం', 'U'), ('దె', '|'), ('డు', '|'), ('నే', 'U'), ('మి', '|'), ('సే', 'U'), ('తు', '|'), ('నా', 'U'), ('చె', '|'), ('లు', '|'), ('వు', '|'), ('డు', '|'), ('రా', 'U'), ('డ', '|'), ('టం', 'U'), ('చు', '|'), ('ల', '|'), ('ల', '|'), ('సీ', 'U'), ('న', '|'), ('వి', '|'), ('వో', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('తొ', '|'), ('ల', '|'), ('క', '|'), ('రి', '|'), ('మిం', 'U'), ('చు', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('తొ', 'U'), ('య్య', '|'), ('లి', '|'), ('జూ', 'U'), ('డ', '|'), ('క', '|'), ('యె', 'U'), ('ట్టు', '|'), ('లో', 'U'), ('ర్తు', '|'), ('వో', 'U'), ('య', '|'), ('లు', '|'), ('గ', '|'), ('కు', '|'), ('మ', 'U'), ('న్న', '|'), ('మా', 'U'), ('న', '|'), ('వి', '|'), ('క', '|'), ('నై', 'U'), ('న', '|'), ('ను', '|'), ('నె', 'U'), ('న్న', '|'), ('డు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>ఆయలమేలుమంగ కమలాననయుం గలుహార నేత్రియుం
 బాయక తానయై చెలఁగుబద్మ హితాక్షముఁజంద్ర నేత్రము\న్‌
@@ -2590,32 +2395,29 @@
 కేయెడ మేల్కొనంగఁ దఱి యెయ్యది చూడఁగ వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('క', '|'), ('మ', '|'), ('లా', 'U'), ('న', '|'), ('న', '|'), ('యుం', 'U'), ('గ', '|'), ('లు', '|'), ('హా', 'U'), ('ర', '|'), ('నే', 'U'), ('త్రి', '|'), ('యుం', 'U'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('తా', 'U'), ('న', '|'), ('యై', 'U'), ('చె', '|'), ('ల', '|'), ('గు', '|'), ('బ', 'U'), ('ద్మ', '|'), ('హి', '|'), ('తా', 'U'), ('క్ష', '|'), ('ము', '|'), ('జం', 'U'), ('ద్ర', '|'), ('నే', 'U'), ('త్ర', '|'), ('మున్', 'U'), ('సో', 'U'), ('య', '|'), ('గ', '|'), ('లీ', 'U'), ('ల', '|'), ('మిం', 'U'), ('చు', '|'), ('నె', '|'), ('టు', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('బొం', 'U'), ('ది', '|'), ('క', '|'), ('నె', 'U'), ('ద్ది', '|'), ('ని', '|'), ('ద్ర', '|'), ('నీ', 'U'), ('కే', 'U'), ('యె', '|'), ('డ', '|'), ('మే', 'U'), ('ల్కొ', '|'), ('నం', 'U'), ('గ', '|'), ('ద', '|'), ('ఱి', '|'), ('యె', 'U'), ('య్య', '|'), ('ది', '|'), ('చూ', 'U'), ('డ', '|'), ('గ', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
         <is>
           <t>నెఱి నలమేలుమంగకును నీకును పద్మభవాండభాండమే
 మెఱసిన బొమ్మరిల్లు తగుమేడలు మీఁదటిలోకముల్‌ ప్రభల్‌
@@ -2623,32 +2425,29 @@
 తొఱలిన దేవసంఘములె తొత్తులు బంట్లును వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('నె', '|'), ('ఱి', '|'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కు', '|'), ('ను', '|'), ('నీ', 'U'), ('కు', '|'), ('ను', '|'), ('ప', 'U'), ('ద్మ', '|'), ('భ', '|'), ('వాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('మే', 'U'), ('మె', '|'), ('ఱ', '|'), ('సి', '|'), ('న', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('రి', 'U'), ('ల్లు', '|'), ('త', '|'), ('గు', '|'), ('మే', 'U'), ('డ', '|'), ('లు', '|'), ('మీ', 'U'), ('ద', '|'), ('టి', '|'), ('లో', 'U'), ('క', '|'), ('ముల్', 'U'), ('ప్ర', '|'), ('భల్', 'U'), ('తె', '|'), ('ఱ', '|'), ('ల', '|'), ('గ', '|'), ('మిం', 'U'), ('చు', '|'), ('న', 'U'), ('య్యి', '|'), ('ను', '|'), ('డె', '|'), ('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('గు', 'U'), ('జ్జ', '|'), ('న', '|'), ('గూ', 'U'), ('డు', '|'), ('చం', 'U'), ('ద్రు', '|'), ('డే', 'U'), ('తొ', '|'), ('ఱ', '|'), ('లి', '|'), ('న', '|'), ('దే', 'U'), ('వ', '|'), ('సం', 'U'), ('ఘ', '|'), ('ము', '|'), ('లె', '|'), ('తొ', 'U'), ('త్తు', '|'), ('లు', '|'), ('బం', 'U'), ('ట్లు', '|'), ('ను', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>వడి నలమేలుమంగ నిడువాలికచూపునివాళి నీపయి\న్‌
 సుడిసిన తమ్మిరేకులంబ్రసూనశరంబులు గల్వరేకుల\న్‌
@@ -2656,32 +2455,29 @@
 పొడవగు పువ్వుజొంపముల పూజలు నీకును వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('డి', '|'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('ని', '|'), ('డు', '|'), ('వా', 'U'), ('లి', '|'), ('క', '|'), ('చూ', 'U'), ('పు', '|'), ('ని', '|'), ('వా', 'U'), ('ళి', '|'), ('నీ', 'U'), ('ప', '|'), ('యిన్', 'U'), ('సు', '|'), ('డి', '|'), ('సి', '|'), ('న', '|'), ('త', 'U'), ('మ్మి', '|'), ('రే', 'U'), ('కు', '|'), ('లం', 'U'), ('బ్ర', '|'), ('సూ', 'U'), ('న', '|'), ('శ', '|'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('గ', 'U'), ('ల్వ', '|'), ('రే', 'U'), ('కు', '|'), ('లన్', 'U'), ('బ', '|'), ('డి', '|'), ('బ', '|'), ('డి', '|'), ('మీ', 'U'), ('ద', '|'), ('మీ', 'U'), ('ద', '|'), ('ర', '|'), ('స', '|'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('గా', 'U'), ('ది', '|'), ('గ', '|'), ('బో', 'U'), ('సి', '|'), ('న', 'U'), ('ట్ల', '|'), ('పో', 'U'), ('పొ', '|'), ('డ', '|'), ('వ', '|'), ('గు', '|'), ('పు', 'U'), ('వ్వు', '|'), ('జొం', 'U'), ('ప', '|'), ('ము', '|'), ('ల', '|'), ('పూ', 'U'), ('జ', '|'), ('లు', '|'), ('నీ', 'U'), ('కు', '|'), ('ను', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
         <is>
           <t>నిను నలమేలుమంగ ఘననీరజపంక్తులు దాఁక నేసిన\న్‌
 జనుఁగవ నొత్తినట్లు కెరజంబుల వాండ్లును నొత్తినట్లు ని
@@ -2689,32 +2485,29 @@
 జెనకి మరుండు బాణములు చిమ్మినయట్లగు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ను', '|'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('ఘ', '|'), ('న', '|'), ('నీ', 'U'), ('ర', '|'), ('జ', '|'), ('పం', 'U'), ('క్తు', '|'), ('లు', '|'), ('దా', 'U'), ('క', '|'), ('నే', 'U'), ('సి', '|'), ('నన్', 'U'), ('జ', '|'), ('ను', '|'), ('గ', '|'), ('వ', '|'), ('నొ', 'U'), ('త్తి', '|'), ('న', 'U'), ('ట్లు', '|'), ('కె', '|'), ('ర', '|'), ('జం', 'U'), ('బు', '|'), ('ల', '|'), ('వాం', 'U'), ('డ్లు', '|'), ('ను', '|'), ('నొ', 'U'), ('త్తి', '|'), ('న', 'U'), ('ట్లు', '|'), ('ని', 'U'), ('గ్గు', '|'), ('న', '|'), ('గ', '|'), ('ను', '|'), ('దో', 'U'), ('యి', '|'), ('తా', 'U'), ('మ', '|'), ('ర', '|'), ('ల', '|'), ('గొం', 'U'), ('క', '|'), ('క', '|'), ('సా', 'U'), ('రె', '|'), ('కు', '|'), ('నొ', 'U'), ('త్తి', '|'), ('న', 'U'), ('ట్లు', '|'), ('మై', 'U'), ('జె', '|'), ('న', '|'), ('కి', '|'), ('మ', '|'), ('రుం', 'U'), ('డు', '|'), ('బా', 'U'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('చి', 'U'), ('మ్మి', '|'), ('న', '|'), ('య', 'U'), ('ట్ల', '|'), ('గు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>అపు డలమేలుమంగ పొలయల్కలు వద్దని చాఁటి చెప్పిన\న్‌
 గపటపుటల్క లల్లితివి గర్వితనంబునఁ గాంత కోరమే
@@ -2722,32 +2515,29 @@
 విపులవియోగతాపమున వేడుకకూటమి వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('పు', '|'), ('డ', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('పొ', '|'), ('ల', '|'), ('య', 'U'), ('ల్క', '|'), ('లు', '|'), ('వ', 'U'), ('ద్ద', '|'), ('ని', '|'), ('చా', 'U'), ('టి', '|'), ('చె', 'U'), ('ప్పి', '|'), ('నన్', 'U'), ('గ', '|'), ('ప', '|'), ('ట', '|'), ('పు', '|'), ('ట', 'U'), ('ల్క', '|'), ('ల', 'U'), ('ల్లి', '|'), ('తి', '|'), ('వి', '|'), ('గ', 'U'), ('ర్వి', '|'), ('త', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('గాం', 'U'), ('త', '|'), ('కో', 'U'), ('ర', '|'), ('మే', 'U'), ('ర', '|'), ('ప', '|'), ('ము', '|'), ('న', '|'), ('జూ', 'U'), ('తు', '|'), ('గా', 'U'), ('క', '|'), ('లు', '|'), ('క', '|'), ('రా', 'U'), ('జ', '|'), ('స', '|'), ('లీ', 'U'), ('ల', '|'), ('ల', '|'), ('నిం', 'U'), ('త', '|'), ('దీ', 'U'), ('ఱు', '|'), ('నా', 'U'), ('వి', '|'), ('పు', '|'), ('ల', '|'), ('వి', '|'), ('యో', 'U'), ('గ', '|'), ('తా', 'U'), ('ప', '|'), ('ము', '|'), ('న', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('కూ', 'U'), ('ట', '|'), ('మి', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>ఇల నలమేలుమంగ నిను నేమని తిట్టునొ యేకతంబున\న్‌
 గలికి మెఱుంగుడాలు తెలికన్నులజంకెన నద్దలింపుచు\న్‌
@@ -2755,32 +2545,29 @@
 జలజల కొప్పుసంపెఁగలు జాజులు రాలఁగ వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('ల', '|'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('ని', '|'), ('ను', '|'), ('నే', 'U'), ('మ', '|'), ('ని', '|'), ('తి', 'U'), ('ట్టు', '|'), ('నొ', '|'), ('యే', 'U'), ('క', '|'), ('తం', 'U'), ('బు', '|'), ('నన్', 'U'), ('గ', '|'), ('లి', '|'), ('కి', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('డా', 'U'), ('లు', '|'), ('తె', '|'), ('లి', '|'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('జం', 'U'), ('కె', '|'), ('న', '|'), ('న', 'U'), ('ద్ద', '|'), ('లిం', 'U'), ('పు', '|'), ('చున్', 'U'), ('బ', '|'), ('లు', '|'), ('కు', '|'), ('ల', '|'), ('ము', 'U'), ('ద్దు', '|'), ('లిం', 'U'), ('పొ', '|'), ('ల', '|'), ('య', '|'), ('భా', 'U'), ('ర', '|'), ('పు', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('దూ', 'U'), ('ర', '|'), ('నె', 'U'), ('త్తు', '|'), ('చున్', 'U'), ('జ', '|'), ('ల', '|'), ('జ', '|'), ('ల', '|'), ('కొ', 'U'), ('ప్పు', '|'), ('సం', 'U'), ('పె', '|'), ('గ', '|'), ('లు', '|'), ('జా', 'U'), ('జు', '|'), ('లు', '|'), ('రా', 'U'), ('ల', '|'), ('గ', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>తగు నలమేలుమంగకును దన్మయమందెడునీకు మేనిలో
 బగటులు బచ్చిమాటలను బచ్చెనయెచ్చరికల్‌ వివేకముల్‌
@@ -2788,32 +2575,29 @@
 జగడపుఁబొందులు\న్‌ రతులసంపదవిందులు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('గు', '|'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కు', '|'), ('ను', '|'), ('ద', 'U'), ('న్మ', '|'), ('య', '|'), ('మం', 'U'), ('దె', '|'), ('డు', '|'), ('నీ', 'U'), ('కు', '|'), ('మే', 'U'), ('ని', '|'), ('లో', 'U'), ('బ', '|'), ('గ', '|'), ('టు', '|'), ('లు', '|'), ('బ', 'U'), ('చ్చి', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('ను', '|'), ('బ', 'U'), ('చ్చె', '|'), ('న', '|'), ('యె', 'U'), ('చ్చ', '|'), ('రి', '|'), ('కల్', 'U'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ముల్', 'U'), ('మొ', '|'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('లే', 'U'), ('త', '|'), ('న', 'U'), ('వ్వు', '|'), ('ల', '|'), ('ను', '|'), ('మో', 'U'), ('వు', '|'), ('ల', '|'), ('నా', 'U'), ('టు', '|'), ('లు', '|'), ('త', 'U'), ('మ్మి', '|'), ('తూ', 'U'), ('టు', '|'), ('లున్', 'U'), ('జ', '|'), ('గ', '|'), ('డ', '|'), ('పు', '|'), ('బొం', 'U'), ('దు', '|'), ('లున్', 'U'), ('ర', '|'), ('తు', '|'), ('ల', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('విం', 'U'), ('దు', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>సరి నలమేలుమంగకును జక్కనిమీకును మీకుమీకు లో
 నరుదుగ నేకతస్ఫురణ నమ్ముడు వోయితి రొక్కరొక్కరు\న్‌
@@ -2821,32 +2605,29 @@
 గిరపులపుచ్చె మేనఁ బులకింతలు వింతలు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('రి', '|'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కు', '|'), ('ను', '|'), ('జ', 'U'), ('క్క', '|'), ('ని', '|'), ('మీ', 'U'), ('కు', '|'), ('ను', '|'), ('మీ', 'U'), ('కు', '|'), ('మీ', 'U'), ('కు', '|'), ('లో', 'U'), ('న', '|'), ('రు', '|'), ('దు', '|'), ('గ', '|'), ('నే', 'U'), ('క', '|'), ('త', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణ', '|'), ('న', 'U'), ('మ్ము', '|'), ('డు', '|'), ('వో', 'U'), ('యి', '|'), ('తి', '|'), ('రొ', 'U'), ('క్క', '|'), ('రొ', 'U'), ('క్క', '|'), ('రున్', 'U'), ('ఇ', '|'), ('రు', '|'), ('వు', '|'), ('రు', '|'), ('నిం', 'U'), ('క', '|'), ('నే', 'U'), ('టి', '|'), ('తె', '|'), ('లి', '|'), ('వె', 'U'), ('క్క', '|'), ('డి', '|'), ('నే', 'U'), ('రు', '|'), ('పు', '|'), ('లే', 'U'), ('టి', '|'), ('సై', 'U'), ('ర', '|'), ('ణల్', 'U'), ('గి', '|'), ('ర', '|'), ('పు', '|'), ('ల', '|'), ('పు', 'U'), ('చ్చె', '|'), ('మే', 'U'), ('న', '|'), ('బు', '|'), ('ల', '|'), ('కిం', 'U'), ('త', '|'), ('లు', '|'), ('విం', 'U'), ('త', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>ఒకయలమేలుమంగ మహిమోన్నతిఁ జిక్కితి యోగలీలచేఁ
 జికురభరంబు జాఱ నలసె\న్‌ నిఖిలోన్నతుఁ డంచు నీకృప\న్‌
@@ -2854,32 +2635,29 @@
 మొకముల నిగ్గు దేఱఁగను ముచ్చటలాడుచు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('క', '|'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('మ', '|'), ('హి', '|'), ('మో', 'U'), ('న్న', '|'), ('తి', '|'), ('జి', 'U'), ('క్కి', '|'), ('తి', '|'), ('యో', 'U'), ('గ', '|'), ('లీ', 'U'), ('ల', '|'), ('చే', 'U'), ('జి', '|'), ('కు', '|'), ('ర', '|'), ('భ', '|'), ('రం', 'U'), ('బు', '|'), ('జా', 'U'), ('ఱ', '|'), ('న', '|'), ('ల', '|'), ('సెన్', 'U'), ('ని', '|'), ('ఖి', '|'), ('లో', 'U'), ('న్న', '|'), ('తు', '|'), ('డం', 'U'), ('చు', '|'), ('నీ', 'U'), ('కృ', '|'), ('పన్', 'U'), ('బ్ర', '|'), ('క', '|'), ('ట', '|'), ('ము', '|'), ('లై', 'U'), ('న', '|'), ('కాం', 'U'), ('త', '|'), ('యిం', 'U'), ('తు', '|'), ('రు', '|'), ('శీ', 'U'), ('త', '|'), ('ల', 'U'), ('క్రి', '|'), ('యన్', 'U'), ('మొ', '|'), ('క', '|'), ('ము', '|'), ('ల', '|'), ('ని', 'U'), ('గ్గు', '|'), ('దే', 'U'), ('ఱ', '|'), ('గ', '|'), ('ను', '|'), ('ము', 'U'), ('చ్చ', '|'), ('ట', '|'), ('లా', 'U'), ('డు', '|'), ('చు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
         <is>
           <t>నగ వలమేలుమంగకును నాటవవల్కలు నీకు మాటల\న్‌
 బగ డలమేలుమంగకును బచ్చెనగర్వము నీకుఁ జూపుల\న్‌
@@ -2887,32 +2665,29 @@
 మిగిలిన మోహసంపదలు మీరును మీరును వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కు', '|'), ('ను', '|'), ('నా', 'U'), ('ట', '|'), ('వ', '|'), ('వ', 'U'), ('ల్క', '|'), ('లు', '|'), ('నీ', 'U'), ('కు', '|'), ('మా', 'U'), ('ట', '|'), ('లన్', 'U'), ('బ', '|'), ('గ', '|'), ('డ', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కు', '|'), ('ను', '|'), ('బ', 'U'), ('చ్చె', '|'), ('న', '|'), ('గ', 'U'), ('ర్వ', '|'), ('ము', '|'), ('నీ', 'U'), ('కు', '|'), ('జూ', 'U'), ('పు', '|'), ('లన్', 'U'), ('జి', '|'), ('గి', '|'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కు', '|'), ('ను', 'U'), ('శ్రీ', 'U'), ('మ', '|'), ('ల', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('నీ', 'U'), ('కు', '|'), ('ని', 'U'), ('ట్ల', '|'), ('పో', 'U'), ('మి', '|'), ('గి', '|'), ('లి', '|'), ('న', '|'), ('మో', 'U'), ('హ', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('లు', '|'), ('మీ', 'U'), ('రు', '|'), ('ను', '|'), ('మీ', 'U'), ('రు', '|'), ('ను', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>ఈయలమేలుమంగ మణిహేమకటీరశనాకలాపముల్‌
 రాయఁగఁ రాలుఁ బైఁడిపొడి రంతులు మీఱినవజ్రపుంబొడి\న్‌
@@ -2920,32 +2695,29 @@
 నీయనుఁగుంగవుంగిటికి నిచ్చె వసంతము వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('ఈ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('మ', '|'), ('ణి', '|'), ('హే', 'U'), ('మ', '|'), ('క', '|'), ('టీ', 'U'), ('ర', '|'), ('శ', '|'), ('నా', 'U'), ('క', '|'), ('లా', 'U'), ('ప', '|'), ('ముల్', 'U'), ('రా', 'U'), ('య', '|'), ('గ', '|'), ('రా', 'U'), ('లు', '|'), ('బై', 'U'), ('డి', '|'), ('పొ', '|'), ('డి', '|'), ('రం', 'U'), ('తు', '|'), ('లు', '|'), ('మీ', 'U'), ('ఱి', '|'), ('న', '|'), ('వ', 'U'), ('జ్ర', '|'), ('పుం', 'U'), ('బొ', '|'), ('డిన్', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('రా', 'U'), ('రు', '|'), ('కొ', 'U'), ('ప్పు', '|'), ('న', 'U'), ('బ్ర', '|'), ('సి', 'U'), ('ద్ధి', '|'), ('గ', '|'), ('రా', 'U'), ('లె', '|'), ('డు', '|'), ('క', 'U'), ('మ్మ', '|'), ('పు', 'U'), ('ప్పొ', '|'), ('డిన్', 'U'), ('నీ', 'U'), ('య', '|'), ('ను', '|'), ('గుం', 'U'), ('గ', '|'), ('వుం', 'U'), ('గి', '|'), ('టి', '|'), ('కి', '|'), ('ని', 'U'), ('చ్చె', '|'), ('వ', '|'), ('సం', 'U'), ('త', '|'), ('ము', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
         <is>
           <t>ఓయలమేలుమంగ యిది యొక్కటిపో జగదేక భర్తకు\న్‌
 బాయనినీకునుం గడమ ప్రాణము ప్రాణము నేకమాయె నీ
@@ -2953,32 +2725,29 @@
 బ్రాయము నిండుజవ్వనముఁ బల్మఱు మెత్తురు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('ఓ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('యి', '|'), ('ది', '|'), ('యొ', 'U'), ('క్క', '|'), ('టి', '|'), ('పో', 'U'), ('జ', '|'), ('గ', '|'), ('దే', 'U'), ('క', '|'), ('భ', 'U'), ('ర్త', '|'), ('కున్', 'U'), ('బా', 'U'), ('య', '|'), ('ని', '|'), ('నీ', 'U'), ('కు', '|'), ('నుం', 'U'), ('గ', '|'), ('డ', '|'), ('మ', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('ము', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('నే', 'U'), ('క', '|'), ('మా', 'U'), ('యె', '|'), ('నీ', 'U'), ('కా', 'U'), ('య', '|'), ('ము', '|'), ('కా', 'U'), ('య', '|'), ('ముం', 'U'), ('గ', '|'), ('ల', '|'), ('సె', '|'), ('గౌ', 'U'), ('గి', '|'), ('ట', '|'), ('కాం', 'U'), ('క్ష', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('నీ', 'U'), ('స', '|'), ('తిన్', 'U'), ('బ్రా', 'U'), ('య', '|'), ('ము', '|'), ('నిం', 'U'), ('డు', '|'), ('జ', 'U'), ('వ్వ', '|'), ('న', '|'), ('ము', '|'), ('బ', 'U'), ('ల్మ', '|'), ('ఱు', '|'), ('మె', 'U'), ('త్తు', '|'), ('రు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>ఇతఁ డలమేలుమంగ విభుఁ డీతఁడెవో కలశాబ్ధికన్యకు\న్‌
 సతతముఁ జిత్త మిచ్చిన రసజ్ఞుఁడు ప్రాజ్ఞుఁడు సర్వవైభవో
@@ -2986,32 +2755,29 @@
 న్నతివలు మెచ్చి మెచ్చి కొనియాడుదు రెప్పుడు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('త', '|'), ('డ', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('వి', '|'), ('భు', '|'), ('డీ', 'U'), ('త', '|'), ('డె', '|'), ('వో', 'U'), ('క', '|'), ('ల', '|'), ('శా', 'U'), ('బ్ధి', '|'), ('క', 'U'), ('న్య', '|'), ('కున్', 'U'), ('స', '|'), ('త', '|'), ('త', '|'), ('ము', '|'), ('జి', 'U'), ('త్త', '|'), ('మి', 'U'), ('చ్చి', '|'), ('న', '|'), ('ర', '|'), ('స', 'U'), ('జ్ఞు', '|'), ('డు', 'U'), ('ప్రా', 'U'), ('జ్ఞు', '|'), ('డు', '|'), ('స', 'U'), ('ర్వ', '|'), ('వై', 'U'), ('భ', '|'), ('వో', 'U'), ('న్న', '|'), ('తు', '|'), ('డు', '|'), ('ర', '|'), ('మా', 'U'), ('స', '|'), ('తీ', 'U'), ('ప్రి', '|'), ('యు', '|'), ('డు', '|'), ('నం', 'U'), ('ద', '|'), ('క', '|'), ('శా', 'U'), ('ర్ఙ్గ', '|'), ('ధ', '|'), ('రుం', 'U'), ('డ', '|'), ('టం', 'U'), ('చు', '|'), ('ని', 'U'), ('న్న', '|'), ('తి', '|'), ('వ', '|'), ('లు', '|'), ('మె', 'U'), ('చ్చి', '|'), ('మె', 'U'), ('చ్చి', '|'), ('కొ', '|'), ('ని', '|'), ('యా', 'U'), ('డు', '|'), ('దు', '|'), ('రె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>మాయలమేలుమంగ చలమా యలయించెద వెంతసేసిన\న్‌
 దోయజగంధి నీకు మతితోడనె తక్కిన దల్క నోపు నా
@@ -3019,32 +2785,29 @@
 డీయెడఁ జేయు వేదన లకిన్నియుఁ దోడుగ వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('చ', '|'), ('ల', '|'), ('మా', 'U'), ('య', '|'), ('ల', '|'), ('యిం', 'U'), ('చె', '|'), ('ద', '|'), ('వెం', 'U'), ('త', '|'), ('సే', 'U'), ('సి', '|'), ('నన్', 'U'), ('దో', 'U'), ('య', '|'), ('జ', '|'), ('గం', 'U'), ('ధి', '|'), ('నీ', 'U'), ('కు', '|'), ('మ', '|'), ('తి', '|'), ('తో', 'U'), ('డ', '|'), ('నె', '|'), ('త', 'U'), ('క్కి', '|'), ('న', '|'), ('ద', 'U'), ('ల్క', '|'), ('నో', 'U'), ('పు', '|'), ('నా', 'U'), ('చే', 'U'), ('య', '|'), ('గ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('చే', 'U'), ('త', '|'), ('లి', '|'), ('వె', '|'), ('చే', 'U'), ('యు', '|'), ('దు', '|'), ('గా', 'U'), ('క', '|'), ('ల', '|'), ('తాం', 'U'), ('త', '|'), ('సా', 'U'), ('య', '|'), ('కుం', 'U'), ('డీ', 'U'), ('యె', '|'), ('డ', '|'), ('జే', 'U'), ('యు', '|'), ('వే', 'U'), ('ద', '|'), ('న', '|'), ('ల', '|'), ('కి', 'U'), ('న్ని', '|'), ('యు', '|'), ('దో', 'U'), ('డు', '|'), ('గ', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>మతి నలమేలుమంగకును మంతనమాడెడు నీవిలాసముల్‌
 తతిఁ దలపోఁతలై సురతతాండవసంభ్రమలీలలై సమం
@@ -3052,32 +2815,29 @@
 వితతమనోజవిద్యల నవీనము లైనవి వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('తి', '|'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కు', '|'), ('ను', '|'), ('మం', 'U'), ('త', '|'), ('న', '|'), ('మా', 'U'), ('డె', '|'), ('డు', '|'), ('నీ', 'U'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('ముల్', 'U'), ('త', '|'), ('తి', '|'), ('ద', '|'), ('ల', '|'), ('పో', 'U'), ('త', '|'), ('లై', 'U'), ('సు', '|'), ('ర', '|'), ('త', '|'), ('తాం', 'U'), ('డ', '|'), ('వ', '|'), ('సం', 'U'), ('భ్ర', '|'), ('మ', '|'), ('లీ', 'U'), ('ల', '|'), ('లై', 'U'), ('స', '|'), ('మం', 'U'), ('చి', '|'), ('త', '|'), ('స', '|'), ('ర', '|'), ('స', 'U'), ('ప్ర', '|'), ('సం', 'U'), ('గ', '|'), ('ము', '|'), ('లు', '|'), ('చి', 'U'), ('మ్మ', '|'), ('ని', '|'), ('దొం', 'U'), ('త', '|'), ('ర', '|'), ('లై', 'U'), ('ప్రి', '|'), ('యం', 'U'), ('బు', '|'), ('లై', 'U'), ('వి', '|'), ('త', '|'), ('త', '|'), ('మ', '|'), ('నో', 'U'), ('జ', '|'), ('వి', 'U'), ('ద్య', '|'), ('ల', '|'), ('న', '|'), ('వీ', 'U'), ('న', '|'), ('ము', '|'), ('లై', 'U'), ('న', '|'), ('వి', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>కసిగలచూపు చిమ్ముదును కంకణహస్తము సాఁచి కుంచెచే
 విసరకు రమ్మనంగ వడి వెన్నెలమోమున ముద్దుగుల్కెడి\న్‌
@@ -3085,32 +2845,29 @@
 ముసిముసినవ్వు నవ్వుదురు ముచ్చటలాడుచు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('సి', '|'), ('గ', '|'), ('ల', '|'), ('చూ', 'U'), ('పు', '|'), ('చి', 'U'), ('మ్ము', '|'), ('దు', '|'), ('ను', '|'), ('కం', 'U'), ('క', '|'), ('ణ', '|'), ('హ', 'U'), ('స్త', '|'), ('ము', '|'), ('సా', 'U'), ('చి', '|'), ('కుం', 'U'), ('చె', '|'), ('చే', 'U'), ('వి', '|'), ('స', '|'), ('ర', '|'), ('కు', '|'), ('ర', 'U'), ('మ్మ', '|'), ('నం', 'U'), ('గ', '|'), ('వ', '|'), ('డి', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('మో', 'U'), ('ము', '|'), ('న', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గు', 'U'), ('ల్కె', '|'), ('డిన్', 'U'), ('ర', '|'), ('సి', '|'), ('కు', '|'), ('న', '|'), ('కం', 'U'), ('చు', '|'), ('జ', 'U'), ('క్క', '|'), ('ని', '|'), ('పు', '|'), ('రం', 'U'), ('ధ్రి', '|'), ('ని', '|'), ('నీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('తో', 'U'), ('ము', '|'), ('సి', '|'), ('ము', '|'), ('సి', '|'), ('న', 'U'), ('వ్వు', '|'), ('న', 'U'), ('వ్వు', '|'), ('దు', '|'), ('రు', '|'), ('ము', 'U'), ('చ్చ', '|'), ('ట', '|'), ('లా', 'U'), ('డు', '|'), ('చు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>నాఁడలమేలుమంగ జననంబుకై కలశాబ్ధిఁద్రచ్చియీ
 మూఁడుజగంబులందును బ్రమోదము నించితి వట్ల నుండుచో
@@ -3118,32 +2875,29 @@
 నేఁ డిఁక నేమిటం గడమ నీకృప వారికి వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('డ', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('జ', '|'), ('న', '|'), ('నం', 'U'), ('బు', '|'), ('కై', 'U'), ('క', '|'), ('ల', '|'), ('శా', 'U'), ('బ్ధి', '|'), ('ద్ర', 'U'), ('చ్చి', '|'), ('యీ', 'U'), ('మూ', 'U'), ('డు', '|'), ('జ', '|'), ('గం', 'U'), ('బు', '|'), ('లం', 'U'), ('దు', '|'), ('ను', 'U'), ('బ్ర', '|'), ('మో', 'U'), ('ద', '|'), ('ము', '|'), ('నిం', 'U'), ('చి', '|'), ('తి', '|'), ('వ', 'U'), ('ట్ల', '|'), ('నుం', 'U'), ('డు', '|'), ('చో', 'U'), ('నా', 'U'), ('డు', '|'), ('ద', '|'), ('నం', 'U'), ('పు', '|'), ('బృం', 'U'), ('ద', '|'), ('ము', '|'), ('ద', '|'), ('యం', 'U'), ('బు', '|'), ('ను', '|'), ('బొం', 'U'), ('ద', '|'), ('గ', '|'), ('ని', 'U'), ('త్య', '|'), ('సం', 'U'), ('ప', '|'), ('దల్', 'U'), ('నే', 'U'), ('డి', '|'), ('క', '|'), ('నే', 'U'), ('మి', '|'), ('టం', 'U'), ('గ', '|'), ('డ', '|'), ('మ', '|'), ('నీ', 'U'), ('కృ', '|'), ('ప', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>ఈతరుణీమణీ విభునియిచ్చకుఁ జాలుతలంప నీయనా
 యీతని మోహినీగజము యీవని కాయలమేలుమంగ నేఁ
@@ -3151,32 +2905,29 @@
 యీ తెలిమిం చటంచు నుతియింతురు నీసతి వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('ఈ', 'U'), ('త', '|'), ('రు', '|'), ('ణీ', 'U'), ('మ', '|'), ('ణీ', 'U'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('యి', 'U'), ('చ్చ', '|'), ('కు', '|'), ('జా', 'U'), ('లు', '|'), ('త', '|'), ('లం', 'U'), ('ప', '|'), ('నీ', 'U'), ('య', '|'), ('నా', 'U'), ('యీ', 'U'), ('త', '|'), ('ని', '|'), ('మో', 'U'), ('హి', '|'), ('నీ', 'U'), ('గ', '|'), ('జ', '|'), ('ము', '|'), ('యీ', 'U'), ('వ', '|'), ('ని', '|'), ('కా', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నే', 'U'), ('డీ', 'U'), ('త', '|'), ('ను', '|'), ('వ', 'U'), ('ల్లి', '|'), ('చ', 'U'), ('క్క', '|'), ('ద', '|'), ('న', '|'), ('ము', '|'), ('చె', '|'), ('లు', '|'), ('వం', 'U'), ('బు', '|'), ('చా', 'U'), ('ల', '|'), ('దా', 'U'), ('యీ', 'U'), ('తె', '|'), ('లి', '|'), ('మిం', 'U'), ('చ', '|'), ('టం', 'U'), ('చు', '|'), ('ను', '|'), ('తి', '|'), ('యిం', 'U'), ('తు', '|'), ('రు', '|'), ('నీ', 'U'), ('స', '|'), ('తి', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>మణుల వెలుంగు దీపవనమాలికలై పొగడొందఁ గంకణ
 క్వణనము మేఖలావళులఘంటలు శ్రీయలమేలుమంగకు\న్‌
@@ -3184,32 +2935,29 @@
 ప్రణుతనుతప్రభావముల భాగ్యము లైనవి వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ణు', '|'), ('ల', '|'), ('వె', '|'), ('లుం', 'U'), ('గు', '|'), ('దీ', 'U'), ('ప', '|'), ('వ', '|'), ('న', '|'), ('మా', 'U'), ('లి', '|'), ('క', '|'), ('లై', 'U'), ('పొ', '|'), ('గ', '|'), ('డొం', 'U'), ('ద', '|'), ('గం', 'U'), ('క', '|'), ('ణ', 'U'), ('క్వ', '|'), ('ణ', '|'), ('న', '|'), ('ము', '|'), ('మే', 'U'), ('ఖ', '|'), ('లా', 'U'), ('వ', '|'), ('ళు', '|'), ('ల', '|'), ('ఘం', 'U'), ('ట', '|'), ('లు', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('బ్ర', '|'), ('ణ', '|'), ('య', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('కు', '|'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('నీ', 'U'), ('కొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('పూ', 'U'), ('జ', '|'), ('కై', 'U'), ('ప్ర', '|'), ('ణు', '|'), ('త', '|'), ('ను', '|'), ('త', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('ల', '|'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('లై', 'U'), ('న', '|'), ('వి', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
         <is>
           <t>కదిసిన సేసము తైముల కంఠసరుల్‌ ఘనరత్న కంకణాం
 గదరశనా ... ... నికాయము శ్రీయలమేలుమంగకు\న్‌
@@ -3217,32 +2965,29 @@
 ముదమగు నీకుఁ గన్నుఁగవ ముందఱ నెప్పుడు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ది', '|'), ('సి', '|'), ('న', '|'), ('సే', 'U'), ('స', '|'), ('ము', '|'), ('తై', 'U'), ('ము', '|'), ('ల', '|'), ('కం', 'U'), ('ఠ', '|'), ('స', '|'), ('రుల్', 'U'), ('ఘ', '|'), ('న', '|'), ('ర', 'U'), ('త్న', '|'), ('కం', 'U'), ('క', '|'), ('ణాం', 'U'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('శ', '|'), ('నా', 'U'), ('ని', '|'), ('కా', 'U'), ('య', '|'), ('ము', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('బొ', '|'), ('ది', '|'), ('వి', '|'), ('వి', '|'), ('వా', 'U'), ('హ', '|'), ('వే', 'U'), ('ళ', '|'), ('ది', '|'), ('గ', '|'), ('బో', 'U'), ('సి', '|'), ('న', '|'), ('ము', 'U'), ('త్తె', '|'), ('పు', 'U'), ('బ్రా', 'U'), ('ల', '|'), ('నం', 'U'), ('ద', '|'), ('మై', 'U'), ('ము', '|'), ('ద', '|'), ('మ', '|'), ('గు', '|'), ('నీ', 'U'), ('కు', '|'), ('గ', 'U'), ('న్ను', '|'), ('గ', '|'), ('వ', '|'), ('ముం', 'U'), ('ద', '|'), ('ఱ', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>నిగిడి పయోధిఁ ద్రచ్చు నెడ నిర్జరసంఘము నిక్కి చూడఁగా
 ధగధగ యంచు దిక్కుల నుదగ్రతటిల్లత లుల్లసిల్లఁగాఁ
@@ -3250,32 +2995,29 @@
 మగువ యటంచు మెత్తురు సమస్తమునీంద్రులు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('గి', '|'), ('డి', '|'), ('ప', '|'), ('యో', 'U'), ('ధి', '|'), ('ద్ర', 'U'), ('చ్చు', '|'), ('నె', '|'), ('డ', '|'), ('ని', 'U'), ('ర్జ', '|'), ('ర', '|'), ('సం', 'U'), ('ఘ', '|'), ('ము', '|'), ('ని', 'U'), ('క్కి', '|'), ('చూ', 'U'), ('డ', '|'), ('గా', 'U'), ('ధ', '|'), ('గ', '|'), ('ధ', '|'), ('గ', '|'), ('యం', 'U'), ('చు', '|'), ('ది', 'U'), ('క్కు', '|'), ('ల', '|'), ('ను', '|'), ('ద', 'U'), ('గ్ర', '|'), ('త', '|'), ('టి', 'U'), ('ల్ల', '|'), ('త', '|'), ('లు', 'U'), ('ల్ల', '|'), ('సి', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('ద', '|'), ('గ', '|'), ('ను', '|'), ('ద', '|'), ('యిం', 'U'), ('చి', '|'), ('మిం', 'U'), ('చి', '|'), ('న', '|'), ('సు', '|'), ('ధా', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('మె', 'U'), ('త్తు', '|'), ('రు', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్రు', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
         <is>
           <t>నడవకుమమ్మ పాదనలినంబులు గందెడి, మాట బెట్టుగా
 నొడువకుమమ్మ, చెక్కునును నొక్కులతో నలమేలుమంగ నీ
@@ -3283,32 +3025,29 @@
 బడఁతులు మేలమాడుదురు పల్కుల తేనెల వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('డ', '|'), ('వ', '|'), ('కు', '|'), ('మ', 'U'), ('మ్మ', '|'), ('పా', 'U'), ('ద', '|'), ('న', '|'), ('లి', '|'), ('నం', 'U'), ('బు', '|'), ('లు', '|'), ('గం', 'U'), ('దె', '|'), ('డి', '|'), ('మా', 'U'), ('ట', '|'), ('బె', 'U'), ('ట్టు', '|'), ('గా', 'U'), ('నొ', '|'), ('డు', '|'), ('వ', '|'), ('కు', '|'), ('మ', 'U'), ('మ్మ', '|'), ('చె', 'U'), ('క్కు', '|'), ('ను', '|'), ('ను', '|'), ('నొ', 'U'), ('క్కు', '|'), ('ల', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('వె', '|'), ('డ', '|'), ('న', '|'), ('గ', '|'), ('కీ', 'U'), ('మొ', '|'), ('గం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('లా', 'U'), ('యె', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('నీ', 'U'), ('స', '|'), ('తిన్', 'U'), ('బ', '|'), ('డ', '|'), ('తు', '|'), ('లు', '|'), ('మే', 'U'), ('ల', '|'), ('మా', 'U'), ('డు', '|'), ('దు', '|'), ('రు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('ల', '|'), ('తే', 'U'), ('నె', '|'), ('ల', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>బూతలబండ్లనే వలపుఁబుక్కిట నించితి వాఁడిగోళ్లనే
 ఘాతలు గాఁగఁ జించితివి కాయముపై నలమేలుమంగ నీ
@@ -3316,32 +3055,29 @@
 జాతుదు రోలి నీదు పరిచారిక కాంతలు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('బూ', 'U'), ('త', '|'), ('ల', '|'), ('బం', 'U'), ('డ్ల', '|'), ('నే', 'U'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('బు', 'U'), ('క్కి', '|'), ('ట', '|'), ('నిం', 'U'), ('చి', '|'), ('తి', '|'), ('వా', 'U'), ('డి', '|'), ('గో', 'U'), ('ళ్ల', '|'), ('నే', 'U'), ('ఘా', 'U'), ('త', '|'), ('లు', '|'), ('గా', 'U'), ('గ', '|'), ('జిం', 'U'), ('చి', '|'), ('తి', '|'), ('వి', '|'), ('కా', 'U'), ('య', '|'), ('ము', '|'), ('పై', 'U'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('చే', 'U'), ('తి', '|'), ('దె', '|'), ('యం', 'U'), ('చు', '|'), ('నీ', 'U'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('చెం', 'U'), ('త', '|'), ('ల', '|'), ('ద', 'U'), ('ట్ట', '|'), ('పు', '|'), ('నుం', 'U'), ('గు', '|'), ('గ', 'U'), ('స్తు', '|'), ('రిన్', 'U'), ('జా', 'U'), ('తు', '|'), ('దు', '|'), ('రో', 'U'), ('లి', '|'), ('నీ', 'U'), ('దు', '|'), ('ప', '|'), ('రి', '|'), ('చా', 'U'), ('రి', '|'), ('క', '|'), ('కాం', 'U'), ('త', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
         <is>
           <t>పచ్చల సందిదండలును బాహుపురుల్‌ మణినూపురంబులు\న్‌
 మచ్చరికంబులుం బసిఁడిమట్టెలమ్రోతలుఁ బెల్లు మ్రోయఁగా
@@ -3349,32 +3085,29 @@
 ముచ్చట దీర్చు నొక్కపరి ముందఱ నిల్చిన వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('ప', 'U'), ('చ్చ', '|'), ('ల', '|'), ('సం', 'U'), ('ది', '|'), ('దం', 'U'), ('డ', '|'), ('లు', '|'), ('ను', '|'), ('బా', 'U'), ('హు', '|'), ('పు', '|'), ('రుల్', 'U'), ('మ', '|'), ('ణి', '|'), ('నూ', 'U'), ('పు', '|'), ('రం', 'U'), ('బు', '|'), ('లున్', 'U'), ('మ', 'U'), ('చ్చ', '|'), ('రి', '|'), ('కం', 'U'), ('బు', '|'), ('లుం', 'U'), ('బ', '|'), ('సి', '|'), ('డి', '|'), ('మ', 'U'), ('ట్టె', '|'), ('ల', '|'), ('మ్రో', 'U'), ('త', '|'), ('లు', '|'), ('బె', 'U'), ('ల్లు', '|'), ('మ్రో', 'U'), ('య', '|'), ('గా', 'U'), ('నె', 'U'), ('చ్చె', '|'), ('లు', '|'), ('లో', 'U'), ('లి', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('ద', '|'), ('రు', '|'), ('ణీ', 'U'), ('మ', '|'), ('ణి', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('ము', 'U'), ('చ్చ', '|'), ('ట', '|'), ('దీ', 'U'), ('ర్చు', '|'), ('నొ', 'U'), ('క్క', '|'), ('ప', '|'), ('రి', '|'), ('ముం', 'U'), ('ద', '|'), ('ఱ', '|'), ('ని', 'U'), ('ల్చి', '|'), ('న', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>ఏచిన పాతకంబులకు నిన్నిటికి న్నిరవైనవాఁడ నేఁ
 గాచినకష్టవృత్తి కరిగాఁపనె యోయలమేలుమంగ నీ
@@ -3382,32 +3115,29 @@
 బూచిన వాక్ప్రసూనములఁ బూజలు సేసెద వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('చి', '|'), ('న', '|'), ('పా', 'U'), ('త', '|'), ('కం', 'U'), ('బు', '|'), ('ల', '|'), ('కు', '|'), ('ని', 'U'), ('న్ని', '|'), ('టి', '|'), ('కి', 'U'), ('న్ని', '|'), ('ర', '|'), ('వై', 'U'), ('న', '|'), ('వా', 'U'), ('డ', '|'), ('నే', 'U'), ('గా', 'U'), ('చి', '|'), ('న', '|'), ('క', 'U'), ('ష్ట', '|'), ('వృ', 'U'), ('త్తి', '|'), ('క', '|'), ('రి', '|'), ('గా', 'U'), ('ప', '|'), ('నె', '|'), ('యో', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('చూ', 'U'), ('చు', '|'), ('కృ', '|'), ('పా', 'U'), ('ని', '|'), ('రీ', 'U'), ('క్ష', '|'), ('ణ', '|'), ('మె', '|'), ('చూ', 'U'), ('చె', '|'), ('ద', '|'), ('నం', 'U'), ('చు', '|'), ('ను', '|'), ('నీ', 'U'), ('ప్రి', '|'), ('యాం', 'U'), ('గ', '|'), ('నన్', 'U'), ('బూ', 'U'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('క్ప్ర', '|'), ('సూ', 'U'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('బూ', 'U'), ('జ', '|'), ('లు', '|'), ('సే', 'U'), ('సె', '|'), ('ద', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
         <is>
           <t>యోగ్యతలేనికష్టుఁడ నయోగ్యుఁడ నన్నిటఁ జూడ గర్భని
 ర్భాగ్యుఁడ నీకృపామతికిఁ బ్రాప్తుఁడ నోయలమేలుమంగ నా
@@ -3415,32 +3145,29 @@
 భాగ్యవతీ శిరోమణినిఁ బ్రస్తుతిసేసెద వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('యో', 'U'), ('గ్య', '|'), ('త', '|'), ('లే', 'U'), ('ని', '|'), ('క', 'U'), ('ష్టు', '|'), ('డ', '|'), ('న', '|'), ('యో', 'U'), ('గ్యు', '|'), ('డ', '|'), ('న', 'U'), ('న్ని', '|'), ('ట', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', 'U'), ('ర్భ', '|'), ('ని', 'U'), ('ర్భా', 'U'), ('గ్యు', '|'), ('డ', '|'), ('నీ', 'U'), ('కృ', '|'), ('పా', 'U'), ('మ', '|'), ('తి', '|'), ('కి', 'U'), ('బ్రా', 'U'), ('ప్తు', '|'), ('డ', '|'), ('నో', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నా', 'U'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('నీ', 'U'), ('గృ', '|'), ('పా', 'U'), ('క', '|'), ('రు', '|'), ('ణ', 'U'), ('బ్రా', 'U'), ('ప్య', '|'), ('ము', '|'), ('కా', 'U'), ('వు', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('సా', 'U'), ('రె', '|'), ('నీ', 'U'), ('భా', 'U'), ('గ్య', '|'), ('వ', '|'), ('తీ', 'U'), ('శి', '|'), ('రో', 'U'), ('మ', '|'), ('ణి', '|'), ('ని', 'U'), ('బ్ర', 'U'), ('స్తు', '|'), ('తి', '|'), ('సే', 'U'), ('సె', '|'), ('ద', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>తుఱు మఱవీడెఁ బయ్యెదయుఁ దోడనె జాఱె మెఱుంగు ఱెప్పల\న్‌
 బరవశభావ మేర్పడియెఁ బాయక నీ వలమేలుమంగ నీ
@@ -3448,32 +3175,29 @@
 సరగున నీలతాంగి కుపచారము సేతురు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('తు', '|'), ('ఱు', '|'), ('మ', '|'), ('ఱ', '|'), ('వీ', 'U'), ('డె', '|'), ('బ', 'U'), ('య్యె', '|'), ('ద', '|'), ('యు', '|'), ('దో', 'U'), ('డ', '|'), ('నె', '|'), ('జా', 'U'), ('ఱె', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('ఱె', 'U'), ('ప్ప', '|'), ('లన్', 'U'), ('బ', '|'), ('ర', '|'), ('వ', '|'), ('శ', '|'), ('భా', 'U'), ('వ', '|'), ('మే', 'U'), ('ర్ప', '|'), ('డి', '|'), ('యె', '|'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('నీ', 'U'), ('వ', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('వ', '|'), ('రు', '|'), ('ని', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('తో', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('వా', 'U'), ('స', '|'), ('న', '|'), ('మే', 'U'), ('ను', '|'), ('ల', '|'), ('దే', 'U'), ('వ', '|'), ('కా', 'U'), ('మి', '|'), ('నుల్', 'U'), ('స', '|'), ('ర', '|'), ('గు', '|'), ('న', '|'), ('నీ', 'U'), ('ల', '|'), ('తాం', 'U'), ('గి', '|'), ('కు', '|'), ('ప', '|'), ('చా', 'U'), ('ర', '|'), ('ము', '|'), ('సే', 'U'), ('తు', '|'), ('రు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>రాజసలీల నన్నును గరంబునఁ బట్టకు చూప వేల నీ
 తేజము నాకటంచు సుదతీమణి శ్రీయలమేలుమంగ ని
@@ -3481,32 +3205,29 @@
 జాజులకొప్పువీడ సరసంబున వీచును వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('జ', '|'), ('స', '|'), ('లీ', 'U'), ('ల', '|'), ('న', 'U'), ('న్ను', '|'), ('ను', '|'), ('గ', '|'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('బ', 'U'), ('ట్ట', '|'), ('కు', '|'), ('చూ', 'U'), ('ప', '|'), ('వే', 'U'), ('ల', '|'), ('నీ', 'U'), ('తే', 'U'), ('జ', '|'), ('ము', '|'), ('నా', 'U'), ('క', '|'), ('టం', 'U'), ('చు', '|'), ('సు', '|'), ('ద', '|'), ('తీ', 'U'), ('మ', '|'), ('ణి', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('ని', 'U'), ('న్నీ', 'U'), ('జ', '|'), ('గ', '|'), ('దే', 'U'), ('క', '|'), ('నా', 'U'), ('య', '|'), ('కు', '|'), ('ని', '|'), ('నిం', 'U'), ('పొ', '|'), ('ల', '|'), ('యిం', 'U'), ('చు', '|'), ('చు', '|'), ('సా', 'U'), ('రె', '|'), ('సా', 'U'), ('రె', '|'), ('కున్', 'U'), ('జా', 'U'), ('జు', '|'), ('ల', '|'), ('కొ', 'U'), ('ప్పు', '|'), ('వీ', 'U'), ('డ', '|'), ('స', '|'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('వీ', 'U'), ('చు', '|'), ('ను', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>చక్కదనంబు రాశి నునుసానల\న్‌ బట్టినపువ్వుటమ్ములోఁ
 జక్కెర నించి చేసిన రసస్థితి శ్రీయలమేలుమంగ నీ
@@ -3514,32 +3235,29 @@
 వక్కుఁనఁ జేర్పఁగా నలరె నన్నువ కౌఁగిట వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('చ', 'U'), ('క్క', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('రా', 'U'), ('శి', '|'), ('ను', '|'), ('ను', '|'), ('సా', 'U'), ('న', '|'), ('లన్', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('న', '|'), ('పు', 'U'), ('వ్వు', '|'), ('ట', 'U'), ('మ్ము', '|'), ('లో', 'U'), ('జ', 'U'), ('క్కె', '|'), ('ర', '|'), ('నిం', 'U'), ('చి', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('ర', '|'), ('స', 'U'), ('స్థి', '|'), ('తి', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('మ', 'U'), ('క్కు', '|'), ('వ', '|'), ('జి', 'U'), ('క్కి', '|'), ('మా', 'U'), ('త', '|'), ('ల', 'U'), ('భ్ర', '|'), ('మం', 'U'), ('ద', '|'), ('గు', '|'), ('లై', 'U'), ('క', '|'), ('ల', '|'), ('వం', 'U'), ('త', '|'), ('ని', 'U'), ('ట్ల', '|'), ('నీ', 'U'), ('వ', 'U'), ('క్కు', '|'), ('న', '|'), ('జే', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('న', '|'), ('ల', '|'), ('రె', '|'), ('న', 'U'), ('న్ను', '|'), ('వ', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>మానవతీశిరోమణికి మంజులవాణికి మోవితేనియల్‌
 కానిక లిచ్చినాఁడవట కౌఁగిట నాయలమేలుమంగకు\న్‌
@@ -3547,32 +3265,29 @@
 పానుపుమీఁది చేఁత లివి పచ్చితలంపులు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('న', '|'), ('వ', '|'), ('తీ', 'U'), ('శి', '|'), ('రో', 'U'), ('మ', '|'), ('ణి', '|'), ('కి', '|'), ('మం', 'U'), ('జు', '|'), ('ల', '|'), ('వా', 'U'), ('ణి', '|'), ('కి', '|'), ('మో', 'U'), ('వి', '|'), ('తే', 'U'), ('ని', '|'), ('యల్', 'U'), ('కా', 'U'), ('ని', '|'), ('క', '|'), ('లి', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('డ', '|'), ('వ', '|'), ('ట', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('నా', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('మీ', 'U'), ('న', '|'), ('చ', '|'), ('కో', 'U'), ('ర', '|'), ('నే', 'U'), ('త్రి', '|'), ('ని', '|'), ('ను', '|'), ('మె', 'U'), ('చ్చి', '|'), ('మ', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('గౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('పా', 'U'), ('ను', '|'), ('పు', '|'), ('మీ', 'U'), ('ది', '|'), ('చే', 'U'), ('త', '|'), ('లి', '|'), ('వి', '|'), ('ప', 'U'), ('చ్చి', '|'), ('త', '|'), ('లం', 'U'), ('పు', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>ధళధళ మించు కన్నుఁగవ తమ్ముల మిమ్ములఁ జూపు చిమ్మిన\న్‌
 గళవళమందకుండుదురె గ్రక్కున శ్రీయలమేలుమంగకు\న్‌
@@ -3580,32 +3295,29 @@
 కెలపులఁ గొంతకొంత పులకింతలు వింతలు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ళ', '|'), ('ధ', '|'), ('ళ', '|'), ('మిం', 'U'), ('చు', '|'), ('క', 'U'), ('న్ను', '|'), ('గ', '|'), ('వ', '|'), ('త', 'U'), ('మ్ము', '|'), ('ల', '|'), ('మి', 'U'), ('మ్ము', '|'), ('ల', '|'), ('జూ', 'U'), ('పు', '|'), ('చి', 'U'), ('మ్మి', '|'), ('నన్', 'U'), ('గ', '|'), ('ళ', '|'), ('వ', '|'), ('ళ', '|'), ('మం', 'U'), ('ద', '|'), ('కుం', 'U'), ('డు', '|'), ('దు', '|'), ('రె', 'U'), ('గ్ర', 'U'), ('క్కు', '|'), ('న', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('స', '|'), ('ళు', '|'), ('వు', '|'), ('ల', '|'), ('న', 'U'), ('వ్వు', '|'), ('గొం', 'U'), ('త', '|'), ('ను', '|'), ('ను', '|'), ('సో', 'U'), ('న', '|'), ('ల', '|'), ('గ', 'U'), ('ర్వ', '|'), ('ము', '|'), ('గొం', 'U'), ('త', '|'), ('న', 'U'), ('వ్వు', '|'), ('గా', 'U'), ('కె', '|'), ('ల', '|'), ('పు', '|'), ('ల', '|'), ('గొం', 'U'), ('త', '|'), ('కొం', 'U'), ('త', '|'), ('పు', '|'), ('ల', '|'), ('కిం', 'U'), ('త', '|'), ('లు', '|'), ('విం', 'U'), ('త', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
         <is>
           <t>దర్పక రాజ్యసంపదలు తన్మయకోటులు రాగిలోకసం
 తర్పణముల్‌ లతాధరసుధాపరిధానము లాననవ్రతుల్‌
@@ -3613,32 +3325,29 @@
 మార్పడు దేహసంగతుల మర్మిపుఁజేతలు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('ద', 'U'), ('ర్ప', '|'), ('క', '|'), ('రా', 'U'), ('జ్య', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('లు', '|'), ('త', 'U'), ('న్మ', '|'), ('య', '|'), ('కో', 'U'), ('టు', '|'), ('లు', '|'), ('రా', 'U'), ('గి', '|'), ('లో', 'U'), ('క', '|'), ('సం', 'U'), ('త', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('ముల్', 'U'), ('ల', '|'), ('తా', 'U'), ('ధ', '|'), ('ర', '|'), ('సు', '|'), ('ధా', 'U'), ('ప', '|'), ('రి', '|'), ('ధా', 'U'), ('న', '|'), ('ము', '|'), ('లా', 'U'), ('న', '|'), ('న', 'U'), ('వ్ర', '|'), ('తుల్', 'U'), ('క', 'U'), ('ర్పు', '|'), ('ర', '|'), ('గం', 'U'), ('ధ', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('లు', 'U'), ('గ్ర', 'U'), ('క్కు', '|'), ('న', 'U'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('మా', 'U'), ('ర్ప', '|'), ('డు', '|'), ('దే', 'U'), ('హ', '|'), ('సం', 'U'), ('గ', '|'), ('తు', '|'), ('ల', '|'), ('మ', '|'), ('ర్మి', '|'), ('పు', '|'), ('జే', 'U'), ('త', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>అంబరమెల్లఁ జంద్రమయ మైనటులామదనాంకముల్‌ మెయి\న్‌
 బంబిన నేడ వంచు సిరి పల్కిన నయ్యలమేలుమంగ పా
@@ -3646,32 +3355,29 @@
 నెంబళమాయె నెవ్వరికిఁ జెల్లవు రంతులు వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('బ', '|'), ('ర', '|'), ('మె', 'U'), ('ల్ల', '|'), ('జం', 'U'), ('ద్ర', '|'), ('మ', '|'), ('య', '|'), ('మై', 'U'), ('న', '|'), ('టు', '|'), ('లా', 'U'), ('మ', '|'), ('ద', '|'), ('నాం', 'U'), ('క', '|'), ('ముల్', 'U'), ('మె', '|'), ('యిన్', 'U'), ('బం', 'U'), ('బి', '|'), ('న', '|'), ('నే', 'U'), ('డ', '|'), ('వం', 'U'), ('చు', '|'), ('సి', '|'), ('రి', '|'), ('ప', 'U'), ('ల్కి', '|'), ('న', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('పా', 'U'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('యా', 'U'), ('న', '|'), ('వె', 'U'), ('ట్టి', '|'), ('తి', '|'), ('వి', '|'), ('త', 'U'), ('మ్మి', '|'), ('యి', '|'), ('గు', 'U'), ('ళ్ల', '|'), ('ని', '|'), ('నీ', 'U'), ('కు', '|'), ('బొం', 'U'), ('కు', '|'), ('లే', 'U'), ('నెం', 'U'), ('బ', '|'), ('ళ', '|'), ('మా', 'U'), ('యె', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', '|'), ('జె', 'U'), ('ల్ల', '|'), ('వు', '|'), ('రం', 'U'), ('తు', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
         <is>
           <t>చెఱఁగులు చూపి క్రొవ్విరులు చిందెడు తేనెలు నాల్గువంకల\న్‌
 వఱదలువాఱె ఘర్మములు వాహినులై యలమేలుమంగతోఁ
@@ -3679,32 +3385,29 @@
 దెఱ దిగనేసి వేడుకలు తెప్పలఁ దేలఁగ వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('ఱ', '|'), ('గు', '|'), ('లు', '|'), ('చూ', 'U'), ('పి', 'U'), ('క్రొ', 'U'), ('వ్వి', '|'), ('రు', '|'), ('లు', '|'), ('చిం', 'U'), ('దె', '|'), ('డు', '|'), ('తే', 'U'), ('నె', '|'), ('లు', '|'), ('నా', 'U'), ('ల్గు', '|'), ('వం', 'U'), ('క', '|'), ('లన్', 'U'), ('వ', '|'), ('ఱ', '|'), ('ద', '|'), ('లు', '|'), ('వా', 'U'), ('ఱె', '|'), ('ఘ', '|'), ('ర్మ', '|'), ('ము', '|'), ('లు', '|'), ('వా', 'U'), ('హి', '|'), ('ను', '|'), ('లై', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('తో', 'U'), ('గ', '|'), ('ఱ', '|'), ('గు', '|'), ('చు', '|'), ('నీ', 'U'), ('వు', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('సు', '|'), ('ఖ', 'U'), ('స్థి', '|'), ('తి', '|'), ('గూ', 'U'), ('డు', '|'), ('చు', '|'), ('బం', 'U'), ('ధు', '|'), ('సం', 'U'), ('గ', '|'), ('తిన్', 'U'), ('దె', '|'), ('ఱ', '|'), ('ది', '|'), ('గ', '|'), ('నే', 'U'), ('సి', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('లు', '|'), ('తె', 'U'), ('ప్ప', '|'), ('ల', '|'), ('దే', 'U'), ('ల', '|'), ('గ', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>వాలికనేత్రపద్మములు వంచినయావదనంబు పద్మినీ
 పాల జనింపనందుననె పద్మినియై యలమేలుమంగ గో
@@ -3712,32 +3415,29 @@
 చాలునిఁ జేసె పుష్పశరశాస్త్రవిదగ్ధుని వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('లి', '|'), ('క', '|'), ('నే', 'U'), ('త్ర', '|'), ('ప', 'U'), ('ద్మ', '|'), ('ము', '|'), ('లు', '|'), ('వం', 'U'), ('చి', '|'), ('న', '|'), ('యా', 'U'), ('వ', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('ప', 'U'), ('ద్మి', '|'), ('నీ', 'U'), ('పా', 'U'), ('ల', '|'), ('జ', '|'), ('నిం', 'U'), ('ప', '|'), ('నం', 'U'), ('దు', '|'), ('న', '|'), ('నె', '|'), ('ప', 'U'), ('ద్మి', '|'), ('ని', '|'), ('యై', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('క', '|'), ('చ', 'U'), ('క్ర', '|'), ('వ', 'U'), ('ర్తి', '|'), ('ని', '|'), ('ను', '|'), ('బా', 'U'), ('య', '|'), ('ని', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('భో', 'U'), ('గ', '|'), ('లీ', 'U'), ('ల', '|'), ('బాం', 'U'), ('చా', 'U'), ('లు', '|'), ('ని', '|'), ('జే', 'U'), ('సె', '|'), ('పు', 'U'), ('ష్ప', '|'), ('శ', '|'), ('ర', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('వి', '|'), ('ద', 'U'), ('గ్ధు', '|'), ('ని', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>అమ్మకుఁ దాళ్లపాకఘనుఁ డన్నఁడు పద్యశతంబుఁ జెప్పెఁగో
 కొమ్మని వాక్ప్రసూనములఁ గూరిమితో నలమేలుమంగకు\న్‌
@@ -3745,17 +3445,17 @@
 సమ్మది మంది వర్ధిలను జవ్వన లీలల వేంకటేశ్వరా!</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>venkateswara</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
-        <is>
-          <t>venkateswara</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
         <is>
           <t>[('అ', 'U'), ('మ్మ', '|'), ('కు', '|'), ('దా', 'U'), ('ళ్ల', '|'), ('పా', 'U'), ('క', '|'), ('ఘ', '|'), ('ను', '|'), ('డ', 'U'), ('న్న', '|'), ('డు', '|'), ('ప', 'U'), ('ద్య', '|'), ('శ', '|'), ('తం', 'U'), ('బు', '|'), ('జె', 'U'), ('ప్పె', '|'), ('గో', 'U'), ('కొ', 'U'), ('మ్మ', '|'), ('ని', '|'), ('వా', 'U'), ('క్ప్ర', '|'), ('సూ', 'U'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('గూ', 'U'), ('రి', '|'), ('మి', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('నె', 'U'), ('మ్మ', '|'), ('ది', '|'), ('నీ', 'U'), ('వు', '|'), ('చే', 'U'), ('కొ', '|'), ('ని', '|'), ('య', '|'), ('నే', 'U'), ('క', '|'), ('యు', '|'), ('గం', 'U'), ('బు', '|'), ('లు', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('క', 'U'), ('ల్ప', '|'), ('ముల్', 'U'), ('స', 'U'), ('మ్మ', '|'), ('ది', '|'), ('మం', 'U'), ('ది', '|'), ('వ', 'U'), ('ర్ధి', '|'), ('ల', '|'), ('ను', '|'), ('జ', 'U'), ('వ్వ', '|'), ('న', '|'), ('లీ', 'U'), ('ల', '|'), ('ల', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>

--- a/dataset/lg/venkateswara.xlsx
+++ b/dataset/lg/venkateswara.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('కి', '|'), ('ల', '|'), ('కి', '|'), ('ల', '|'), ('న', 'U'), ('వ్వు', '|'), ('న', 'U'), ('వ్వి', '|'), ('తి', '|'), ('ల', '|'), ('కిం', 'U'), ('చి', '|'), ('తి', '|'), ('మం', 'U'), ('చి', '|'), ('సు', '|'), ('ధా', 'U'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('నీ', 'U'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('ల', '|'), ('తే', 'U'), ('నె', '|'), ('లన్', 'U'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('బ', 'U'), ('ట్ట', '|'), ('ము', '|'), ('గ', 'U'), ('ట్టి', '|'), ('తి', '|'), ('నీ', 'U'), ('దు', '|'), ('కౌ', 'U'), ('గి', '|'), ('టన్', 'U'), ('వ', '|'), ('ల', '|'), ('ద', '|'), ('ని', '|'), ('చె', 'U'), ('ప్పి', '|'), ('నన్', 'U'), ('వి', '|'), ('న', '|'), ('వు', '|'), ('వ', 'U'), ('ద్దు', '|'), ('సు', '|'), ('మీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('కె', '|'), ('ల', '|'), ('వు', '|'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('నె', 'U'), ('చ్చె', '|'), ('లు', '|'), ('లు', '|'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('సే', 'U'), ('తు', '|'), ('రు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('కి', '|'), ('ల', '|'), ('కి', '|'), ('ల', '|'), ('న', 'U'), ('వ్వు', '|'), ('న', 'U'), ('వ్వి', '|'), ('తి', '|'), ('ల', '|'), ('కిం', 'U'), ('చి', '|'), ('తి', '|'), ('మం', 'U'), ('చి', '|'), ('సు', '|'), ('ధా', 'U'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('నీ', 'U'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('ల', '|'), ('తే', 'U'), ('నె', '|'), ('ల', 'U'), ('న్వి', '|'), ('భు', '|'), ('ని', '|'), ('బ', 'U'), ('ట్ట', '|'), ('ము', '|'), ('గ', 'U'), ('ట్టి', '|'), ('తి', '|'), ('నీ', 'U'), ('దు', '|'), ('కౌ', 'U'), ('గి', '|'), ('టన్', 'U'), ('వ', '|'), ('ల', '|'), ('ద', '|'), ('ని', '|'), ('చె', 'U'), ('ప్పి', '|'), ('న', 'U'), ('న్వి', '|'), ('న', '|'), ('వు', '|'), ('వ', 'U'), ('ద్దు', '|'), ('సు', '|'), ('మీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('కె', '|'), ('ల', '|'), ('వు', '|'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('నె', 'U'), ('చ్చె', '|'), ('లు', '|'), ('లు', '|'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('సే', 'U'), ('తు', '|'), ('రు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('కూ', 'U'), ('రి', '|'), ('మి', '|'), ('సా', 'U'), ('న', '|'), ('వ', 'U'), ('ట్టి', '|'), ('న', '|'), ('చ', '|'), ('కో', 'U'), ('ర', '|'), ('పు', '|'), ('గ', 'U'), ('న్ను', '|'), ('గొ', '|'), ('నన్', 'U'), ('ద', '|'), ('ళు', 'U'), ('క్కు', '|'), ('నన్', 'U'), ('జే', 'U'), ('రు', '|'), ('వ', '|'), ('మిం', 'U'), ('చు', '|'), ('లై', 'U'), ('మె', '|'), ('ఱ', '|'), ('య', '|'), ('జి', 'U'), ('మ్ము', '|'), ('ల', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('ల', '|'), ('బం', 'U'), ('పు', '|'), ('న', 'U'), ('వ్వు', '|'), ('దై', 'U'), ('వా', 'U'), ('ర', '|'), ('గ', '|'), ('గాం', 'U'), ('చి', '|'), ('నీ', 'U'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('వ', 'U'), ('న్నె', '|'), ('ల', '|'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('సా', 'U'), ('ర', '|'), ('పు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('జ', 'U'), ('క్క', '|'), ('గొ', '|'), ('నె', '|'), ('జ', 'U'), ('క్క', '|'), ('ని', '|'), ('మో', 'U'), ('ము', '|'), ('న', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('కూ', 'U'), ('రి', '|'), ('మి', '|'), ('సా', 'U'), ('న', '|'), ('వ', 'U'), ('ట్టి', '|'), ('న', '|'), ('చ', '|'), ('కో', 'U'), ('ర', '|'), ('పు', '|'), ('గ', 'U'), ('న్ను', '|'), ('గొ', '|'), ('న', 'U'), ('న్ద', '|'), ('ళు', 'U'), ('క్కు', '|'), ('నన్', 'U'), ('జే', 'U'), ('రు', '|'), ('వ', '|'), ('మిం', 'U'), ('చు', '|'), ('లై', 'U'), ('మె', '|'), ('ఱ', '|'), ('య', '|'), ('జి', 'U'), ('మ్ము', '|'), ('ల', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('ల', '|'), ('బం', 'U'), ('పు', '|'), ('న', 'U'), ('వ్వు', '|'), ('దై', 'U'), ('వా', 'U'), ('ర', '|'), ('గ', '|'), ('గాం', 'U'), ('చి', '|'), ('నీ', 'U'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('వ', 'U'), ('న్నె', '|'), ('ల', '|'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('సా', 'U'), ('ర', '|'), ('పు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('జ', 'U'), ('క్క', '|'), ('గొ', '|'), ('నె', '|'), ('జ', 'U'), ('క్క', '|'), ('ని', '|'), ('మో', 'U'), ('ము', '|'), ('న', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('స', '|'), ('ర', '|'), ('సి', '|'), ('జ', '|'), ('సం', 'U'), ('భ', '|'), ('వా', 'U'), ('ది', '|'), ('ది', '|'), ('వి', '|'), ('జ', '|'), ('ప్ర', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('సం', 'U'), ('ప', '|'), ('దల్', 'U'), ('సు', '|'), ('వి', 'U'), ('స్త', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('గా', 'U'), ('గ', '|'), ('గ', 'U'), ('న్గొ', '|'), ('న', '|'), ('ల', '|'), ('జ', 'U'), ('ల్లె', '|'), ('డు', '|'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('త', '|'), ('రు', '|'), ('ణీ', 'U'), ('యు', '|'), ('రం', 'U'), ('బు', '|'), ('నం', 'U'), ('జె', '|'), ('ల', '|'), ('గ', '|'), ('ద', 'U'), ('న్మ', '|'), ('య', '|'), ('మం', 'U'), ('దె', '|'), ('డు', '|'), ('నీ', 'U'), ('కు', '|'), ('బ్రా', 'U'), ('తి', '|'), ('యే', 'U'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('ప', '|'), ('ద', '|'), ('ప్ర', '|'), ('భు', 'U'), ('త్వ', '|'), ('ము', '|'), ('న', '|'), ('పా', 'U'), ('ర', '|'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('స', '|'), ('ర', '|'), ('సి', '|'), ('జ', '|'), ('సం', 'U'), ('భ', '|'), ('వా', 'U'), ('ది', '|'), ('ది', '|'), ('వి', '|'), ('జ', '|'), ('ప్ర', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('సం', 'U'), ('ప', '|'), ('ద', 'U'), ('ల్సు', '|'), ('వి', 'U'), ('స్త', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('గా', 'U'), ('గ', '|'), ('గ', 'U'), ('న్గొ', '|'), ('న', '|'), ('ల', '|'), ('జ', 'U'), ('ల్లె', '|'), ('డు', '|'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('త', '|'), ('రు', '|'), ('ణీ', 'U'), ('యు', '|'), ('రం', 'U'), ('బు', '|'), ('నం', 'U'), ('జె', '|'), ('ల', '|'), ('గ', '|'), ('ద', 'U'), ('న్మ', '|'), ('య', '|'), ('మం', 'U'), ('దె', '|'), ('డు', '|'), ('నీ', 'U'), ('కు', '|'), ('బ్రా', 'U'), ('తి', '|'), ('యే', 'U'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('ప', '|'), ('ద', '|'), ('ప్ర', '|'), ('భు', 'U'), ('త్వ', '|'), ('ము', '|'), ('న', '|'), ('పా', 'U'), ('ర', '|'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('రు', '|'), ('ణీ', 'U'), ('మ', '|'), ('హా', 'U'), ('ని', '|'), ('ధా', 'U'), ('న', '|'), ('మ', '|'), ('సు', '|'), ('ధా', 'U'), ('మ', '|'), ('య', '|'), ('కూ', 'U'), ('ప', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('వై', 'U'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('మ', '|'), ('దే', 'U'), ('వ', '|'), ('దే', 'U'), ('వు', '|'), ('ని', '|'), ('కృ', '|'), ('పా', 'U'), ('మ', '|'), ('తి', '|'), ('యో', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('య', '|'), ('చా', 'U'), ('లు', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('ల', '|'), ('గా', 'U'), ('వ', '|'), ('గ', '|'), ('నం', 'U'), ('చు', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్రు', '|'), ('లున్', 'U'), ('సు', '|'), ('రల్', 'U'), ('ని', '|'), ('ర', '|'), ('తి', '|'), ('ను', '|'), ('తిం', 'U'), ('చి', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('దు', '|'), ('రు', '|'), ('నీ', 'U'), ('ప్రి', '|'), ('య', '|'), ('కాం', 'U'), ('త', '|'), ('ను', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('త', '|'), ('రు', '|'), ('ణీ', 'U'), ('మ', '|'), ('హా', 'U'), ('ని', '|'), ('ధా', 'U'), ('న', '|'), ('మ', '|'), ('సు', '|'), ('ధా', 'U'), ('మ', '|'), ('య', '|'), ('కూ', 'U'), ('ప', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('వై', 'U'), ('భ', '|'), ('వా', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('మ', '|'), ('దే', 'U'), ('వ', '|'), ('దే', 'U'), ('వు', '|'), ('ని', '|'), ('కృ', '|'), ('పా', 'U'), ('మ', '|'), ('తి', '|'), ('యో', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('య', '|'), ('చా', 'U'), ('లు', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('ల', '|'), ('గా', 'U'), ('వ', '|'), ('గ', '|'), ('నం', 'U'), ('చు', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్రు', '|'), ('లున్', 'U'), ('సు', '|'), ('ర', 'U'), ('ల్ని', '|'), ('ర', '|'), ('తి', '|'), ('ను', '|'), ('తిం', 'U'), ('చి', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('దు', '|'), ('రు', '|'), ('నీ', 'U'), ('ప్రి', '|'), ('య', '|'), ('కాం', 'U'), ('త', '|'), ('ను', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[('నిం', 'U'), ('చి', '|'), ('న', '|'), ('పం', 'U'), ('చ', '|'), ('దా', 'U'), ('ర', '|'), ('లు', '|'), ('ను', '|'), ('నే', 'U'), ('తు', '|'), ('లు', '|'), ('దే', 'U'), ('నె', '|'), ('లు', '|'), ('గ', 'U'), ('మ్మ', '|'), ('గా', 'U'), ('గ', '|'), ('దా', 'U'), ('లిం', 'U'), ('చి', '|'), ('న', '|'), ('కూ', 'U'), ('ర', '|'), ('లున్', 'U'), ('బ', '|'), ('రి', '|'), ('మ', '|'), ('ళిం', 'U'), ('చ', '|'), ('గ', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('వ', 'U'), ('డ్డిం', 'U'), ('చి', '|'), ('న', '|'), ('ని', 'U'), ('ర్మ', '|'), ('లా', 'U'), ('న్న', '|'), ('ము', '|'), ('లు', '|'), ('డెం', 'U'), ('ద', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('గ', '|'), ('నా', 'U'), ('ర', '|'), ('గిం', 'U'), ('తు', '|'), ('నీ', 'U'), ('మిం', 'U'), ('చి', '|'), ('న', '|'), ('వే', 'U'), ('యు', '|'), ('చే', 'U'), ('తు', '|'), ('లు', '|'), ('ను', '|'), ('మే', 'U'), ('ల', '|'), ('ము', '|'), ('లా', 'U'), ('డు', '|'), ('చు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('నిం', 'U'), ('చి', '|'), ('న', '|'), ('పం', 'U'), ('చ', '|'), ('దా', 'U'), ('ర', '|'), ('లు', '|'), ('ను', '|'), ('నే', 'U'), ('తు', '|'), ('లు', '|'), ('దే', 'U'), ('నె', '|'), ('లు', '|'), ('గ', 'U'), ('మ్మ', '|'), ('గా', 'U'), ('గ', '|'), ('దా', 'U'), ('లిం', 'U'), ('చి', '|'), ('న', '|'), ('కూ', 'U'), ('ర', '|'), ('లు', 'U'), ('న్బ', '|'), ('రి', '|'), ('మ', '|'), ('ళిం', 'U'), ('చ', '|'), ('గ', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('వ', 'U'), ('డ్డిం', 'U'), ('చి', '|'), ('న', '|'), ('ని', 'U'), ('ర్మ', '|'), ('లా', 'U'), ('న్న', '|'), ('ము', '|'), ('లు', '|'), ('డెం', 'U'), ('ద', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('గ', '|'), ('నా', 'U'), ('ర', '|'), ('గిం', 'U'), ('తు', '|'), ('నీ', 'U'), ('మిం', 'U'), ('చి', '|'), ('న', '|'), ('వే', 'U'), ('యు', '|'), ('చే', 'U'), ('తు', '|'), ('లు', '|'), ('ను', '|'), ('మే', 'U'), ('ల', '|'), ('ము', '|'), ('లా', 'U'), ('డు', '|'), ('చు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[('ప', 'U'), ('క్ష్మ', '|'), ('ల', '|'), ('నే', 'U'), ('త్ర', '|'), ('యో', 'U'), ('చి', '|'), ('లు', '|'), ('కు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('ల', '|'), ('క', 'U'), ('ల్కి', '|'), ('స', '|'), ('రో', 'U'), ('జ', '|'), ('వ', 'U'), ('ల్లి', '|'), ('యో', 'U'), ('ల', 'U'), ('క్ష్మి', '|'), ('ల', '|'), ('తాం', 'U'), ('గి', '|'), ('యో', 'U'), ('బ', '|'), ('హు', '|'), ('క', '|'), ('ళా', 'U'), ('వ', '|'), ('తి', '|'), ('యో', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('సూ', 'U'), ('క్ష్మ', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('లీ', 'U'), ('ల', '|'), ('ల', '|'), ('కు', '|'), ('జొ', 'U'), ('క్కి', '|'), ('తి', '|'), ('నం', 'U'), ('చు', '|'), ('న', '|'), ('ఖేం', 'U'), ('దు', '|'), ('వ', 'U'), ('ల్లి', '|'), ('కా', 'U'), ('ల', 'U'), ('క్ష్మి', '|'), ('వి', '|'), ('కా', 'U'), ('స', '|'), ('తన్', 'U'), ('స', '|'), ('తి', '|'), ('జె', '|'), ('లం', 'U'), ('గ', '|'), ('గ', '|'), ('జే', 'U'), ('తు', '|'), ('వు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ప', 'U'), ('క్ష్మ', '|'), ('ల', '|'), ('నే', 'U'), ('త్ర', '|'), ('యో', 'U'), ('చి', '|'), ('లు', '|'), ('కు', '|'), ('ప', 'U'), ('ల్కు', '|'), ('ల', '|'), ('క', 'U'), ('ల్కి', '|'), ('స', '|'), ('రో', 'U'), ('జ', '|'), ('వ', 'U'), ('ల్లి', '|'), ('యో', 'U'), ('ల', 'U'), ('క్ష్మి', '|'), ('ల', '|'), ('తాం', 'U'), ('గి', '|'), ('యో', 'U'), ('బ', '|'), ('హు', '|'), ('క', '|'), ('ళా', 'U'), ('వ', '|'), ('తి', '|'), ('యో', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('సూ', 'U'), ('క్ష్మ', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('లీ', 'U'), ('ల', '|'), ('ల', '|'), ('కు', '|'), ('జొ', 'U'), ('క్కి', '|'), ('తి', '|'), ('నం', 'U'), ('చు', '|'), ('న', '|'), ('ఖేం', 'U'), ('దు', '|'), ('వ', 'U'), ('ల్లి', '|'), ('కా', 'U'), ('ల', 'U'), ('క్ష్మి', '|'), ('వి', '|'), ('కా', 'U'), ('స', '|'), ('త', 'U'), ('న్స', '|'), ('తి', '|'), ('జె', '|'), ('లం', 'U'), ('గ', '|'), ('గ', '|'), ('జే', 'U'), ('తు', '|'), ('వు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[('ఒ', 'U'), ('క్కొ', '|'), ('క', '|'), ('నా', 'U'), ('టి', '|'), ('రా', 'U'), ('త్రి', '|'), ('స', '|'), ('క', '|'), ('లో', 'U'), ('న్న', '|'), ('తు', '|'), ('డై', 'U'), ('న', '|'), ('ఖ', '|'), ('గేం', 'U'), ('ద్ర', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('పై', 'U'), ('నె', 'U'), ('క్కి', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('లీ', 'U'), ('ల', '|'), ('జ', '|'), ('రి', '|'), ('యిం', 'U'), ('చు', '|'), ('చు', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('మో', 'U'), ('మ', 'U'), ('క్కు', '|'), ('న', '|'), ('జే', 'U'), ('ర్చు', '|'), ('చున్', 'U'), ('బ', '|'), ('హు', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('లన్', 'U'), ('వ', '|'), ('న', '|'), ('వీ', 'U'), ('థు', '|'), ('లం', 'U'), ('బ్రి', '|'), ('యం', 'U'), ('బె', 'U'), ('క్కు', '|'), ('వ', '|'), ('గా', 'U'), ('జె', '|'), ('లం', 'U'), ('గు', '|'), ('వి', '|'), ('ధ', '|'), ('మే', 'U'), ('మ', '|'), ('ని', '|'), ('చె', 'U'), ('ప్పు', '|'), ('దు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ఒ', 'U'), ('క్కొ', '|'), ('క', '|'), ('నా', 'U'), ('టి', '|'), ('రా', 'U'), ('త్రి', '|'), ('స', '|'), ('క', '|'), ('లో', 'U'), ('న్న', '|'), ('తు', '|'), ('డై', 'U'), ('న', '|'), ('ఖ', '|'), ('గేం', 'U'), ('ద్ర', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('పై', 'U'), ('నె', 'U'), ('క్కి', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('లీ', 'U'), ('ల', '|'), ('జ', '|'), ('రి', '|'), ('యిం', 'U'), ('చు', '|'), ('చు', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('మో', 'U'), ('మ', 'U'), ('క్కు', '|'), ('న', '|'), ('జే', 'U'), ('ర్చు', '|'), ('చు', 'U'), ('న్బ', '|'), ('హు', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('ల', 'U'), ('న్వ', '|'), ('న', '|'), ('వీ', 'U'), ('థు', '|'), ('లం', 'U'), ('బ్రి', '|'), ('యం', 'U'), ('బె', 'U'), ('క్కు', '|'), ('వ', '|'), ('గా', 'U'), ('జె', '|'), ('లం', 'U'), ('గు', '|'), ('వి', '|'), ('ధ', '|'), ('మే', 'U'), ('మ', '|'), ('ని', '|'), ('చె', 'U'), ('ప్పు', '|'), ('దు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[('దు', 'U'), ('గ్ధ', '|'), ('ప', '|'), ('యో', 'U'), ('ధి', '|'), ('క', 'U'), ('న్య', '|'), ('జ', '|'), ('ల', '|'), ('ధుల్', 'U'), ('జ', '|'), ('గ', '|'), ('ముల్', 'U'), ('ద', '|'), ('న', '|'), ('కు', 'U'), ('క్షి', '|'), ('ను', 'U'), ('న్న', '|'), ('సు', 'U'), ('స్ని', 'U'), ('గ్ధ', '|'), ('కృ', '|'), ('శో', 'U'), ('ద', '|'), ('రాం', 'U'), ('గి', '|'), ('తు', '|'), ('ల', '|'), ('సిం', 'U'), ('బ్రి', '|'), ('యు', '|'), ('రా', 'U'), ('ల', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('యీ', 'U'), ('ను', '|'), ('చు', '|'), ('ని', 'U'), ('న్ను', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్ర', '|'), ('క', 'U'), ('న్య', '|'), ('కల్', 'U'), ('ది', 'U'), ('గ్ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('ధ', '|'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('ను', '|'), ('తిం', 'U'), ('తు', '|'), ('రు', '|'), ('న', 'U'), ('వ్వు', '|'), ('చు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('దు', 'U'), ('గ్ధ', '|'), ('ప', '|'), ('యో', 'U'), ('ధి', '|'), ('క', 'U'), ('న్య', '|'), ('జ', '|'), ('ల', '|'), ('ధు', 'U'), ('ల్జ', '|'), ('గ', '|'), ('ము', 'U'), ('ల్ద', '|'), ('న', '|'), ('కు', 'U'), ('క్షి', '|'), ('ను', 'U'), ('న్న', '|'), ('సు', 'U'), ('స్ని', 'U'), ('గ్ధ', '|'), ('కృ', '|'), ('శో', 'U'), ('ద', '|'), ('రాం', 'U'), ('గి', '|'), ('తు', '|'), ('ల', '|'), ('సిం', 'U'), ('బ్రి', '|'), ('యు', '|'), ('రా', 'U'), ('ల', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('యీ', 'U'), ('ను', '|'), ('చు', '|'), ('ని', 'U'), ('న్ను', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్ర', '|'), ('క', 'U'), ('న్య', '|'), ('కల్', 'U'), ('ది', 'U'), ('గ్ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('ధ', '|'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('ను', '|'), ('తిం', 'U'), ('తు', '|'), ('రు', '|'), ('న', 'U'), ('వ్వు', '|'), ('చు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('మ', 'U'), ('మ్మ', '|'), ('కున్', 'U'), ('స', '|'), ('క', '|'), ('ల', '|'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('మం', 'U'), ('బు', '|'), ('జ', '|'), ('నే', 'U'), ('త్ర', '|'), ('కున్', 'U'), ('జ', '|'), ('యా', 'U'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('మిం', 'U'), ('ది', '|'), ('రా', 'U'), ('స', '|'), ('తి', '|'), ('కి', '|'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('మీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('మం', 'U'), ('దు', '|'), ('నే', 'U'), ('మ', '|'), ('ఱి', '|'), ('యు', '|'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('మం', 'U'), ('దు', '|'), ('ను', '|'), ('దే', 'U'), ('వ', '|'), ('లో', 'U'), ('క', '|'), ('ది', 'U'), ('వ్యాం', 'U'), ('గ', '|'), ('న', '|'), ('లె', 'U'), ('ల్ల', '|'), ('నీ', 'U'), ('స', '|'), ('తి', '|'), ('కి', '|'), ('నా', 'U'), ('ర', '|'), ('తు', '|'), ('లి', 'U'), ('త్తు', '|'), ('రు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('మ', 'U'), ('మ్మ', '|'), ('కు', 'U'), ('న్స', '|'), ('క', '|'), ('ల', '|'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('మం', 'U'), ('బు', '|'), ('జ', '|'), ('నే', 'U'), ('త్ర', '|'), ('కు', 'U'), ('న్జ', '|'), ('యా', 'U'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('మిం', 'U'), ('ది', '|'), ('రా', 'U'), ('స', '|'), ('తి', '|'), ('కి', '|'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('మీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('మం', 'U'), ('దు', '|'), ('నే', 'U'), ('మ', '|'), ('ఱి', '|'), ('యు', '|'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('మం', 'U'), ('దు', '|'), ('ను', '|'), ('దే', 'U'), ('వ', '|'), ('లో', 'U'), ('క', '|'), ('ది', 'U'), ('వ్యాం', 'U'), ('గ', '|'), ('న', '|'), ('లె', 'U'), ('ల్ల', '|'), ('నీ', 'U'), ('స', '|'), ('తి', '|'), ('కి', '|'), ('నా', 'U'), ('ర', '|'), ('తు', '|'), ('లి', 'U'), ('త్తు', '|'), ('రు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[('ఏ', 'U'), ('చ', '|'), ('తు', '|'), ('ర', 'U'), ('త్వ', '|'), ('మే', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('మే', 'U'), ('మి', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('మ', '|'), ('దే', 'U'), ('మి', '|'), ('వి', '|'), ('భ్ర', '|'), ('మం', 'U'), ('బీ', 'U'), ('చె', '|'), ('లు', '|'), ('వం', 'U'), ('పు', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('యు', '|'), ('నిం', 'U'), ('దు', '|'), ('ము', '|'), ('ఖుల్', 'U'), ('జ', '|'), ('గ', '|'), ('దే', 'U'), ('క', '|'), ('మో', 'U'), ('హి', '|'), ('నుల్', 'U'), ('చూ', 'U'), ('చి', '|'), ('త', '|'), ('లం', 'U'), ('ట', '|'), ('వే', 'U'), ('డ్క', '|'), ('ప', '|'), ('డి', '|'), ('చూ', 'U'), ('తు', '|'), ('రు', '|'), ('నీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('లీ', 'U'), ('లా', 'U'), ('చి', '|'), ('కు', '|'), ('రం', 'U'), ('పు', '|'), ('గ్రు', 'U'), ('మ్ము', '|'), ('డి', '|'), ('కె', '|'), ('లం', 'U'), ('కు', '|'), ('ల', '|'), ('ని', 'U'), ('గ్గు', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ఏ', 'U'), ('చ', '|'), ('తు', '|'), ('ర', 'U'), ('త్వ', '|'), ('మే', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('మే', 'U'), ('మి', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('మ', '|'), ('దే', 'U'), ('మి', '|'), ('వి', '|'), ('భ్ర', '|'), ('మం', 'U'), ('బీ', 'U'), ('చె', '|'), ('లు', '|'), ('వం', 'U'), ('పు', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('యు', '|'), ('నిం', 'U'), ('దు', '|'), ('ము', '|'), ('ఖు', 'U'), ('ల్జ', '|'), ('గ', '|'), ('దే', 'U'), ('క', '|'), ('మో', 'U'), ('హి', '|'), ('నుల్', 'U'), ('చూ', 'U'), ('చి', '|'), ('త', '|'), ('లం', 'U'), ('ట', '|'), ('వే', 'U'), ('డ్క', '|'), ('ప', '|'), ('డి', '|'), ('చూ', 'U'), ('తు', '|'), ('రు', '|'), ('నీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('లీ', 'U'), ('లా', 'U'), ('చి', '|'), ('కు', '|'), ('రం', 'U'), ('పు', '|'), ('గ్రు', 'U'), ('మ్ము', '|'), ('డి', '|'), ('కె', '|'), ('లం', 'U'), ('కు', '|'), ('ల', '|'), ('ని', 'U'), ('గ్గు', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('రి', '|'), ('మ', '|'), ('ళ', '|'), ('మో', 'U'), ('క', '|'), ('దం', 'U'), ('బ', '|'), ('మొ', '|'), ('ప్ర', '|'), ('భల్', 'U'), ('వి', '|'), ('డ', '|'), ('నిం', 'U'), ('చి', '|'), ('న', '|'), ('ని', 'U'), ('గ్గొ', '|'), ('ని', 'U'), ('ర్మ', '|'), ('లా', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('మొ', '|'), ('ని', 'U'), ('త్య', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('మొ', '|'), ('భా', 'U'), ('గ్య', '|'), ('మొ', '|'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('భూ', 'U'), ('ధ', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('నా', 'U'), ('ది', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('య', '|'), ('ని', '|'), ('త', 'U'), ('త్త్వ', '|'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('ర', '|'), ('హ', 'U'), ('స్య', '|'), ('వే', 'U'), ('త్త', '|'), ('లం', 'U'), ('బ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('నుం', 'U'), ('డి', '|'), ('నీ', 'U'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('బ్ర', 'U'), ('స్తు', '|'), ('తి', '|'), ('సే', 'U'), ('తు', '|'), ('రు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ప', '|'), ('రి', '|'), ('మ', '|'), ('ళ', '|'), ('మో', 'U'), ('క', '|'), ('దం', 'U'), ('బ', '|'), ('మొ', '|'), ('ప్ర', '|'), ('భ', 'U'), ('ల్వి', '|'), ('డ', '|'), ('నిం', 'U'), ('చి', '|'), ('న', '|'), ('ని', 'U'), ('గ్గొ', '|'), ('ని', 'U'), ('ర్మ', '|'), ('లా', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('మొ', '|'), ('ని', 'U'), ('త్య', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('మొ', '|'), ('భా', 'U'), ('గ్య', '|'), ('మొ', '|'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('భూ', 'U'), ('ధ', '|'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('నా', 'U'), ('ది', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('య', '|'), ('ని', '|'), ('త', 'U'), ('త్త్వ', '|'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('ర', '|'), ('హ', 'U'), ('స్య', '|'), ('వే', 'U'), ('త్త', '|'), ('లం', 'U'), ('బ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('నుం', 'U'), ('డి', '|'), ('నీ', 'U'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('బ్ర', 'U'), ('స్తు', '|'), ('తి', '|'), ('సే', 'U'), ('తు', '|'), ('రు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[('తి', '|'), ('రు', '|'), ('మ', '|'), ('గు', '|'), ('మం', 'U'), ('చి', '|'), ('కుం', 'U'), ('ద', '|'), ('న', '|'), ('పు', '|'), ('దీ', 'U'), ('గ', '|'), ('ప', '|'), ('యిన్', 'U'), ('ఘ', '|'), ('న', '|'), ('చ', '|'), ('క్ర', '|'), ('వా', 'U'), ('క', '|'), ('ముల్', 'U'), ('ప', '|'), ('ర', '|'), ('గి', '|'), ('న', '|'), ('రీ', 'U'), ('తి', '|'), ('జ', 'U'), ('న్ను', '|'), ('గ', '|'), ('వ', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('యు', '|'), ('ర', '|'), ('ము', '|'), ('ప', '|'), ('యిం', 'U'), ('జె', '|'), ('లం', 'U'), ('గ', '|'), ('గ', '|'), ('ని', '|'), ('యో', 'U'), ('గి', '|'), ('జ', '|'), ('నం', 'U'), ('బు', '|'), ('లు', '|'), ('నీ', 'U'), ('ల', '|'), ('మే', 'U'), ('ఘ', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('తో', 'U'), ('డి', '|'), ('మిం', 'U'), ('చ', '|'), ('ను', '|'), ('చు', '|'), ('జూ', 'U'), ('చి', '|'), ('ను', '|'), ('తిం', 'U'), ('తు', '|'), ('రు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('తి', '|'), ('రు', '|'), ('మ', '|'), ('గు', '|'), ('మం', 'U'), ('చి', '|'), ('కుం', 'U'), ('ద', '|'), ('న', '|'), ('పు', '|'), ('దీ', 'U'), ('గ', '|'), ('ప', '|'), ('యి', 'U'), ('న్ఘ', '|'), ('న', '|'), ('చ', '|'), ('క్ర', '|'), ('వా', 'U'), ('క', '|'), ('ముల్', 'U'), ('ప', '|'), ('ర', '|'), ('గి', '|'), ('న', '|'), ('రీ', 'U'), ('తి', '|'), ('జ', 'U'), ('న్ను', '|'), ('గ', '|'), ('వ', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('యు', '|'), ('ర', '|'), ('ము', '|'), ('ప', '|'), ('యిం', 'U'), ('జె', '|'), ('లం', 'U'), ('గ', '|'), ('గ', '|'), ('ని', '|'), ('యో', 'U'), ('గి', '|'), ('జ', '|'), ('నం', 'U'), ('బు', '|'), ('లు', '|'), ('నీ', 'U'), ('ల', '|'), ('మే', 'U'), ('ఘ', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('తో', 'U'), ('డి', '|'), ('మిం', 'U'), ('చ', '|'), ('ను', '|'), ('చు', '|'), ('జూ', 'U'), ('చి', '|'), ('ను', '|'), ('తిం', 'U'), ('తు', '|'), ('రు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[('పె', '|'), ('డ', '|'), ('మ', '|'), ('ర', '|'), ('చూ', 'U'), ('చి', '|'), ('చూ', 'U'), ('పు', '|'), ('జ', '|'), ('ళి', '|'), ('పిం', 'U'), ('చి', '|'), ('న', '|'), ('నె', 'U'), ('ట్లు', '|'), ('ధ', '|'), ('రిం', 'U'), ('తు', '|'), ('వో', 'U'), ('ప్రి', '|'), ('యం', 'U'), ('బ', '|'), ('డ', '|'), ('ర', '|'), ('గ', '|'), ('గౌ', 'U'), ('ను', '|'), ('దీ', 'U'), ('గ', '|'), ('ను', '|'), ('లి', '|'), ('యన్', 'U'), ('నన్', 'U'), ('స', '|'), ('డి', '|'), ('వ', '|'), ('డి', '|'), ('యెం', 'U'), ('త', '|'), ('వే', 'U'), ('గు', '|'), ('దు', '|'), ('వొ', '|'), ('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('వె', '|'), ('డ', '|'), ('వ', '|'), ('గు', '|'), ('మో', 'U'), ('ము', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('గి', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('చ', 'U'), ('ల్లి', '|'), ('న', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('పె', '|'), ('డ', '|'), ('మ', '|'), ('ర', '|'), ('చూ', 'U'), ('చి', '|'), ('చూ', 'U'), ('పు', '|'), ('జ', '|'), ('ళి', '|'), ('పిం', 'U'), ('చి', '|'), ('న', '|'), ('నె', 'U'), ('ట్లు', '|'), ('ధ', '|'), ('రిం', 'U'), ('తు', '|'), ('వో', 'U'), ('ప్రి', '|'), ('యం', 'U'), ('బ', '|'), ('డ', '|'), ('ర', '|'), ('గ', '|'), ('గౌ', 'U'), ('ను', '|'), ('దీ', 'U'), ('గ', '|'), ('ను', '|'), ('లి', '|'), ('య', 'U'), ('న్నన్', 'U'), ('స', '|'), ('డి', '|'), ('వ', '|'), ('డి', '|'), ('యెం', 'U'), ('త', '|'), ('వే', 'U'), ('గు', '|'), ('దు', '|'), ('వొ', '|'), ('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('వె', '|'), ('డ', '|'), ('వ', '|'), ('గు', '|'), ('మో', 'U'), ('ము', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('గి', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('చ', 'U'), ('ల్లి', '|'), ('న', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[('రా', 'U'), ('పు', '|'), ('గ', '|'), ('మ', 'U'), ('మ్ము', '|'), ('నే', 'U'), ('యు', '|'), ('న', '|'), ('ప', '|'), ('రా', 'U'), ('ధ', '|'), ('శ', '|'), ('తం', 'U'), ('బు', '|'), ('ల', '|'), ('సం', 'U'), ('త', '|'), ('ముల్', 'U'), ('స', '|'), ('దా', 'U'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('మున్', 'U'), ('ని', '|'), ('రం', 'U'), ('త', '|'), ('ము', '|'), ('గ', 'U'), ('ల్కి', '|'), ('త', '|'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('రా', 'U'), ('పు', '|'), ('గ', '|'), ('మ', 'U'), ('మ్ము', '|'), ('నే', 'U'), ('యు', '|'), ('న', '|'), ('ప', '|'), ('రా', 'U'), ('ధ', '|'), ('శ', '|'), ('తం', 'U'), ('బు', '|'), ('ల', '|'), ('సం', 'U'), ('త', '|'), ('ము', 'U'), ('ల్స', '|'), ('దా', 'U'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ము', 'U'), ('న్ని', '|'), ('రం', 'U'), ('త', '|'), ('ము', '|'), ('గ', 'U'), ('ల్కి', '|'), ('త', '|'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[('కాం', 'U'), ('చ', '|'), ('న', '|'), ('ర', 'U'), ('త్న', '|'), ('నూ', 'U'), ('త్న', '|'), ('క', '|'), ('ట', '|'), ('కం', 'U'), ('బు', '|'), ('లు', '|'), ('సం', 'U'), ('దు', '|'), ('ల', '|'), ('దం', 'U'), ('డ', '|'), ('లున్', 'U'), ('బ్ర', '|'), ('భల్', 'U'), ('ముం', 'U'), ('చి', '|'), ('న', '|'), ('మే', 'U'), ('ఖ', '|'), ('లా', 'U'), ('వ', '|'), ('ళు', '|'), ('లు', '|'), ('మ్రో', 'U'), ('య', '|'), ('గ', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నే', 'U'), ('త్రాం', 'U'), ('చ', '|'), ('ల', '|'), ('గ', 'U'), ('ర్వ', '|'), ('వీ', 'U'), ('క్ష', '|'), ('ణ', '|'), ('సు', '|'), ('హా', 'U'), ('స', '|'), ('ము', '|'), ('తో', 'U'), ('ని', '|'), ('ను', '|'), ('గో', 'U'), ('రి', '|'), ('భ్రూ', 'U'), ('ల', '|'), ('తన్', 'U'), ('వం', 'U'), ('చి', '|'), ('న', '|'), ('ది', 'U'), ('య్య', '|'), ('వి', 'U'), ('ల్లు', '|'), ('క', '|'), ('డ', '|'), ('వం', 'U'), ('చు', '|'), ('మ', '|'), ('రుం', 'U'), ('డు', '|'), ('ను', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('కాం', 'U'), ('చ', '|'), ('న', '|'), ('ర', 'U'), ('త్న', '|'), ('నూ', 'U'), ('త్న', '|'), ('క', '|'), ('ట', '|'), ('కం', 'U'), ('బు', '|'), ('లు', '|'), ('సం', 'U'), ('దు', '|'), ('ల', '|'), ('దం', 'U'), ('డ', '|'), ('లు', 'U'), ('న్బ్ర', '|'), ('భల్', 'U'), ('ముం', 'U'), ('చి', '|'), ('న', '|'), ('మే', 'U'), ('ఖ', '|'), ('లా', 'U'), ('వ', '|'), ('ళు', '|'), ('లు', '|'), ('మ్రో', 'U'), ('య', '|'), ('గ', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నే', 'U'), ('త్రాం', 'U'), ('చ', '|'), ('ల', '|'), ('గ', 'U'), ('ర్వ', '|'), ('వీ', 'U'), ('క్ష', '|'), ('ణ', '|'), ('సు', '|'), ('హా', 'U'), ('స', '|'), ('ము', '|'), ('తో', 'U'), ('ని', '|'), ('ను', '|'), ('గో', 'U'), ('రి', '|'), ('భ్రూ', 'U'), ('ల', '|'), ('తన్', 'U'), ('వం', 'U'), ('చి', '|'), ('న', '|'), ('ది', 'U'), ('య్య', '|'), ('వి', 'U'), ('ల్లు', '|'), ('క', '|'), ('డ', '|'), ('వం', 'U'), ('చు', '|'), ('మ', '|'), ('రుం', 'U'), ('డు', '|'), ('ను', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[('గీ', 'U'), ('సి', '|'), ('న', '|'), ('గో', 'U'), ('ళ్ల', '|'), ('చే', 'U'), ('బ', '|'), ('సి', '|'), ('డి', '|'), ('కి', 'U'), ('న్న', '|'), ('ర', '|'), ('కం', 'U'), ('పి', '|'), ('త', '|'), ('ముల్', 'U'), ('క', '|'), ('ద', 'U'), ('ల్చు', '|'), ('చున్', 'U'), ('రా', 'U'), ('సె', '|'), ('డి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('చ', 'U'), ('న్ను', '|'), ('ల', '|'), ('భ', '|'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('తో', 'U'), ('మూ', 'U'), ('సి', '|'), ('యు', '|'), ('మూ', 'U'), ('య', '|'), ('క', 'U'), ('క్షు', '|'), ('ల', '|'), ('ర', '|'), ('మో', 'U'), ('డ్చు', '|'), ('చు', '|'), ('ఱె', 'U'), ('ప్ప', '|'), ('ల', '|'), ('దే', 'U'), ('ల', '|'), ('జే', 'U'), ('య', '|'), ('గా', 'U'), ('నా', 'U'), ('స', '|'), ('ల', '|'), ('నీ', 'U'), ('వు', '|'), ('త', 'U'), ('న్మ', '|'), ('య', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('ట', '|'), ('చి', '|'), ('త్ర', '|'), ('ము', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('గీ', 'U'), ('సి', '|'), ('న', '|'), ('గో', 'U'), ('ళ్ల', '|'), ('చే', 'U'), ('బ', '|'), ('సి', '|'), ('డి', '|'), ('కి', 'U'), ('న్న', '|'), ('ర', '|'), ('కం', 'U'), ('పి', '|'), ('త', '|'), ('ము', 'U'), ('ల్క', '|'), ('ద', 'U'), ('ల్చు', '|'), ('చున్', 'U'), ('రా', 'U'), ('సె', '|'), ('డి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('చ', 'U'), ('న్ను', '|'), ('ల', '|'), ('భ', '|'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('తో', 'U'), ('మూ', 'U'), ('సి', '|'), ('యు', '|'), ('మూ', 'U'), ('య', '|'), ('క', 'U'), ('క్షు', '|'), ('ల', '|'), ('ర', '|'), ('మో', 'U'), ('డ్చు', '|'), ('చు', '|'), ('ఱె', 'U'), ('ప్ప', '|'), ('ల', '|'), ('దే', 'U'), ('ల', '|'), ('జే', 'U'), ('య', '|'), ('గా', 'U'), ('నా', 'U'), ('స', '|'), ('ల', '|'), ('నీ', 'U'), ('వు', '|'), ('త', 'U'), ('న్మ', '|'), ('య', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('ట', '|'), ('చి', '|'), ('త్ర', '|'), ('ము', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('త', 'U'), ('ల్లి', '|'), ('కిన్', 'U'), ('న', '|'), ('వ', '|'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('ల', '|'), ('వె', 'U'), ('ల్లి', '|'), ('కి', '|'), ('బు', 'U'), ('ష్ప', '|'), ('వ', 'U'), ('ల్లి', '|'), ('కిం', 'U'), ('జ', 'U'), ('క్క', '|'), ('ని', '|'), ('మో', 'U'), ('వి', '|'), ('ము', 'U'), ('త్తి', '|'), ('య', '|'), ('పు', '|'), ('జ', 'U'), ('ల్లి', '|'), ('కి', '|'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('జె', 'U'), ('క్కు', '|'), ('లు', '|'), ('మిం', 'U'), ('చు', '|'), ('ట', 'U'), ('ద్ద', '|'), ('ము', '|'), ('లు', '|'), ('చే', 'U'), ('తు', '|'), ('లు', '|'), ('క్రొ', 'U'), ('త్త', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('దీ', 'U'), ('గ', '|'), ('లా', 'U'), ('క్రి', 'U'), ('క్కి', '|'), ('రి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లే', 'U'), ('ప', '|'), ('సి', '|'), ('డి', '|'), ('కి', 'U'), ('న్న', '|'), ('ర', '|'), ('కా', 'U'), ('య', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('త', 'U'), ('ల్లి', '|'), ('కి', 'U'), ('న్న', '|'), ('వ', '|'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('ల', '|'), ('వె', 'U'), ('ల్లి', '|'), ('కి', '|'), ('బు', 'U'), ('ష్ప', '|'), ('వ', 'U'), ('ల్లి', '|'), ('కిం', 'U'), ('జ', 'U'), ('క్క', '|'), ('ని', '|'), ('మో', 'U'), ('వి', '|'), ('ము', 'U'), ('త్తి', '|'), ('య', '|'), ('పు', '|'), ('జ', 'U'), ('ల్లి', '|'), ('కి', '|'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('జె', 'U'), ('క్కు', '|'), ('లు', '|'), ('మిం', 'U'), ('చు', '|'), ('ట', 'U'), ('ద్ద', '|'), ('ము', '|'), ('లు', '|'), ('చే', 'U'), ('తు', '|'), ('లు', '|'), ('క్రొ', 'U'), ('త్త', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('దీ', 'U'), ('గ', '|'), ('లా', 'U'), ('క్రి', 'U'), ('క్కి', '|'), ('రి', '|'), ('గు', 'U'), ('బ్బ', '|'), ('లే', 'U'), ('ప', '|'), ('సి', '|'), ('డి', '|'), ('కి', 'U'), ('న్న', '|'), ('ర', '|'), ('కా', 'U'), ('య', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('రి', '|'), ('సె', '|'), ('లు', '|'), ('నూ', 'U'), ('నె', '|'), ('బూ', 'U'), ('రి', '|'), ('య', '|'), ('లు', '|'), ('నౌ', 'U'), ('గు', '|'), ('లు', '|'), ('జ', 'U'), ('క్కె', '|'), ('ర', '|'), ('మం', 'U'), ('డి', '|'), ('గల్', 'U'), ('వ', '|'), ('డల్', 'U'), ('బు', '|'), ('రు', '|'), ('డ', '|'), ('లు', '|'), ('పా', 'U'), ('ల', '|'), ('మం', 'U'), ('డి', '|'), ('గ', '|'), ('ల', '|'), ('పూ', 'U'), ('ప', '|'), ('ము', '|'), ('ల', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('రు', '|'), ('దు', '|'), ('గ', '|'), ('విం', 'U'), ('దు', '|'), ('వె', 'U'), ('ట్టు', '|'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('న్న', '|'), ('చ', '|'), ('యం', 'U'), ('బు', '|'), ('లు', '|'), ('సూ', 'U'), ('ప', '|'), ('కో', 'U'), ('టి', '|'), ('యున్', 'U'), ('ని', '|'), ('ర', '|'), ('తి', '|'), ('వి', '|'), ('ని', 'U'), ('ర్మ', '|'), ('లా', 'U'), ('న్న', '|'), ('ము', '|'), ('లు', '|'), ('నే', 'U'), ('తు', '|'), ('ల', '|'), ('సో', 'U'), ('న', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అ', '|'), ('రి', '|'), ('సె', '|'), ('లు', '|'), ('నూ', 'U'), ('నె', '|'), ('బూ', 'U'), ('రి', '|'), ('య', '|'), ('లు', '|'), ('నౌ', 'U'), ('గు', '|'), ('లు', '|'), ('జ', 'U'), ('క్కె', '|'), ('ర', '|'), ('మం', 'U'), ('డి', '|'), ('గ', 'U'), ('ల్వ', '|'), ('డల్', 'U'), ('బు', '|'), ('రు', '|'), ('డ', '|'), ('లు', '|'), ('పా', 'U'), ('ల', '|'), ('మం', 'U'), ('డి', '|'), ('గ', '|'), ('ల', '|'), ('పూ', 'U'), ('ప', '|'), ('ము', '|'), ('ల', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('రు', '|'), ('దు', '|'), ('గ', '|'), ('విం', 'U'), ('దు', '|'), ('వె', 'U'), ('ట్టు', '|'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('న్న', '|'), ('చ', '|'), ('యం', 'U'), ('బు', '|'), ('లు', '|'), ('సూ', 'U'), ('ప', '|'), ('కో', 'U'), ('టి', '|'), ('యున్', 'U'), ('ని', '|'), ('ర', '|'), ('తి', '|'), ('వి', '|'), ('ని', 'U'), ('ర్మ', '|'), ('లా', 'U'), ('న్న', '|'), ('ము', '|'), ('లు', '|'), ('నే', 'U'), ('తు', '|'), ('ల', '|'), ('సో', 'U'), ('న', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('న', '|'), ('క', '|'), ('పు', '|'), ('బీ', 'U'), ('ఠి', '|'), ('నె', 'U'), ('క్కి', '|'), ('ర', '|'), ('తి', '|'), ('కాం', 'U'), ('త', '|'), ('శ', '|'), ('రా', 'U'), ('కృ', '|'), ('తి', '|'), ('నీ', 'U'), ('వు', '|'), ('వీ', 'U'), ('థు', '|'), ('లం', 'U'), ('జ', '|'), ('ను', '|'), ('నె', '|'), ('డ', '|'), ('నీ', 'U'), ('దు', '|'), ('చెం', 'U'), ('గ', '|'), ('ట', '|'), ('బ్ర', '|'), ('స', 'U'), ('న్న', '|'), ('త', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కాం', 'U'), ('చ', '|'), ('న', '|'), ('న', '|'), ('వ', '|'), ('కిం', 'U'), ('కి', '|'), ('ణీ', 'U'), ('ర', '|'), ('వ', '|'), ('ము', '|'), ('స', 'U'), ('న్న', '|'), ('పు', '|'), ('దా', 'U'), ('ళ', '|'), ('గ', '|'), ('తిన్', 'U'), ('ర', '|'), ('చిం', 'U'), ('ప', '|'), ('గా', 'U'), ('గ', '|'), ('ను', '|'), ('గ', '|'), ('వ', '|'), ('మో', 'U'), ('డ్చి', '|'), ('మో', 'U'), ('డ్చి', '|'), ('ర', '|'), ('తి', '|'), ('గౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('ర్తు', '|'), ('వు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('క', '|'), ('న', '|'), ('క', '|'), ('పు', '|'), ('బీ', 'U'), ('ఠి', '|'), ('నె', 'U'), ('క్కి', '|'), ('ర', '|'), ('తి', '|'), ('కాం', 'U'), ('త', '|'), ('శ', '|'), ('రా', 'U'), ('కృ', '|'), ('తి', '|'), ('నీ', 'U'), ('వు', '|'), ('వీ', 'U'), ('థు', '|'), ('లం', 'U'), ('జ', '|'), ('ను', '|'), ('నె', '|'), ('డ', '|'), ('నీ', 'U'), ('దు', '|'), ('చెం', 'U'), ('గ', '|'), ('ట', '|'), ('బ్ర', '|'), ('స', 'U'), ('న్న', '|'), ('త', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కాం', 'U'), ('చ', '|'), ('న', '|'), ('న', '|'), ('వ', '|'), ('కిం', 'U'), ('కి', '|'), ('ణీ', 'U'), ('ర', '|'), ('వ', '|'), ('ము', '|'), ('స', 'U'), ('న్న', '|'), ('పు', '|'), ('దా', 'U'), ('ళ', '|'), ('గ', '|'), ('తి', '|'), ('న్ర', '|'), ('చిం', 'U'), ('ప', '|'), ('గా', 'U'), ('గ', '|'), ('ను', '|'), ('గ', '|'), ('వ', '|'), ('మో', 'U'), ('డ్చి', '|'), ('మో', 'U'), ('డ్చి', '|'), ('ర', '|'), ('తి', '|'), ('గౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('ర్తు', '|'), ('వు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[('ఒ', '|'), ('ఱ', '|'), ('ప', '|'), ('గు', '|'), ('మీ', 'U'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('త', '|'), ('తు', '|'), ('లు', 'U'), ('ప్ప', '|'), ('న', '|'), ('బ', 'U'), ('ట్టె', '|'), ('లు', '|'), ('బి', 'U'), ('ల్ల', '|'), ('టీ', 'U'), ('పు', '|'), ('ల', 'U'), ('చ్చె', '|'), ('రు', '|'), ('వు', '|'), ('గ', '|'), ('బ', 'U'), ('ల్ల', '|'), ('కో', 'U'), ('టు', '|'), ('లు', '|'), ('ప్ర', '|'), ('సి', 'U'), ('ద్ధి', '|'), ('గ', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('మె', '|'), ('ఱు', '|'), ('పు', '|'), ('లు', '|'), ('ము', 'U'), ('చ్చ', '|'), ('టల్', 'U'), ('ర', '|'), ('తు', '|'), ('ల', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('లు', '|'), ('ద', 'U'), ('క్కు', '|'), ('లు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('మీ', 'U'), ('చి', '|'), ('ఱు', '|'), ('న', '|'), ('గ', '|'), ('వుం', 'U'), ('బ్ర', '|'), ('మో', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('చె', 'U'), ('క్కు', '|'), ('ల', '|'), ('నొ', 'U'), ('క్కు', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ఒ', '|'), ('ఱ', '|'), ('ప', '|'), ('గు', '|'), ('మీ', 'U'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('త', '|'), ('తు', '|'), ('లు', 'U'), ('ప్ప', '|'), ('న', '|'), ('బ', 'U'), ('ట్టె', '|'), ('లు', '|'), ('బి', 'U'), ('ల్ల', '|'), ('టీ', 'U'), ('పు', '|'), ('ల', 'U'), ('చ్చె', '|'), ('రు', '|'), ('వు', '|'), ('గ', '|'), ('బ', 'U'), ('ల్ల', '|'), ('కో', 'U'), ('టు', '|'), ('లు', '|'), ('ప్ర', '|'), ('సి', 'U'), ('ద్ధి', '|'), ('గ', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('మె', '|'), ('ఱు', '|'), ('పు', '|'), ('లు', '|'), ('ము', 'U'), ('చ్చ', '|'), ('ట', '|'), ('ల్ర', '|'), ('తు', '|'), ('ల', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('లు', '|'), ('ద', 'U'), ('క్కు', '|'), ('లు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('మీ', 'U'), ('చి', '|'), ('ఱు', '|'), ('న', '|'), ('గ', '|'), ('వుం', 'U'), ('బ్ర', '|'), ('మో', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('చె', 'U'), ('క్కు', '|'), ('ల', '|'), ('నొ', 'U'), ('క్కు', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[('నె', '|'), ('ఱి', '|'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కు', '|'), ('ను', '|'), ('నీ', 'U'), ('కు', '|'), ('ను', '|'), ('ప', 'U'), ('ద్మ', '|'), ('భ', '|'), ('వాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('మే', 'U'), ('మె', '|'), ('ఱ', '|'), ('సి', '|'), ('న', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('రి', 'U'), ('ల్లు', '|'), ('త', '|'), ('గు', '|'), ('మే', 'U'), ('డ', '|'), ('లు', '|'), ('మీ', 'U'), ('ద', '|'), ('టి', '|'), ('లో', 'U'), ('క', '|'), ('ముల్', 'U'), ('ప్ర', '|'), ('భల్', 'U'), ('తె', '|'), ('ఱ', '|'), ('ల', '|'), ('గ', '|'), ('మిం', 'U'), ('చు', '|'), ('న', 'U'), ('య్యి', '|'), ('ను', '|'), ('డె', '|'), ('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('గు', 'U'), ('జ్జ', '|'), ('న', '|'), ('గూ', 'U'), ('డు', '|'), ('చం', 'U'), ('ద్రు', '|'), ('డే', 'U'), ('తొ', '|'), ('ఱ', '|'), ('లి', '|'), ('న', '|'), ('దే', 'U'), ('వ', '|'), ('సం', 'U'), ('ఘ', '|'), ('ము', '|'), ('లె', '|'), ('తొ', 'U'), ('త్తు', '|'), ('లు', '|'), ('బం', 'U'), ('ట్లు', '|'), ('ను', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('నె', '|'), ('ఱి', '|'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కు', '|'), ('ను', '|'), ('నీ', 'U'), ('కు', '|'), ('ను', '|'), ('ప', 'U'), ('ద్మ', '|'), ('భ', '|'), ('వాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('మే', 'U'), ('మె', '|'), ('ఱ', '|'), ('సి', '|'), ('న', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('రి', 'U'), ('ల్లు', '|'), ('త', '|'), ('గు', '|'), ('మే', 'U'), ('డ', '|'), ('లు', '|'), ('మీ', 'U'), ('ద', '|'), ('టి', '|'), ('లో', 'U'), ('క', '|'), ('ము', 'U'), ('ల్ప్ర', '|'), ('భల్', 'U'), ('తె', '|'), ('ఱ', '|'), ('ల', '|'), ('గ', '|'), ('మిం', 'U'), ('చు', '|'), ('న', 'U'), ('య్యి', '|'), ('ను', '|'), ('డె', '|'), ('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('గు', 'U'), ('జ్జ', '|'), ('న', '|'), ('గూ', 'U'), ('డు', '|'), ('చం', 'U'), ('ద్రు', '|'), ('డే', 'U'), ('తొ', '|'), ('ఱ', '|'), ('లి', '|'), ('న', '|'), ('దే', 'U'), ('వ', '|'), ('సం', 'U'), ('ఘ', '|'), ('ము', '|'), ('లె', '|'), ('తొ', 'U'), ('త్తు', '|'), ('లు', '|'), ('బం', 'U'), ('ట్లు', '|'), ('ను', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('గు', '|'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కు', '|'), ('ను', '|'), ('ద', 'U'), ('న్మ', '|'), ('య', '|'), ('మం', 'U'), ('దె', '|'), ('డు', '|'), ('నీ', 'U'), ('కు', '|'), ('మే', 'U'), ('ని', '|'), ('లో', 'U'), ('బ', '|'), ('గ', '|'), ('టు', '|'), ('లు', '|'), ('బ', 'U'), ('చ్చి', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('ను', '|'), ('బ', 'U'), ('చ్చె', '|'), ('న', '|'), ('యె', 'U'), ('చ్చ', '|'), ('రి', '|'), ('కల్', 'U'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ముల్', 'U'), ('మొ', '|'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('లే', 'U'), ('త', '|'), ('న', 'U'), ('వ్వు', '|'), ('ల', '|'), ('ను', '|'), ('మో', 'U'), ('వు', '|'), ('ల', '|'), ('నా', 'U'), ('టు', '|'), ('లు', '|'), ('త', 'U'), ('మ్మి', '|'), ('తూ', 'U'), ('టు', '|'), ('లున్', 'U'), ('జ', '|'), ('గ', '|'), ('డ', '|'), ('పు', '|'), ('బొం', 'U'), ('దు', '|'), ('లున్', 'U'), ('ర', '|'), ('తు', '|'), ('ల', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('విం', 'U'), ('దు', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('త', '|'), ('గు', '|'), ('న', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కు', '|'), ('ను', '|'), ('ద', 'U'), ('న్మ', '|'), ('య', '|'), ('మం', 'U'), ('దె', '|'), ('డు', '|'), ('నీ', 'U'), ('కు', '|'), ('మే', 'U'), ('ని', '|'), ('లో', 'U'), ('బ', '|'), ('గ', '|'), ('టు', '|'), ('లు', '|'), ('బ', 'U'), ('చ్చి', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('ను', '|'), ('బ', 'U'), ('చ్చె', '|'), ('న', '|'), ('యె', 'U'), ('చ్చ', '|'), ('రి', '|'), ('క', 'U'), ('ల్వి', '|'), ('వే', 'U'), ('క', '|'), ('ముల్', 'U'), ('మొ', '|'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('లే', 'U'), ('త', '|'), ('న', 'U'), ('వ్వు', '|'), ('ల', '|'), ('ను', '|'), ('మో', 'U'), ('వు', '|'), ('ల', '|'), ('నా', 'U'), ('టు', '|'), ('లు', '|'), ('త', 'U'), ('మ్మి', '|'), ('తూ', 'U'), ('టు', '|'), ('లున్', 'U'), ('జ', '|'), ('గ', '|'), ('డ', '|'), ('పు', '|'), ('బొం', 'U'), ('దు', '|'), ('లు', '|'), ('న్ర', '|'), ('తు', '|'), ('ల', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('విం', 'U'), ('దు', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[('ఒ', '|'), ('క', '|'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('మ', '|'), ('హి', '|'), ('మో', 'U'), ('న్న', '|'), ('తి', '|'), ('జి', 'U'), ('క్కి', '|'), ('తి', '|'), ('యో', 'U'), ('గ', '|'), ('లీ', 'U'), ('ల', '|'), ('చే', 'U'), ('జి', '|'), ('కు', '|'), ('ర', '|'), ('భ', '|'), ('రం', 'U'), ('బు', '|'), ('జా', 'U'), ('ఱ', '|'), ('న', '|'), ('ల', '|'), ('సెన్', 'U'), ('ని', '|'), ('ఖి', '|'), ('లో', 'U'), ('న్న', '|'), ('తు', '|'), ('డం', 'U'), ('చు', '|'), ('నీ', 'U'), ('కృ', '|'), ('పన్', 'U'), ('బ్ర', '|'), ('క', '|'), ('ట', '|'), ('ము', '|'), ('లై', 'U'), ('న', '|'), ('కాం', 'U'), ('త', '|'), ('యిం', 'U'), ('తు', '|'), ('రు', '|'), ('శీ', 'U'), ('త', '|'), ('ల', '|'), ('క్రి', '|'), ('యన్', 'U'), ('మొ', '|'), ('క', '|'), ('ము', '|'), ('ల', '|'), ('ని', 'U'), ('గ్గు', '|'), ('దే', 'U'), ('ఱ', '|'), ('గ', '|'), ('ను', '|'), ('ము', 'U'), ('చ్చ', '|'), ('ట', '|'), ('లా', 'U'), ('డు', '|'), ('చు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ఒ', '|'), ('క', '|'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('మ', '|'), ('హి', '|'), ('మో', 'U'), ('న్న', '|'), ('తి', '|'), ('జి', 'U'), ('క్కి', '|'), ('తి', '|'), ('యో', 'U'), ('గ', '|'), ('లీ', 'U'), ('ల', '|'), ('చే', 'U'), ('జి', '|'), ('కు', '|'), ('ర', '|'), ('భ', '|'), ('రం', 'U'), ('బు', '|'), ('జా', 'U'), ('ఱ', '|'), ('న', '|'), ('ల', '|'), ('సె', 'U'), ('న్ని', '|'), ('ఖి', '|'), ('లో', 'U'), ('న్న', '|'), ('తు', '|'), ('డం', 'U'), ('చు', '|'), ('నీ', 'U'), ('కృ', '|'), ('పన్', 'U'), ('బ్ర', '|'), ('క', '|'), ('ట', '|'), ('ము', '|'), ('లై', 'U'), ('న', '|'), ('కాం', 'U'), ('త', '|'), ('యిం', 'U'), ('తు', '|'), ('రు', '|'), ('శీ', 'U'), ('త', '|'), ('ల', '|'), ('క్రి', '|'), ('యన్', 'U'), ('మొ', '|'), ('క', '|'), ('ము', '|'), ('ల', '|'), ('ని', 'U'), ('గ్గు', '|'), ('దే', 'U'), ('ఱ', '|'), ('గ', '|'), ('ను', '|'), ('ము', 'U'), ('చ్చ', '|'), ('ట', '|'), ('లా', 'U'), ('డు', '|'), ('చు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('ది', '|'), ('సి', '|'), ('న', '|'), ('సే', 'U'), ('స', '|'), ('ము', '|'), ('తై', 'U'), ('ము', '|'), ('ల', '|'), ('కం', 'U'), ('ఠ', '|'), ('స', '|'), ('రుల్', 'U'), ('ఘ', '|'), ('న', '|'), ('ర', 'U'), ('త్న', '|'), ('కం', 'U'), ('క', '|'), ('ణాం', 'U'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('శ', '|'), ('నా', 'U'), ('ని', '|'), ('కా', 'U'), ('య', '|'), ('ము', '|'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('బొ', '|'), ('ది', '|'), ('వి', '|'), ('వి', '|'), ('వా', 'U'), ('హ', '|'), ('వే', 'U'), ('ళ', '|'), ('ది', '|'), ('గ', '|'), ('బో', 'U'), ('సి', '|'), ('న', '|'), ('ము', 'U'), ('త్తె', '|'), ('పు', '|'), ('బ్రా', 'U'), ('ల', '|'), ('నం', 'U'), ('ద', '|'), ('మై', 'U'), ('ము', '|'), ('ద', '|'), ('మ', '|'), ('గు', '|'), ('నీ', 'U'), ('కు', '|'), ('గ', 'U'), ('న్ను', '|'), ('గ', '|'), ('వ', '|'), ('ముం', 'U'), ('ద', '|'), ('ఱ', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('క', '|'), ('ది', '|'), ('సి', '|'), ('న', '|'), ('సే', 'U'), ('స', '|'), ('ము', '|'), ('తై', 'U'), ('ము', '|'), ('ల', '|'), ('కం', 'U'), ('ఠ', '|'), ('స', '|'), ('రు', 'U'), ('ల్ఘ', '|'), ('న', '|'), ('ర', 'U'), ('త్న', '|'), ('కం', 'U'), ('క', '|'), ('ణాం', 'U'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('శ', '|'), ('నా', 'U'), ('ని', '|'), ('కా', 'U'), ('య', '|'), ('ము', '|'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('బొ', '|'), ('ది', '|'), ('వి', '|'), ('వి', '|'), ('వా', 'U'), ('హ', '|'), ('వే', 'U'), ('ళ', '|'), ('ది', '|'), ('గ', '|'), ('బో', 'U'), ('సి', '|'), ('న', '|'), ('ము', 'U'), ('త్తె', '|'), ('పు', '|'), ('బ్రా', 'U'), ('ల', '|'), ('నం', 'U'), ('ద', '|'), ('మై', 'U'), ('ము', '|'), ('ద', '|'), ('మ', '|'), ('గు', '|'), ('నీ', 'U'), ('కు', '|'), ('గ', 'U'), ('న్ను', '|'), ('గ', '|'), ('వ', '|'), ('ముం', 'U'), ('ద', '|'), ('ఱ', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[('ప', 'U'), ('చ్చ', '|'), ('ల', '|'), ('సం', 'U'), ('ది', '|'), ('దం', 'U'), ('డ', '|'), ('లు', '|'), ('ను', '|'), ('బా', 'U'), ('హు', '|'), ('పు', '|'), ('రుల్', 'U'), ('మ', '|'), ('ణి', '|'), ('నూ', 'U'), ('పు', '|'), ('రం', 'U'), ('బు', '|'), ('లున్', 'U'), ('మ', 'U'), ('చ్చ', '|'), ('రి', '|'), ('కం', 'U'), ('బు', '|'), ('లుం', 'U'), ('బ', '|'), ('సి', '|'), ('డి', '|'), ('మ', 'U'), ('ట్టె', '|'), ('ల', '|'), ('మ్రో', 'U'), ('త', '|'), ('లు', '|'), ('బె', 'U'), ('ల్లు', '|'), ('మ్రో', 'U'), ('య', '|'), ('గా', 'U'), ('నె', 'U'), ('చ్చె', '|'), ('లు', '|'), ('లో', 'U'), ('లి', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('ద', '|'), ('రు', '|'), ('ణీ', 'U'), ('మ', '|'), ('ణి', '|'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('ము', 'U'), ('చ్చ', '|'), ('ట', '|'), ('దీ', 'U'), ('ర్చు', '|'), ('నొ', 'U'), ('క్క', '|'), ('ప', '|'), ('రి', '|'), ('ముం', 'U'), ('ద', '|'), ('ఱ', '|'), ('ని', 'U'), ('ల్చి', '|'), ('న', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ప', 'U'), ('చ్చ', '|'), ('ల', '|'), ('సం', 'U'), ('ది', '|'), ('దం', 'U'), ('డ', '|'), ('లు', '|'), ('ను', '|'), ('బా', 'U'), ('హు', '|'), ('పు', '|'), ('రు', 'U'), ('ల్మ', '|'), ('ణి', '|'), ('నూ', 'U'), ('పు', '|'), ('రం', 'U'), ('బు', '|'), ('లున్', 'U'), ('మ', 'U'), ('చ్చ', '|'), ('రి', '|'), ('కం', 'U'), ('బు', '|'), ('లుం', 'U'), ('బ', '|'), ('సి', '|'), ('డి', '|'), ('మ', 'U'), ('ట్టె', '|'), ('ల', '|'), ('మ్రో', 'U'), ('త', '|'), ('లు', '|'), ('బె', 'U'), ('ల్లు', '|'), ('మ్రో', 'U'), ('య', '|'), ('గా', 'U'), ('నె', 'U'), ('చ్చె', '|'), ('లు', '|'), ('లో', 'U'), ('లి', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('ద', '|'), ('రు', '|'), ('ణీ', 'U'), ('మ', '|'), ('ణి', '|'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('ము', 'U'), ('చ్చ', '|'), ('ట', '|'), ('దీ', 'U'), ('ర్చు', '|'), ('నొ', 'U'), ('క్క', '|'), ('ప', '|'), ('రి', '|'), ('ముం', 'U'), ('ద', '|'), ('ఱ', '|'), ('ని', 'U'), ('ల్చి', '|'), ('న', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[('చ', 'U'), ('క్క', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('రా', 'U'), ('శి', '|'), ('ను', '|'), ('ను', '|'), ('సా', 'U'), ('న', '|'), ('లన్', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('న', '|'), ('పు', 'U'), ('వ్వు', '|'), ('ట', 'U'), ('మ్ము', '|'), ('లో', 'U'), ('జ', 'U'), ('క్కె', '|'), ('ర', '|'), ('నిం', 'U'), ('చి', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('ర', '|'), ('స', 'U'), ('స్థి', '|'), ('తి', '|'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('మ', 'U'), ('క్కు', '|'), ('వ', '|'), ('జి', 'U'), ('క్కి', '|'), ('మా', 'U'), ('త', '|'), ('ల', '|'), ('భ్ర', '|'), ('మం', 'U'), ('ద', '|'), ('గు', '|'), ('లై', 'U'), ('క', '|'), ('ల', '|'), ('వం', 'U'), ('త', '|'), ('ని', 'U'), ('ట్ల', '|'), ('నీ', 'U'), ('వ', 'U'), ('క్కు', '|'), ('న', '|'), ('జే', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('న', '|'), ('ల', '|'), ('రె', '|'), ('న', 'U'), ('న్ను', '|'), ('వ', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('చ', 'U'), ('క్క', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('రా', 'U'), ('శి', '|'), ('ను', '|'), ('ను', '|'), ('సా', 'U'), ('న', '|'), ('ల', 'U'), ('న్బ', 'U'), ('ట్టి', '|'), ('న', '|'), ('పు', 'U'), ('వ్వు', '|'), ('ట', 'U'), ('మ్ము', '|'), ('లో', 'U'), ('జ', 'U'), ('క్కె', '|'), ('ర', '|'), ('నిం', 'U'), ('చి', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('ర', '|'), ('స', 'U'), ('స్థి', '|'), ('తి', '|'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('నీ', 'U'), ('మ', 'U'), ('క్కు', '|'), ('వ', '|'), ('జి', 'U'), ('క్కి', '|'), ('మా', 'U'), ('త', '|'), ('ల', '|'), ('భ్ర', '|'), ('మం', 'U'), ('ద', '|'), ('గు', '|'), ('లై', 'U'), ('క', '|'), ('ల', '|'), ('వం', 'U'), ('త', '|'), ('ని', 'U'), ('ట్ల', '|'), ('నీ', 'U'), ('వ', 'U'), ('క్కు', '|'), ('న', '|'), ('జే', 'U'), ('ర్ప', '|'), ('గా', 'U'), ('న', '|'), ('ల', '|'), ('రె', '|'), ('న', 'U'), ('న్ను', '|'), ('వ', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[('ద', 'U'), ('ర్ప', '|'), ('క', '|'), ('రా', 'U'), ('జ్య', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('లు', '|'), ('త', 'U'), ('న్మ', '|'), ('య', '|'), ('కో', 'U'), ('టు', '|'), ('లు', '|'), ('రా', 'U'), ('గి', '|'), ('లో', 'U'), ('క', '|'), ('సం', 'U'), ('త', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('ముల్', 'U'), ('ల', '|'), ('తా', 'U'), ('ధ', '|'), ('ర', '|'), ('సు', '|'), ('ధా', 'U'), ('ప', '|'), ('రి', '|'), ('ధా', 'U'), ('న', '|'), ('ము', '|'), ('లా', 'U'), ('న', '|'), ('న', '|'), ('వ్ర', '|'), ('తుల్', 'U'), ('క', 'U'), ('ర్పు', '|'), ('ర', '|'), ('గం', 'U'), ('ధ', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('లు', '|'), ('గ్ర', 'U'), ('క్కు', '|'), ('న', '|'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('మా', 'U'), ('ర్ప', '|'), ('డు', '|'), ('దే', 'U'), ('హ', '|'), ('సం', 'U'), ('గ', '|'), ('తు', '|'), ('ల', '|'), ('మ', 'U'), ('ర్మి', '|'), ('పు', '|'), ('జే', 'U'), ('త', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('ద', 'U'), ('ర్ప', '|'), ('క', '|'), ('రా', 'U'), ('జ్య', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('లు', '|'), ('త', 'U'), ('న్మ', '|'), ('య', '|'), ('కో', 'U'), ('టు', '|'), ('లు', '|'), ('రా', 'U'), ('గి', '|'), ('లో', 'U'), ('క', '|'), ('సం', 'U'), ('త', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('ము', 'U'), ('ల్ల', '|'), ('తా', 'U'), ('ధ', '|'), ('ర', '|'), ('సు', '|'), ('ధా', 'U'), ('ప', '|'), ('రి', '|'), ('ధా', 'U'), ('న', '|'), ('ము', '|'), ('లా', 'U'), ('న', '|'), ('న', '|'), ('వ్ర', '|'), ('తుల్', 'U'), ('క', 'U'), ('ర్పు', '|'), ('ర', '|'), ('గం', 'U'), ('ధ', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('లు', '|'), ('గ్ర', 'U'), ('క్కు', '|'), ('న', '|'), ('శ్రీ', 'U'), ('య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('కున్', 'U'), ('మా', 'U'), ('ర్ప', '|'), ('డు', '|'), ('దే', 'U'), ('హ', '|'), ('సం', 'U'), ('గ', '|'), ('తు', '|'), ('ల', '|'), ('మ', 'U'), ('ర్మి', '|'), ('పు', '|'), ('జే', 'U'), ('త', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[('అం', 'U'), ('బ', '|'), ('ర', '|'), ('మె', 'U'), ('ల్ల', '|'), ('జం', 'U'), ('ద్ర', '|'), ('మ', '|'), ('య', '|'), ('మై', 'U'), ('న', '|'), ('టు', '|'), ('లా', 'U'), ('మ', '|'), ('ద', '|'), ('నాం', 'U'), ('క', '|'), ('ముల్', 'U'), ('మె', '|'), ('యిన్', 'U'), ('బం', 'U'), ('బి', '|'), ('న', '|'), ('నే', 'U'), ('డ', '|'), ('వం', 'U'), ('చు', '|'), ('సి', '|'), ('రి', '|'), ('ప', 'U'), ('ల్కి', '|'), ('న', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('పా', 'U'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('యా', 'U'), ('న', '|'), ('వె', 'U'), ('ట్టి', '|'), ('తి', '|'), ('వి', '|'), ('త', 'U'), ('మ్మి', '|'), ('యి', '|'), ('గు', 'U'), ('ళ్ల', '|'), ('ని', '|'), ('నీ', 'U'), ('కు', '|'), ('బొం', 'U'), ('కు', '|'), ('లే', 'U'), ('నెం', 'U'), ('బ', '|'), ('ళ', '|'), ('మా', 'U'), ('యె', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', '|'), ('జె', 'U'), ('ల్ల', '|'), ('వు', '|'), ('రం', 'U'), ('తు', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
+          <t>[('అం', 'U'), ('బ', '|'), ('ర', '|'), ('మె', 'U'), ('ల్ల', '|'), ('జం', 'U'), ('ద్ర', '|'), ('మ', '|'), ('య', '|'), ('మై', 'U'), ('న', '|'), ('టు', '|'), ('లా', 'U'), ('మ', '|'), ('ద', '|'), ('నాం', 'U'), ('క', '|'), ('ము', 'U'), ('ల్మె', '|'), ('యిన్', 'U'), ('బం', 'U'), ('బి', '|'), ('న', '|'), ('నే', 'U'), ('డ', '|'), ('వం', 'U'), ('చు', '|'), ('సి', '|'), ('రి', '|'), ('ప', 'U'), ('ల్కి', '|'), ('న', '|'), ('న', 'U'), ('య్య', '|'), ('ల', '|'), ('మే', 'U'), ('లు', '|'), ('మం', 'U'), ('గ', '|'), ('పా', 'U'), ('దం', 'U'), ('బు', '|'), ('ల', '|'), ('యా', 'U'), ('న', '|'), ('వె', 'U'), ('ట్టి', '|'), ('తి', '|'), ('వి', '|'), ('త', 'U'), ('మ్మి', '|'), ('యి', '|'), ('గు', 'U'), ('ళ్ల', '|'), ('ని', '|'), ('నీ', 'U'), ('కు', '|'), ('బొం', 'U'), ('కు', '|'), ('లే', 'U'), ('నెం', 'U'), ('బ', '|'), ('ళ', '|'), ('మా', 'U'), ('యె', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', '|'), ('జె', 'U'), ('ల్ల', '|'), ('వు', '|'), ('రం', 'U'), ('తు', '|'), ('లు', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శ్వ', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
